--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10301_TOPメニュー.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10301_TOPメニュー.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7704C858-F891-438E-BCD4-0B209D5567C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C1FC19-B8F1-4F7E-9A05-E89534A243A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10354,8 +10354,89 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -10465,84 +10546,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10551,9 +10554,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -11095,22 +11095,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1493043</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>1108868</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86825E7F-E122-4FDF-B94C-49A1E2A4604A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA95947-FAEF-4E15-94FF-596A19C94331}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11118,8 +11118,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2657475" y="1733549"/>
-          <a:ext cx="10922793" cy="2543175"/>
+          <a:off x="2266950" y="1689100"/>
+          <a:ext cx="10900568" cy="3140074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11147,34 +11147,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>リクエストが</a:t>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>取引単体テストで確認が必要な観点なし。リクエスト単体テストで品質担保する。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>つだけであり取引単体としての観点は</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>リクエスト単体でカバーできているので、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>取引単体としてのテストは対象外</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11529,12 +11513,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="178" t="str">
+      <c r="I25" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="179"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -12094,51 +12078,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="188" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="215" t="s">
         <v>523</v>
       </c>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="194" t="s">
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="203" t="s">
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="223"/>
+      <c r="S1" s="230" t="s">
         <v>697</v>
       </c>
-      <c r="T1" s="204"/>
-      <c r="U1" s="204"/>
-      <c r="V1" s="204"/>
-      <c r="W1" s="204"/>
-      <c r="X1" s="204"/>
-      <c r="Y1" s="204"/>
-      <c r="Z1" s="205"/>
-      <c r="AA1" s="185" t="s">
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="187"/>
-      <c r="AC1" s="212"/>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="179"/>
-      <c r="AH1" s="180"/>
-      <c r="AI1" s="181"/>
+      <c r="AB1" s="214"/>
+      <c r="AC1" s="239"/>
+      <c r="AD1" s="240"/>
+      <c r="AE1" s="240"/>
+      <c r="AF1" s="241"/>
+      <c r="AG1" s="206"/>
+      <c r="AH1" s="207"/>
+      <c r="AI1" s="208"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -12146,53 +12130,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="188" t="s">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="215" t="s">
         <v>569</v>
       </c>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="207"/>
-      <c r="U2" s="207"/>
-      <c r="V2" s="207"/>
-      <c r="W2" s="207"/>
-      <c r="X2" s="207"/>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="185" t="s">
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="225"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="191" t="str">
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="192"/>
-      <c r="AE2" s="192"/>
-      <c r="AF2" s="193"/>
-      <c r="AG2" s="179" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="206" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="180"/>
-      <c r="AI2" s="181"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12200,45 +12184,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188" t="s">
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215" t="s">
         <v>570</v>
       </c>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="200"/>
-      <c r="P3" s="201"/>
-      <c r="Q3" s="201"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="210"/>
-      <c r="Y3" s="210"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="213"/>
-      <c r="AE3" s="213"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="179"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="181"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="236"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="239"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="241"/>
+      <c r="AG3" s="206"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="208"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12275,1176 +12259,1020 @@
       <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="183"/>
-      <c r="D7" s="182" t="s">
+      <c r="C7" s="210"/>
+      <c r="D7" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="184"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="182" t="s">
+      <c r="E7" s="211"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="184"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="182" t="s">
+      <c r="H7" s="211"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="182" t="s">
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="210"/>
+      <c r="Q7" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="184"/>
-      <c r="S7" s="184"/>
-      <c r="T7" s="184"/>
-      <c r="U7" s="184"/>
-      <c r="V7" s="184"/>
-      <c r="W7" s="184"/>
-      <c r="X7" s="184"/>
-      <c r="Y7" s="184"/>
-      <c r="Z7" s="184"/>
-      <c r="AA7" s="184"/>
-      <c r="AB7" s="184"/>
-      <c r="AC7" s="184"/>
-      <c r="AD7" s="184"/>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="182" t="s">
+      <c r="R7" s="211"/>
+      <c r="S7" s="211"/>
+      <c r="T7" s="211"/>
+      <c r="U7" s="211"/>
+      <c r="V7" s="211"/>
+      <c r="W7" s="211"/>
+      <c r="X7" s="211"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="211"/>
+      <c r="AA7" s="211"/>
+      <c r="AB7" s="211"/>
+      <c r="AC7" s="211"/>
+      <c r="AD7" s="211"/>
+      <c r="AE7" s="210"/>
+      <c r="AF7" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="AG7" s="184"/>
-      <c r="AH7" s="184"/>
-      <c r="AI7" s="183"/>
+      <c r="AG7" s="211"/>
+      <c r="AH7" s="211"/>
+      <c r="AI7" s="210"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="20"/>
-      <c r="B8" s="227"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="233"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="235"/>
-      <c r="M8" s="235"/>
-      <c r="N8" s="235"/>
-      <c r="O8" s="235"/>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="237"/>
-      <c r="R8" s="238"/>
-      <c r="S8" s="238"/>
-      <c r="T8" s="238"/>
-      <c r="U8" s="238"/>
-      <c r="V8" s="238"/>
-      <c r="W8" s="238"/>
-      <c r="X8" s="238"/>
-      <c r="Y8" s="238"/>
-      <c r="Z8" s="238"/>
-      <c r="AA8" s="238"/>
-      <c r="AB8" s="238"/>
-      <c r="AC8" s="238"/>
-      <c r="AD8" s="238"/>
-      <c r="AE8" s="239"/>
-      <c r="AF8" s="234"/>
-      <c r="AG8" s="235"/>
-      <c r="AH8" s="235"/>
-      <c r="AI8" s="236"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="204"/>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="204"/>
+      <c r="AE8" s="205"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="201"/>
+      <c r="AH8" s="201"/>
+      <c r="AI8" s="202"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="215"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="220"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="221"/>
-      <c r="K9" s="222"/>
-      <c r="L9" s="222"/>
-      <c r="M9" s="222"/>
-      <c r="N9" s="222"/>
-      <c r="O9" s="222"/>
-      <c r="P9" s="223"/>
-      <c r="Q9" s="224"/>
-      <c r="R9" s="225"/>
-      <c r="S9" s="225"/>
-      <c r="T9" s="225"/>
-      <c r="U9" s="225"/>
-      <c r="V9" s="225"/>
-      <c r="W9" s="225"/>
-      <c r="X9" s="225"/>
-      <c r="Y9" s="225"/>
-      <c r="Z9" s="225"/>
-      <c r="AA9" s="225"/>
-      <c r="AB9" s="225"/>
-      <c r="AC9" s="225"/>
-      <c r="AD9" s="225"/>
-      <c r="AE9" s="226"/>
-      <c r="AF9" s="221"/>
-      <c r="AG9" s="222"/>
-      <c r="AH9" s="222"/>
-      <c r="AI9" s="223"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="189"/>
+      <c r="R9" s="190"/>
+      <c r="S9" s="190"/>
+      <c r="T9" s="190"/>
+      <c r="U9" s="190"/>
+      <c r="V9" s="190"/>
+      <c r="W9" s="190"/>
+      <c r="X9" s="190"/>
+      <c r="Y9" s="190"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="190"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="190"/>
+      <c r="AD9" s="190"/>
+      <c r="AE9" s="191"/>
+      <c r="AF9" s="186"/>
+      <c r="AG9" s="187"/>
+      <c r="AH9" s="187"/>
+      <c r="AI9" s="188"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="215"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="220"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="221"/>
-      <c r="K10" s="222"/>
-      <c r="L10" s="222"/>
-      <c r="M10" s="222"/>
-      <c r="N10" s="222"/>
-      <c r="O10" s="222"/>
-      <c r="P10" s="223"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="225"/>
-      <c r="S10" s="225"/>
-      <c r="T10" s="225"/>
-      <c r="U10" s="225"/>
-      <c r="V10" s="225"/>
-      <c r="W10" s="225"/>
-      <c r="X10" s="225"/>
-      <c r="Y10" s="225"/>
-      <c r="Z10" s="225"/>
-      <c r="AA10" s="225"/>
-      <c r="AB10" s="225"/>
-      <c r="AC10" s="225"/>
-      <c r="AD10" s="225"/>
-      <c r="AE10" s="226"/>
-      <c r="AF10" s="221"/>
-      <c r="AG10" s="222"/>
-      <c r="AH10" s="222"/>
-      <c r="AI10" s="223"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="187"/>
+      <c r="P10" s="188"/>
+      <c r="Q10" s="189"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="190"/>
+      <c r="V10" s="190"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="190"/>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="190"/>
+      <c r="AD10" s="190"/>
+      <c r="AE10" s="191"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="187"/>
+      <c r="AH10" s="187"/>
+      <c r="AI10" s="188"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="215"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="220"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="221"/>
-      <c r="K11" s="222"/>
-      <c r="L11" s="222"/>
-      <c r="M11" s="222"/>
-      <c r="N11" s="222"/>
-      <c r="O11" s="222"/>
-      <c r="P11" s="223"/>
-      <c r="Q11" s="224"/>
-      <c r="R11" s="225"/>
-      <c r="S11" s="225"/>
-      <c r="T11" s="225"/>
-      <c r="U11" s="225"/>
-      <c r="V11" s="225"/>
-      <c r="W11" s="225"/>
-      <c r="X11" s="225"/>
-      <c r="Y11" s="225"/>
-      <c r="Z11" s="225"/>
-      <c r="AA11" s="225"/>
-      <c r="AB11" s="225"/>
-      <c r="AC11" s="225"/>
-      <c r="AD11" s="225"/>
-      <c r="AE11" s="226"/>
-      <c r="AF11" s="221"/>
-      <c r="AG11" s="222"/>
-      <c r="AH11" s="222"/>
-      <c r="AI11" s="223"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="188"/>
+      <c r="Q11" s="189"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="190"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="190"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="191"/>
+      <c r="AF11" s="186"/>
+      <c r="AG11" s="187"/>
+      <c r="AH11" s="187"/>
+      <c r="AI11" s="188"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="215"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="218"/>
-      <c r="F12" s="219"/>
-      <c r="G12" s="215"/>
-      <c r="H12" s="220"/>
-      <c r="I12" s="216"/>
-      <c r="J12" s="221"/>
-      <c r="K12" s="222"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="222"/>
-      <c r="N12" s="222"/>
-      <c r="O12" s="222"/>
-      <c r="P12" s="223"/>
-      <c r="Q12" s="224"/>
-      <c r="R12" s="225"/>
-      <c r="S12" s="225"/>
-      <c r="T12" s="225"/>
-      <c r="U12" s="225"/>
-      <c r="V12" s="225"/>
-      <c r="W12" s="225"/>
-      <c r="X12" s="225"/>
-      <c r="Y12" s="225"/>
-      <c r="Z12" s="225"/>
-      <c r="AA12" s="225"/>
-      <c r="AB12" s="225"/>
-      <c r="AC12" s="225"/>
-      <c r="AD12" s="225"/>
-      <c r="AE12" s="226"/>
-      <c r="AF12" s="221"/>
-      <c r="AG12" s="222"/>
-      <c r="AH12" s="222"/>
-      <c r="AI12" s="223"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="187"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="188"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="190"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="190"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="191"/>
+      <c r="AF12" s="186"/>
+      <c r="AG12" s="187"/>
+      <c r="AH12" s="187"/>
+      <c r="AI12" s="188"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="215"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="219"/>
-      <c r="G13" s="215"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="216"/>
-      <c r="J13" s="221"/>
-      <c r="K13" s="222"/>
-      <c r="L13" s="222"/>
-      <c r="M13" s="222"/>
-      <c r="N13" s="222"/>
-      <c r="O13" s="222"/>
-      <c r="P13" s="223"/>
-      <c r="Q13" s="224"/>
-      <c r="R13" s="225"/>
-      <c r="S13" s="225"/>
-      <c r="T13" s="225"/>
-      <c r="U13" s="225"/>
-      <c r="V13" s="225"/>
-      <c r="W13" s="225"/>
-      <c r="X13" s="225"/>
-      <c r="Y13" s="225"/>
-      <c r="Z13" s="225"/>
-      <c r="AA13" s="225"/>
-      <c r="AB13" s="225"/>
-      <c r="AC13" s="225"/>
-      <c r="AD13" s="225"/>
-      <c r="AE13" s="226"/>
-      <c r="AF13" s="221"/>
-      <c r="AG13" s="222"/>
-      <c r="AH13" s="222"/>
-      <c r="AI13" s="223"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="187"/>
+      <c r="P13" s="188"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="190"/>
+      <c r="V13" s="190"/>
+      <c r="W13" s="190"/>
+      <c r="X13" s="190"/>
+      <c r="Y13" s="190"/>
+      <c r="Z13" s="190"/>
+      <c r="AA13" s="190"/>
+      <c r="AB13" s="190"/>
+      <c r="AC13" s="190"/>
+      <c r="AD13" s="190"/>
+      <c r="AE13" s="191"/>
+      <c r="AF13" s="186"/>
+      <c r="AG13" s="187"/>
+      <c r="AH13" s="187"/>
+      <c r="AI13" s="188"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="215"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="219"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="220"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="221"/>
-      <c r="K14" s="222"/>
-      <c r="L14" s="222"/>
-      <c r="M14" s="222"/>
-      <c r="N14" s="222"/>
-      <c r="O14" s="222"/>
-      <c r="P14" s="223"/>
-      <c r="Q14" s="224"/>
-      <c r="R14" s="225"/>
-      <c r="S14" s="225"/>
-      <c r="T14" s="225"/>
-      <c r="U14" s="225"/>
-      <c r="V14" s="225"/>
-      <c r="W14" s="225"/>
-      <c r="X14" s="225"/>
-      <c r="Y14" s="225"/>
-      <c r="Z14" s="225"/>
-      <c r="AA14" s="225"/>
-      <c r="AB14" s="225"/>
-      <c r="AC14" s="225"/>
-      <c r="AD14" s="225"/>
-      <c r="AE14" s="226"/>
-      <c r="AF14" s="221"/>
-      <c r="AG14" s="222"/>
-      <c r="AH14" s="222"/>
-      <c r="AI14" s="223"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="187"/>
+      <c r="P14" s="188"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="190"/>
+      <c r="S14" s="190"/>
+      <c r="T14" s="190"/>
+      <c r="U14" s="190"/>
+      <c r="V14" s="190"/>
+      <c r="W14" s="190"/>
+      <c r="X14" s="190"/>
+      <c r="Y14" s="190"/>
+      <c r="Z14" s="190"/>
+      <c r="AA14" s="190"/>
+      <c r="AB14" s="190"/>
+      <c r="AC14" s="190"/>
+      <c r="AD14" s="190"/>
+      <c r="AE14" s="191"/>
+      <c r="AF14" s="186"/>
+      <c r="AG14" s="187"/>
+      <c r="AH14" s="187"/>
+      <c r="AI14" s="188"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="215"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="218"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="222"/>
-      <c r="L15" s="222"/>
-      <c r="M15" s="222"/>
-      <c r="N15" s="222"/>
-      <c r="O15" s="222"/>
-      <c r="P15" s="223"/>
-      <c r="Q15" s="224"/>
-      <c r="R15" s="225"/>
-      <c r="S15" s="225"/>
-      <c r="T15" s="225"/>
-      <c r="U15" s="225"/>
-      <c r="V15" s="225"/>
-      <c r="W15" s="225"/>
-      <c r="X15" s="225"/>
-      <c r="Y15" s="225"/>
-      <c r="Z15" s="225"/>
-      <c r="AA15" s="225"/>
-      <c r="AB15" s="225"/>
-      <c r="AC15" s="225"/>
-      <c r="AD15" s="225"/>
-      <c r="AE15" s="226"/>
-      <c r="AF15" s="221"/>
-      <c r="AG15" s="222"/>
-      <c r="AH15" s="222"/>
-      <c r="AI15" s="223"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
+      <c r="P15" s="188"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="190"/>
+      <c r="S15" s="190"/>
+      <c r="T15" s="190"/>
+      <c r="U15" s="190"/>
+      <c r="V15" s="190"/>
+      <c r="W15" s="190"/>
+      <c r="X15" s="190"/>
+      <c r="Y15" s="190"/>
+      <c r="Z15" s="190"/>
+      <c r="AA15" s="190"/>
+      <c r="AB15" s="190"/>
+      <c r="AC15" s="190"/>
+      <c r="AD15" s="190"/>
+      <c r="AE15" s="191"/>
+      <c r="AF15" s="186"/>
+      <c r="AG15" s="187"/>
+      <c r="AH15" s="187"/>
+      <c r="AI15" s="188"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="215"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="220"/>
-      <c r="I16" s="216"/>
-      <c r="J16" s="221"/>
-      <c r="K16" s="222"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="222"/>
-      <c r="N16" s="222"/>
-      <c r="O16" s="222"/>
-      <c r="P16" s="223"/>
-      <c r="Q16" s="224"/>
-      <c r="R16" s="225"/>
-      <c r="S16" s="225"/>
-      <c r="T16" s="225"/>
-      <c r="U16" s="225"/>
-      <c r="V16" s="225"/>
-      <c r="W16" s="225"/>
-      <c r="X16" s="225"/>
-      <c r="Y16" s="225"/>
-      <c r="Z16" s="225"/>
-      <c r="AA16" s="225"/>
-      <c r="AB16" s="225"/>
-      <c r="AC16" s="225"/>
-      <c r="AD16" s="225"/>
-      <c r="AE16" s="226"/>
-      <c r="AF16" s="221"/>
-      <c r="AG16" s="222"/>
-      <c r="AH16" s="222"/>
-      <c r="AI16" s="223"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="187"/>
+      <c r="P16" s="188"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="190"/>
+      <c r="S16" s="190"/>
+      <c r="T16" s="190"/>
+      <c r="U16" s="190"/>
+      <c r="V16" s="190"/>
+      <c r="W16" s="190"/>
+      <c r="X16" s="190"/>
+      <c r="Y16" s="190"/>
+      <c r="Z16" s="190"/>
+      <c r="AA16" s="190"/>
+      <c r="AB16" s="190"/>
+      <c r="AC16" s="190"/>
+      <c r="AD16" s="190"/>
+      <c r="AE16" s="191"/>
+      <c r="AF16" s="186"/>
+      <c r="AG16" s="187"/>
+      <c r="AH16" s="187"/>
+      <c r="AI16" s="188"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="215"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="220"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="221"/>
-      <c r="K17" s="222"/>
-      <c r="L17" s="222"/>
-      <c r="M17" s="222"/>
-      <c r="N17" s="222"/>
-      <c r="O17" s="222"/>
-      <c r="P17" s="223"/>
-      <c r="Q17" s="224"/>
-      <c r="R17" s="225"/>
-      <c r="S17" s="225"/>
-      <c r="T17" s="225"/>
-      <c r="U17" s="225"/>
-      <c r="V17" s="225"/>
-      <c r="W17" s="225"/>
-      <c r="X17" s="225"/>
-      <c r="Y17" s="225"/>
-      <c r="Z17" s="225"/>
-      <c r="AA17" s="225"/>
-      <c r="AB17" s="225"/>
-      <c r="AC17" s="225"/>
-      <c r="AD17" s="225"/>
-      <c r="AE17" s="226"/>
-      <c r="AF17" s="221"/>
-      <c r="AG17" s="222"/>
-      <c r="AH17" s="222"/>
-      <c r="AI17" s="223"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="187"/>
+      <c r="P17" s="188"/>
+      <c r="Q17" s="189"/>
+      <c r="R17" s="190"/>
+      <c r="S17" s="190"/>
+      <c r="T17" s="190"/>
+      <c r="U17" s="190"/>
+      <c r="V17" s="190"/>
+      <c r="W17" s="190"/>
+      <c r="X17" s="190"/>
+      <c r="Y17" s="190"/>
+      <c r="Z17" s="190"/>
+      <c r="AA17" s="190"/>
+      <c r="AB17" s="190"/>
+      <c r="AC17" s="190"/>
+      <c r="AD17" s="190"/>
+      <c r="AE17" s="191"/>
+      <c r="AF17" s="186"/>
+      <c r="AG17" s="187"/>
+      <c r="AH17" s="187"/>
+      <c r="AI17" s="188"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="215"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="215"/>
-      <c r="H18" s="220"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="222"/>
-      <c r="L18" s="222"/>
-      <c r="M18" s="222"/>
-      <c r="N18" s="222"/>
-      <c r="O18" s="222"/>
-      <c r="P18" s="223"/>
-      <c r="Q18" s="224"/>
-      <c r="R18" s="225"/>
-      <c r="S18" s="225"/>
-      <c r="T18" s="225"/>
-      <c r="U18" s="225"/>
-      <c r="V18" s="225"/>
-      <c r="W18" s="225"/>
-      <c r="X18" s="225"/>
-      <c r="Y18" s="225"/>
-      <c r="Z18" s="225"/>
-      <c r="AA18" s="225"/>
-      <c r="AB18" s="225"/>
-      <c r="AC18" s="225"/>
-      <c r="AD18" s="225"/>
-      <c r="AE18" s="226"/>
-      <c r="AF18" s="221"/>
-      <c r="AG18" s="222"/>
-      <c r="AH18" s="222"/>
-      <c r="AI18" s="223"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="188"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="190"/>
+      <c r="S18" s="190"/>
+      <c r="T18" s="190"/>
+      <c r="U18" s="190"/>
+      <c r="V18" s="190"/>
+      <c r="W18" s="190"/>
+      <c r="X18" s="190"/>
+      <c r="Y18" s="190"/>
+      <c r="Z18" s="190"/>
+      <c r="AA18" s="190"/>
+      <c r="AB18" s="190"/>
+      <c r="AC18" s="190"/>
+      <c r="AD18" s="190"/>
+      <c r="AE18" s="191"/>
+      <c r="AF18" s="186"/>
+      <c r="AG18" s="187"/>
+      <c r="AH18" s="187"/>
+      <c r="AI18" s="188"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="215"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="215"/>
-      <c r="H19" s="220"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="221"/>
-      <c r="K19" s="222"/>
-      <c r="L19" s="222"/>
-      <c r="M19" s="222"/>
-      <c r="N19" s="222"/>
-      <c r="O19" s="222"/>
-      <c r="P19" s="223"/>
-      <c r="Q19" s="224"/>
-      <c r="R19" s="225"/>
-      <c r="S19" s="225"/>
-      <c r="T19" s="225"/>
-      <c r="U19" s="225"/>
-      <c r="V19" s="225"/>
-      <c r="W19" s="225"/>
-      <c r="X19" s="225"/>
-      <c r="Y19" s="225"/>
-      <c r="Z19" s="225"/>
-      <c r="AA19" s="225"/>
-      <c r="AB19" s="225"/>
-      <c r="AC19" s="225"/>
-      <c r="AD19" s="225"/>
-      <c r="AE19" s="226"/>
-      <c r="AF19" s="221"/>
-      <c r="AG19" s="222"/>
-      <c r="AH19" s="222"/>
-      <c r="AI19" s="223"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="187"/>
+      <c r="P19" s="188"/>
+      <c r="Q19" s="189"/>
+      <c r="R19" s="190"/>
+      <c r="S19" s="190"/>
+      <c r="T19" s="190"/>
+      <c r="U19" s="190"/>
+      <c r="V19" s="190"/>
+      <c r="W19" s="190"/>
+      <c r="X19" s="190"/>
+      <c r="Y19" s="190"/>
+      <c r="Z19" s="190"/>
+      <c r="AA19" s="190"/>
+      <c r="AB19" s="190"/>
+      <c r="AC19" s="190"/>
+      <c r="AD19" s="190"/>
+      <c r="AE19" s="191"/>
+      <c r="AF19" s="186"/>
+      <c r="AG19" s="187"/>
+      <c r="AH19" s="187"/>
+      <c r="AI19" s="188"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="215"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="215"/>
-      <c r="H20" s="220"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="221"/>
-      <c r="K20" s="222"/>
-      <c r="L20" s="222"/>
-      <c r="M20" s="222"/>
-      <c r="N20" s="222"/>
-      <c r="O20" s="222"/>
-      <c r="P20" s="223"/>
-      <c r="Q20" s="224"/>
-      <c r="R20" s="225"/>
-      <c r="S20" s="225"/>
-      <c r="T20" s="225"/>
-      <c r="U20" s="225"/>
-      <c r="V20" s="225"/>
-      <c r="W20" s="225"/>
-      <c r="X20" s="225"/>
-      <c r="Y20" s="225"/>
-      <c r="Z20" s="225"/>
-      <c r="AA20" s="225"/>
-      <c r="AB20" s="225"/>
-      <c r="AC20" s="225"/>
-      <c r="AD20" s="225"/>
-      <c r="AE20" s="226"/>
-      <c r="AF20" s="221"/>
-      <c r="AG20" s="222"/>
-      <c r="AH20" s="222"/>
-      <c r="AI20" s="223"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="187"/>
+      <c r="N20" s="187"/>
+      <c r="O20" s="187"/>
+      <c r="P20" s="188"/>
+      <c r="Q20" s="189"/>
+      <c r="R20" s="190"/>
+      <c r="S20" s="190"/>
+      <c r="T20" s="190"/>
+      <c r="U20" s="190"/>
+      <c r="V20" s="190"/>
+      <c r="W20" s="190"/>
+      <c r="X20" s="190"/>
+      <c r="Y20" s="190"/>
+      <c r="Z20" s="190"/>
+      <c r="AA20" s="190"/>
+      <c r="AB20" s="190"/>
+      <c r="AC20" s="190"/>
+      <c r="AD20" s="190"/>
+      <c r="AE20" s="191"/>
+      <c r="AF20" s="186"/>
+      <c r="AG20" s="187"/>
+      <c r="AH20" s="187"/>
+      <c r="AI20" s="188"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="215"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="216"/>
-      <c r="J21" s="221"/>
-      <c r="K21" s="222"/>
-      <c r="L21" s="222"/>
-      <c r="M21" s="222"/>
-      <c r="N21" s="222"/>
-      <c r="O21" s="222"/>
-      <c r="P21" s="223"/>
-      <c r="Q21" s="224"/>
-      <c r="R21" s="225"/>
-      <c r="S21" s="225"/>
-      <c r="T21" s="225"/>
-      <c r="U21" s="225"/>
-      <c r="V21" s="225"/>
-      <c r="W21" s="225"/>
-      <c r="X21" s="225"/>
-      <c r="Y21" s="225"/>
-      <c r="Z21" s="225"/>
-      <c r="AA21" s="225"/>
-      <c r="AB21" s="225"/>
-      <c r="AC21" s="225"/>
-      <c r="AD21" s="225"/>
-      <c r="AE21" s="226"/>
-      <c r="AF21" s="221"/>
-      <c r="AG21" s="222"/>
-      <c r="AH21" s="222"/>
-      <c r="AI21" s="223"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="188"/>
+      <c r="Q21" s="189"/>
+      <c r="R21" s="190"/>
+      <c r="S21" s="190"/>
+      <c r="T21" s="190"/>
+      <c r="U21" s="190"/>
+      <c r="V21" s="190"/>
+      <c r="W21" s="190"/>
+      <c r="X21" s="190"/>
+      <c r="Y21" s="190"/>
+      <c r="Z21" s="190"/>
+      <c r="AA21" s="190"/>
+      <c r="AB21" s="190"/>
+      <c r="AC21" s="190"/>
+      <c r="AD21" s="190"/>
+      <c r="AE21" s="191"/>
+      <c r="AF21" s="186"/>
+      <c r="AG21" s="187"/>
+      <c r="AH21" s="187"/>
+      <c r="AI21" s="188"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="215"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="218"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="221"/>
-      <c r="K22" s="222"/>
-      <c r="L22" s="222"/>
-      <c r="M22" s="222"/>
-      <c r="N22" s="222"/>
-      <c r="O22" s="222"/>
-      <c r="P22" s="223"/>
-      <c r="Q22" s="224"/>
-      <c r="R22" s="225"/>
-      <c r="S22" s="225"/>
-      <c r="T22" s="225"/>
-      <c r="U22" s="225"/>
-      <c r="V22" s="225"/>
-      <c r="W22" s="225"/>
-      <c r="X22" s="225"/>
-      <c r="Y22" s="225"/>
-      <c r="Z22" s="225"/>
-      <c r="AA22" s="225"/>
-      <c r="AB22" s="225"/>
-      <c r="AC22" s="225"/>
-      <c r="AD22" s="225"/>
-      <c r="AE22" s="226"/>
-      <c r="AF22" s="221"/>
-      <c r="AG22" s="222"/>
-      <c r="AH22" s="222"/>
-      <c r="AI22" s="223"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="187"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="187"/>
+      <c r="P22" s="188"/>
+      <c r="Q22" s="189"/>
+      <c r="R22" s="190"/>
+      <c r="S22" s="190"/>
+      <c r="T22" s="190"/>
+      <c r="U22" s="190"/>
+      <c r="V22" s="190"/>
+      <c r="W22" s="190"/>
+      <c r="X22" s="190"/>
+      <c r="Y22" s="190"/>
+      <c r="Z22" s="190"/>
+      <c r="AA22" s="190"/>
+      <c r="AB22" s="190"/>
+      <c r="AC22" s="190"/>
+      <c r="AD22" s="190"/>
+      <c r="AE22" s="191"/>
+      <c r="AF22" s="186"/>
+      <c r="AG22" s="187"/>
+      <c r="AH22" s="187"/>
+      <c r="AI22" s="188"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="215"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="218"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="220"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="221"/>
-      <c r="K23" s="222"/>
-      <c r="L23" s="222"/>
-      <c r="M23" s="222"/>
-      <c r="N23" s="222"/>
-      <c r="O23" s="222"/>
-      <c r="P23" s="223"/>
-      <c r="Q23" s="224"/>
-      <c r="R23" s="225"/>
-      <c r="S23" s="225"/>
-      <c r="T23" s="225"/>
-      <c r="U23" s="225"/>
-      <c r="V23" s="225"/>
-      <c r="W23" s="225"/>
-      <c r="X23" s="225"/>
-      <c r="Y23" s="225"/>
-      <c r="Z23" s="225"/>
-      <c r="AA23" s="225"/>
-      <c r="AB23" s="225"/>
-      <c r="AC23" s="225"/>
-      <c r="AD23" s="225"/>
-      <c r="AE23" s="226"/>
-      <c r="AF23" s="221"/>
-      <c r="AG23" s="222"/>
-      <c r="AH23" s="222"/>
-      <c r="AI23" s="223"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="188"/>
+      <c r="Q23" s="189"/>
+      <c r="R23" s="190"/>
+      <c r="S23" s="190"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="190"/>
+      <c r="V23" s="190"/>
+      <c r="W23" s="190"/>
+      <c r="X23" s="190"/>
+      <c r="Y23" s="190"/>
+      <c r="Z23" s="190"/>
+      <c r="AA23" s="190"/>
+      <c r="AB23" s="190"/>
+      <c r="AC23" s="190"/>
+      <c r="AD23" s="190"/>
+      <c r="AE23" s="191"/>
+      <c r="AF23" s="186"/>
+      <c r="AG23" s="187"/>
+      <c r="AH23" s="187"/>
+      <c r="AI23" s="188"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="215"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="218"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="215"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="222"/>
-      <c r="L24" s="222"/>
-      <c r="M24" s="222"/>
-      <c r="N24" s="222"/>
-      <c r="O24" s="222"/>
-      <c r="P24" s="223"/>
-      <c r="Q24" s="224"/>
-      <c r="R24" s="225"/>
-      <c r="S24" s="225"/>
-      <c r="T24" s="225"/>
-      <c r="U24" s="225"/>
-      <c r="V24" s="225"/>
-      <c r="W24" s="225"/>
-      <c r="X24" s="225"/>
-      <c r="Y24" s="225"/>
-      <c r="Z24" s="225"/>
-      <c r="AA24" s="225"/>
-      <c r="AB24" s="225"/>
-      <c r="AC24" s="225"/>
-      <c r="AD24" s="225"/>
-      <c r="AE24" s="226"/>
-      <c r="AF24" s="221"/>
-      <c r="AG24" s="222"/>
-      <c r="AH24" s="222"/>
-      <c r="AI24" s="223"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="187"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="187"/>
+      <c r="P24" s="188"/>
+      <c r="Q24" s="189"/>
+      <c r="R24" s="190"/>
+      <c r="S24" s="190"/>
+      <c r="T24" s="190"/>
+      <c r="U24" s="190"/>
+      <c r="V24" s="190"/>
+      <c r="W24" s="190"/>
+      <c r="X24" s="190"/>
+      <c r="Y24" s="190"/>
+      <c r="Z24" s="190"/>
+      <c r="AA24" s="190"/>
+      <c r="AB24" s="190"/>
+      <c r="AC24" s="190"/>
+      <c r="AD24" s="190"/>
+      <c r="AE24" s="191"/>
+      <c r="AF24" s="186"/>
+      <c r="AG24" s="187"/>
+      <c r="AH24" s="187"/>
+      <c r="AI24" s="188"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="215"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="218"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="215"/>
-      <c r="H25" s="220"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="222"/>
-      <c r="L25" s="222"/>
-      <c r="M25" s="222"/>
-      <c r="N25" s="222"/>
-      <c r="O25" s="222"/>
-      <c r="P25" s="223"/>
-      <c r="Q25" s="224"/>
-      <c r="R25" s="225"/>
-      <c r="S25" s="225"/>
-      <c r="T25" s="225"/>
-      <c r="U25" s="225"/>
-      <c r="V25" s="225"/>
-      <c r="W25" s="225"/>
-      <c r="X25" s="225"/>
-      <c r="Y25" s="225"/>
-      <c r="Z25" s="225"/>
-      <c r="AA25" s="225"/>
-      <c r="AB25" s="225"/>
-      <c r="AC25" s="225"/>
-      <c r="AD25" s="225"/>
-      <c r="AE25" s="226"/>
-      <c r="AF25" s="221"/>
-      <c r="AG25" s="222"/>
-      <c r="AH25" s="222"/>
-      <c r="AI25" s="223"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="187"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="188"/>
+      <c r="Q25" s="189"/>
+      <c r="R25" s="190"/>
+      <c r="S25" s="190"/>
+      <c r="T25" s="190"/>
+      <c r="U25" s="190"/>
+      <c r="V25" s="190"/>
+      <c r="W25" s="190"/>
+      <c r="X25" s="190"/>
+      <c r="Y25" s="190"/>
+      <c r="Z25" s="190"/>
+      <c r="AA25" s="190"/>
+      <c r="AB25" s="190"/>
+      <c r="AC25" s="190"/>
+      <c r="AD25" s="190"/>
+      <c r="AE25" s="191"/>
+      <c r="AF25" s="186"/>
+      <c r="AG25" s="187"/>
+      <c r="AH25" s="187"/>
+      <c r="AI25" s="188"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="215"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="218"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="222"/>
-      <c r="L26" s="222"/>
-      <c r="M26" s="222"/>
-      <c r="N26" s="222"/>
-      <c r="O26" s="222"/>
-      <c r="P26" s="223"/>
-      <c r="Q26" s="224"/>
-      <c r="R26" s="225"/>
-      <c r="S26" s="225"/>
-      <c r="T26" s="225"/>
-      <c r="U26" s="225"/>
-      <c r="V26" s="225"/>
-      <c r="W26" s="225"/>
-      <c r="X26" s="225"/>
-      <c r="Y26" s="225"/>
-      <c r="Z26" s="225"/>
-      <c r="AA26" s="225"/>
-      <c r="AB26" s="225"/>
-      <c r="AC26" s="225"/>
-      <c r="AD26" s="225"/>
-      <c r="AE26" s="226"/>
-      <c r="AF26" s="221"/>
-      <c r="AG26" s="222"/>
-      <c r="AH26" s="222"/>
-      <c r="AI26" s="223"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="187"/>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="189"/>
+      <c r="R26" s="190"/>
+      <c r="S26" s="190"/>
+      <c r="T26" s="190"/>
+      <c r="U26" s="190"/>
+      <c r="V26" s="190"/>
+      <c r="W26" s="190"/>
+      <c r="X26" s="190"/>
+      <c r="Y26" s="190"/>
+      <c r="Z26" s="190"/>
+      <c r="AA26" s="190"/>
+      <c r="AB26" s="190"/>
+      <c r="AC26" s="190"/>
+      <c r="AD26" s="190"/>
+      <c r="AE26" s="191"/>
+      <c r="AF26" s="186"/>
+      <c r="AG26" s="187"/>
+      <c r="AH26" s="187"/>
+      <c r="AI26" s="188"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="215"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="217"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="221"/>
-      <c r="K27" s="222"/>
-      <c r="L27" s="222"/>
-      <c r="M27" s="222"/>
-      <c r="N27" s="222"/>
-      <c r="O27" s="222"/>
-      <c r="P27" s="223"/>
-      <c r="Q27" s="224"/>
-      <c r="R27" s="225"/>
-      <c r="S27" s="225"/>
-      <c r="T27" s="225"/>
-      <c r="U27" s="225"/>
-      <c r="V27" s="225"/>
-      <c r="W27" s="225"/>
-      <c r="X27" s="225"/>
-      <c r="Y27" s="225"/>
-      <c r="Z27" s="225"/>
-      <c r="AA27" s="225"/>
-      <c r="AB27" s="225"/>
-      <c r="AC27" s="225"/>
-      <c r="AD27" s="225"/>
-      <c r="AE27" s="226"/>
-      <c r="AF27" s="221"/>
-      <c r="AG27" s="222"/>
-      <c r="AH27" s="222"/>
-      <c r="AI27" s="223"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="188"/>
+      <c r="Q27" s="189"/>
+      <c r="R27" s="190"/>
+      <c r="S27" s="190"/>
+      <c r="T27" s="190"/>
+      <c r="U27" s="190"/>
+      <c r="V27" s="190"/>
+      <c r="W27" s="190"/>
+      <c r="X27" s="190"/>
+      <c r="Y27" s="190"/>
+      <c r="Z27" s="190"/>
+      <c r="AA27" s="190"/>
+      <c r="AB27" s="190"/>
+      <c r="AC27" s="190"/>
+      <c r="AD27" s="190"/>
+      <c r="AE27" s="191"/>
+      <c r="AF27" s="186"/>
+      <c r="AG27" s="187"/>
+      <c r="AH27" s="187"/>
+      <c r="AI27" s="188"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="215"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
-      <c r="E28" s="218"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="220"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="221"/>
-      <c r="K28" s="222"/>
-      <c r="L28" s="222"/>
-      <c r="M28" s="222"/>
-      <c r="N28" s="222"/>
-      <c r="O28" s="222"/>
-      <c r="P28" s="223"/>
-      <c r="Q28" s="224"/>
-      <c r="R28" s="225"/>
-      <c r="S28" s="225"/>
-      <c r="T28" s="225"/>
-      <c r="U28" s="225"/>
-      <c r="V28" s="225"/>
-      <c r="W28" s="225"/>
-      <c r="X28" s="225"/>
-      <c r="Y28" s="225"/>
-      <c r="Z28" s="225"/>
-      <c r="AA28" s="225"/>
-      <c r="AB28" s="225"/>
-      <c r="AC28" s="225"/>
-      <c r="AD28" s="225"/>
-      <c r="AE28" s="226"/>
-      <c r="AF28" s="221"/>
-      <c r="AG28" s="222"/>
-      <c r="AH28" s="222"/>
-      <c r="AI28" s="223"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="187"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="189"/>
+      <c r="R28" s="190"/>
+      <c r="S28" s="190"/>
+      <c r="T28" s="190"/>
+      <c r="U28" s="190"/>
+      <c r="V28" s="190"/>
+      <c r="W28" s="190"/>
+      <c r="X28" s="190"/>
+      <c r="Y28" s="190"/>
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="190"/>
+      <c r="AB28" s="190"/>
+      <c r="AC28" s="190"/>
+      <c r="AD28" s="190"/>
+      <c r="AE28" s="191"/>
+      <c r="AF28" s="186"/>
+      <c r="AG28" s="187"/>
+      <c r="AH28" s="187"/>
+      <c r="AI28" s="188"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="215"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="215"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="221"/>
-      <c r="K29" s="222"/>
-      <c r="L29" s="222"/>
-      <c r="M29" s="222"/>
-      <c r="N29" s="222"/>
-      <c r="O29" s="222"/>
-      <c r="P29" s="223"/>
-      <c r="Q29" s="224"/>
-      <c r="R29" s="225"/>
-      <c r="S29" s="225"/>
-      <c r="T29" s="225"/>
-      <c r="U29" s="225"/>
-      <c r="V29" s="225"/>
-      <c r="W29" s="225"/>
-      <c r="X29" s="225"/>
-      <c r="Y29" s="225"/>
-      <c r="Z29" s="225"/>
-      <c r="AA29" s="225"/>
-      <c r="AB29" s="225"/>
-      <c r="AC29" s="225"/>
-      <c r="AD29" s="225"/>
-      <c r="AE29" s="226"/>
-      <c r="AF29" s="221"/>
-      <c r="AG29" s="222"/>
-      <c r="AH29" s="222"/>
-      <c r="AI29" s="223"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="187"/>
+      <c r="P29" s="188"/>
+      <c r="Q29" s="189"/>
+      <c r="R29" s="190"/>
+      <c r="S29" s="190"/>
+      <c r="T29" s="190"/>
+      <c r="U29" s="190"/>
+      <c r="V29" s="190"/>
+      <c r="W29" s="190"/>
+      <c r="X29" s="190"/>
+      <c r="Y29" s="190"/>
+      <c r="Z29" s="190"/>
+      <c r="AA29" s="190"/>
+      <c r="AB29" s="190"/>
+      <c r="AC29" s="190"/>
+      <c r="AD29" s="190"/>
+      <c r="AE29" s="191"/>
+      <c r="AF29" s="186"/>
+      <c r="AG29" s="187"/>
+      <c r="AH29" s="187"/>
+      <c r="AI29" s="188"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="215"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="218"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="215"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="221"/>
-      <c r="K30" s="222"/>
-      <c r="L30" s="222"/>
-      <c r="M30" s="222"/>
-      <c r="N30" s="222"/>
-      <c r="O30" s="222"/>
-      <c r="P30" s="223"/>
-      <c r="Q30" s="224"/>
-      <c r="R30" s="225"/>
-      <c r="S30" s="225"/>
-      <c r="T30" s="225"/>
-      <c r="U30" s="225"/>
-      <c r="V30" s="225"/>
-      <c r="W30" s="225"/>
-      <c r="X30" s="225"/>
-      <c r="Y30" s="225"/>
-      <c r="Z30" s="225"/>
-      <c r="AA30" s="225"/>
-      <c r="AB30" s="225"/>
-      <c r="AC30" s="225"/>
-      <c r="AD30" s="225"/>
-      <c r="AE30" s="226"/>
-      <c r="AF30" s="221"/>
-      <c r="AG30" s="222"/>
-      <c r="AH30" s="222"/>
-      <c r="AI30" s="223"/>
+      <c r="B30" s="180"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="187"/>
+      <c r="P30" s="188"/>
+      <c r="Q30" s="189"/>
+      <c r="R30" s="190"/>
+      <c r="S30" s="190"/>
+      <c r="T30" s="190"/>
+      <c r="U30" s="190"/>
+      <c r="V30" s="190"/>
+      <c r="W30" s="190"/>
+      <c r="X30" s="190"/>
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="190"/>
+      <c r="AA30" s="190"/>
+      <c r="AB30" s="190"/>
+      <c r="AC30" s="190"/>
+      <c r="AD30" s="190"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="186"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="188"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="215"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="218"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="215"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="221"/>
-      <c r="K31" s="222"/>
-      <c r="L31" s="222"/>
-      <c r="M31" s="222"/>
-      <c r="N31" s="222"/>
-      <c r="O31" s="222"/>
-      <c r="P31" s="223"/>
-      <c r="Q31" s="224"/>
-      <c r="R31" s="225"/>
-      <c r="S31" s="225"/>
-      <c r="T31" s="225"/>
-      <c r="U31" s="225"/>
-      <c r="V31" s="225"/>
-      <c r="W31" s="225"/>
-      <c r="X31" s="225"/>
-      <c r="Y31" s="225"/>
-      <c r="Z31" s="225"/>
-      <c r="AA31" s="225"/>
-      <c r="AB31" s="225"/>
-      <c r="AC31" s="225"/>
-      <c r="AD31" s="225"/>
-      <c r="AE31" s="226"/>
-      <c r="AF31" s="221"/>
-      <c r="AG31" s="222"/>
-      <c r="AH31" s="222"/>
-      <c r="AI31" s="223"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="188"/>
+      <c r="Q31" s="189"/>
+      <c r="R31" s="190"/>
+      <c r="S31" s="190"/>
+      <c r="T31" s="190"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="190"/>
+      <c r="W31" s="190"/>
+      <c r="X31" s="190"/>
+      <c r="Y31" s="190"/>
+      <c r="Z31" s="190"/>
+      <c r="AA31" s="190"/>
+      <c r="AB31" s="190"/>
+      <c r="AC31" s="190"/>
+      <c r="AD31" s="190"/>
+      <c r="AE31" s="191"/>
+      <c r="AF31" s="186"/>
+      <c r="AG31" s="187"/>
+      <c r="AH31" s="187"/>
+      <c r="AI31" s="188"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="215"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="217"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="216"/>
-      <c r="J32" s="221"/>
-      <c r="K32" s="240"/>
-      <c r="L32" s="222"/>
-      <c r="M32" s="222"/>
-      <c r="N32" s="222"/>
-      <c r="O32" s="222"/>
-      <c r="P32" s="223"/>
-      <c r="Q32" s="224"/>
-      <c r="R32" s="225"/>
-      <c r="S32" s="225"/>
-      <c r="T32" s="225"/>
-      <c r="U32" s="225"/>
-      <c r="V32" s="225"/>
-      <c r="W32" s="225"/>
-      <c r="X32" s="225"/>
-      <c r="Y32" s="225"/>
-      <c r="Z32" s="225"/>
-      <c r="AA32" s="225"/>
-      <c r="AB32" s="225"/>
-      <c r="AC32" s="225"/>
-      <c r="AD32" s="225"/>
-      <c r="AE32" s="226"/>
-      <c r="AF32" s="221"/>
-      <c r="AG32" s="222"/>
-      <c r="AH32" s="222"/>
-      <c r="AI32" s="223"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="192"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="187"/>
+      <c r="O32" s="187"/>
+      <c r="P32" s="188"/>
+      <c r="Q32" s="189"/>
+      <c r="R32" s="190"/>
+      <c r="S32" s="190"/>
+      <c r="T32" s="190"/>
+      <c r="U32" s="190"/>
+      <c r="V32" s="190"/>
+      <c r="W32" s="190"/>
+      <c r="X32" s="190"/>
+      <c r="Y32" s="190"/>
+      <c r="Z32" s="190"/>
+      <c r="AA32" s="190"/>
+      <c r="AB32" s="190"/>
+      <c r="AC32" s="190"/>
+      <c r="AD32" s="190"/>
+      <c r="AE32" s="191"/>
+      <c r="AF32" s="186"/>
+      <c r="AG32" s="187"/>
+      <c r="AH32" s="187"/>
+      <c r="AI32" s="188"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="215"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="221"/>
-      <c r="K33" s="222"/>
-      <c r="L33" s="222"/>
-      <c r="M33" s="222"/>
-      <c r="N33" s="222"/>
-      <c r="O33" s="222"/>
-      <c r="P33" s="223"/>
-      <c r="Q33" s="224"/>
-      <c r="R33" s="225"/>
-      <c r="S33" s="225"/>
-      <c r="T33" s="225"/>
-      <c r="U33" s="225"/>
-      <c r="V33" s="225"/>
-      <c r="W33" s="225"/>
-      <c r="X33" s="225"/>
-      <c r="Y33" s="225"/>
-      <c r="Z33" s="225"/>
-      <c r="AA33" s="225"/>
-      <c r="AB33" s="225"/>
-      <c r="AC33" s="225"/>
-      <c r="AD33" s="225"/>
-      <c r="AE33" s="226"/>
-      <c r="AF33" s="221"/>
-      <c r="AG33" s="222"/>
-      <c r="AH33" s="222"/>
-      <c r="AI33" s="223"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="187"/>
+      <c r="P33" s="188"/>
+      <c r="Q33" s="189"/>
+      <c r="R33" s="190"/>
+      <c r="S33" s="190"/>
+      <c r="T33" s="190"/>
+      <c r="U33" s="190"/>
+      <c r="V33" s="190"/>
+      <c r="W33" s="190"/>
+      <c r="X33" s="190"/>
+      <c r="Y33" s="190"/>
+      <c r="Z33" s="190"/>
+      <c r="AA33" s="190"/>
+      <c r="AB33" s="190"/>
+      <c r="AC33" s="190"/>
+      <c r="AD33" s="190"/>
+      <c r="AE33" s="191"/>
+      <c r="AF33" s="186"/>
+      <c r="AG33" s="187"/>
+      <c r="AH33" s="187"/>
+      <c r="AI33" s="188"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13468,6 +13296,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -17229,7 +17213,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="241" t="s">
+      <c r="B112" s="242" t="s">
         <v>502</v>
       </c>
       <c r="C112" s="115"/>
@@ -17265,7 +17249,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="241"/>
+      <c r="B113" s="242"/>
       <c r="C113" s="115"/>
       <c r="D113" s="112"/>
       <c r="E113" s="131"/>
@@ -17937,7 +17921,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="241" t="s">
+      <c r="B132" s="242" t="s">
         <v>197</v>
       </c>
       <c r="C132" s="115"/>
@@ -17973,7 +17957,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="241"/>
+      <c r="B133" s="242"/>
       <c r="C133" s="115"/>
       <c r="D133" s="112"/>
       <c r="E133" s="115"/>
@@ -28926,10 +28910,10 @@
       </c>
       <c r="B21" s="172"/>
       <c r="C21" s="172"/>
-      <c r="D21" s="242" t="s">
+      <c r="D21" s="243" t="s">
         <v>561</v>
       </c>
-      <c r="E21" s="243"/>
+      <c r="E21" s="244"/>
       <c r="F21" s="68" t="s">
         <v>572</v>
       </c>
@@ -29165,7 +29149,7 @@
       <c r="B28" s="56" t="s">
         <v>545</v>
       </c>
-      <c r="C28" s="244" t="s">
+      <c r="C28" s="178" t="s">
         <v>546</v>
       </c>
       <c r="D28" s="60" t="s">

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10301_TOPメニュー.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10301_TOPメニュー.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C1FC19-B8F1-4F7E-9A05-E89534A243A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38D39F9-3D28-4975-8218-4CE8C327A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9063,7 +9063,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リクエストID：WA10301</t>
+    <t>テストターゲット名：WA10301</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10360,84 +10363,6 @@
     <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10544,6 +10469,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12078,51 +12081,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="215" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="189" t="s">
         <v>523</v>
       </c>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-      <c r="M1" s="216"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="221" t="s">
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="230" t="s">
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="204" t="s">
         <v>697</v>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="212" t="s">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="214"/>
-      <c r="AC1" s="239"/>
-      <c r="AD1" s="240"/>
-      <c r="AE1" s="240"/>
-      <c r="AF1" s="241"/>
-      <c r="AG1" s="206"/>
-      <c r="AH1" s="207"/>
-      <c r="AI1" s="208"/>
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="213"/>
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="180"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="182"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -12130,53 +12133,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="215" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="189" t="s">
         <v>569</v>
       </c>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="212" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="214"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="206" t="str">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="180" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="182"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12184,45 +12187,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215" t="s">
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="189" t="s">
         <v>570</v>
       </c>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="212"/>
-      <c r="AB3" s="214"/>
-      <c r="AC3" s="239"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="241"/>
-      <c r="AG3" s="206"/>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="208"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="213"/>
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="180"/>
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="182"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12259,1020 +12262,1176 @@
       <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="209" t="s">
+      <c r="C7" s="184"/>
+      <c r="D7" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="211"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="209" t="s">
+      <c r="E7" s="185"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="211"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="209" t="s">
+      <c r="H7" s="185"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="210"/>
-      <c r="Q7" s="209" t="s">
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="211"/>
-      <c r="S7" s="211"/>
-      <c r="T7" s="211"/>
-      <c r="U7" s="211"/>
-      <c r="V7" s="211"/>
-      <c r="W7" s="211"/>
-      <c r="X7" s="211"/>
-      <c r="Y7" s="211"/>
-      <c r="Z7" s="211"/>
-      <c r="AA7" s="211"/>
-      <c r="AB7" s="211"/>
-      <c r="AC7" s="211"/>
-      <c r="AD7" s="211"/>
-      <c r="AE7" s="210"/>
-      <c r="AF7" s="209" t="s">
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185"/>
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="AG7" s="211"/>
-      <c r="AH7" s="211"/>
-      <c r="AI7" s="210"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="184"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="20"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="204"/>
-      <c r="S8" s="204"/>
-      <c r="T8" s="204"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204"/>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="204"/>
-      <c r="AA8" s="204"/>
-      <c r="AB8" s="204"/>
-      <c r="AC8" s="204"/>
-      <c r="AD8" s="204"/>
-      <c r="AE8" s="205"/>
-      <c r="AF8" s="200"/>
-      <c r="AG8" s="201"/>
-      <c r="AH8" s="201"/>
-      <c r="AI8" s="202"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="236"/>
+      <c r="M8" s="236"/>
+      <c r="N8" s="236"/>
+      <c r="O8" s="236"/>
+      <c r="P8" s="237"/>
+      <c r="Q8" s="238"/>
+      <c r="R8" s="239"/>
+      <c r="S8" s="239"/>
+      <c r="T8" s="239"/>
+      <c r="U8" s="239"/>
+      <c r="V8" s="239"/>
+      <c r="W8" s="239"/>
+      <c r="X8" s="239"/>
+      <c r="Y8" s="239"/>
+      <c r="Z8" s="239"/>
+      <c r="AA8" s="239"/>
+      <c r="AB8" s="239"/>
+      <c r="AC8" s="239"/>
+      <c r="AD8" s="239"/>
+      <c r="AE8" s="240"/>
+      <c r="AF8" s="235"/>
+      <c r="AG8" s="236"/>
+      <c r="AH8" s="236"/>
+      <c r="AI8" s="237"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="187"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="189"/>
-      <c r="R9" s="190"/>
-      <c r="S9" s="190"/>
-      <c r="T9" s="190"/>
-      <c r="U9" s="190"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="190"/>
-      <c r="Y9" s="190"/>
-      <c r="Z9" s="190"/>
-      <c r="AA9" s="190"/>
-      <c r="AB9" s="190"/>
-      <c r="AC9" s="190"/>
-      <c r="AD9" s="190"/>
-      <c r="AE9" s="191"/>
-      <c r="AF9" s="186"/>
-      <c r="AG9" s="187"/>
-      <c r="AH9" s="187"/>
-      <c r="AI9" s="188"/>
+      <c r="B9" s="216"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="222"/>
+      <c r="K9" s="223"/>
+      <c r="L9" s="223"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="223"/>
+      <c r="O9" s="223"/>
+      <c r="P9" s="224"/>
+      <c r="Q9" s="225"/>
+      <c r="R9" s="226"/>
+      <c r="S9" s="226"/>
+      <c r="T9" s="226"/>
+      <c r="U9" s="226"/>
+      <c r="V9" s="226"/>
+      <c r="W9" s="226"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="226"/>
+      <c r="AA9" s="226"/>
+      <c r="AB9" s="226"/>
+      <c r="AC9" s="226"/>
+      <c r="AD9" s="226"/>
+      <c r="AE9" s="227"/>
+      <c r="AF9" s="222"/>
+      <c r="AG9" s="223"/>
+      <c r="AH9" s="223"/>
+      <c r="AI9" s="224"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="187"/>
-      <c r="P10" s="188"/>
-      <c r="Q10" s="189"/>
-      <c r="R10" s="190"/>
-      <c r="S10" s="190"/>
-      <c r="T10" s="190"/>
-      <c r="U10" s="190"/>
-      <c r="V10" s="190"/>
-      <c r="W10" s="190"/>
-      <c r="X10" s="190"/>
-      <c r="Y10" s="190"/>
-      <c r="Z10" s="190"/>
-      <c r="AA10" s="190"/>
-      <c r="AB10" s="190"/>
-      <c r="AC10" s="190"/>
-      <c r="AD10" s="190"/>
-      <c r="AE10" s="191"/>
-      <c r="AF10" s="186"/>
-      <c r="AG10" s="187"/>
-      <c r="AH10" s="187"/>
-      <c r="AI10" s="188"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="223"/>
+      <c r="M10" s="223"/>
+      <c r="N10" s="223"/>
+      <c r="O10" s="223"/>
+      <c r="P10" s="224"/>
+      <c r="Q10" s="225"/>
+      <c r="R10" s="226"/>
+      <c r="S10" s="226"/>
+      <c r="T10" s="226"/>
+      <c r="U10" s="226"/>
+      <c r="V10" s="226"/>
+      <c r="W10" s="226"/>
+      <c r="X10" s="226"/>
+      <c r="Y10" s="226"/>
+      <c r="Z10" s="226"/>
+      <c r="AA10" s="226"/>
+      <c r="AB10" s="226"/>
+      <c r="AC10" s="226"/>
+      <c r="AD10" s="226"/>
+      <c r="AE10" s="227"/>
+      <c r="AF10" s="222"/>
+      <c r="AG10" s="223"/>
+      <c r="AH10" s="223"/>
+      <c r="AI10" s="224"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="180"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="188"/>
-      <c r="Q11" s="189"/>
-      <c r="R11" s="190"/>
-      <c r="S11" s="190"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="190"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="190"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="190"/>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="191"/>
-      <c r="AF11" s="186"/>
-      <c r="AG11" s="187"/>
-      <c r="AH11" s="187"/>
-      <c r="AI11" s="188"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="220"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="221"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="223"/>
+      <c r="O11" s="223"/>
+      <c r="P11" s="224"/>
+      <c r="Q11" s="225"/>
+      <c r="R11" s="226"/>
+      <c r="S11" s="226"/>
+      <c r="T11" s="226"/>
+      <c r="U11" s="226"/>
+      <c r="V11" s="226"/>
+      <c r="W11" s="226"/>
+      <c r="X11" s="226"/>
+      <c r="Y11" s="226"/>
+      <c r="Z11" s="226"/>
+      <c r="AA11" s="226"/>
+      <c r="AB11" s="226"/>
+      <c r="AC11" s="226"/>
+      <c r="AD11" s="226"/>
+      <c r="AE11" s="227"/>
+      <c r="AF11" s="222"/>
+      <c r="AG11" s="223"/>
+      <c r="AH11" s="223"/>
+      <c r="AI11" s="224"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="188"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="190"/>
-      <c r="S12" s="190"/>
-      <c r="T12" s="190"/>
-      <c r="U12" s="190"/>
-      <c r="V12" s="190"/>
-      <c r="W12" s="190"/>
-      <c r="X12" s="190"/>
-      <c r="Y12" s="190"/>
-      <c r="Z12" s="190"/>
-      <c r="AA12" s="190"/>
-      <c r="AB12" s="190"/>
-      <c r="AC12" s="190"/>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="191"/>
-      <c r="AF12" s="186"/>
-      <c r="AG12" s="187"/>
-      <c r="AH12" s="187"/>
-      <c r="AI12" s="188"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="217"/>
+      <c r="J12" s="222"/>
+      <c r="K12" s="223"/>
+      <c r="L12" s="223"/>
+      <c r="M12" s="223"/>
+      <c r="N12" s="223"/>
+      <c r="O12" s="223"/>
+      <c r="P12" s="224"/>
+      <c r="Q12" s="225"/>
+      <c r="R12" s="226"/>
+      <c r="S12" s="226"/>
+      <c r="T12" s="226"/>
+      <c r="U12" s="226"/>
+      <c r="V12" s="226"/>
+      <c r="W12" s="226"/>
+      <c r="X12" s="226"/>
+      <c r="Y12" s="226"/>
+      <c r="Z12" s="226"/>
+      <c r="AA12" s="226"/>
+      <c r="AB12" s="226"/>
+      <c r="AC12" s="226"/>
+      <c r="AD12" s="226"/>
+      <c r="AE12" s="227"/>
+      <c r="AF12" s="222"/>
+      <c r="AG12" s="223"/>
+      <c r="AH12" s="223"/>
+      <c r="AI12" s="224"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="187"/>
-      <c r="P13" s="188"/>
-      <c r="Q13" s="189"/>
-      <c r="R13" s="190"/>
-      <c r="S13" s="190"/>
-      <c r="T13" s="190"/>
-      <c r="U13" s="190"/>
-      <c r="V13" s="190"/>
-      <c r="W13" s="190"/>
-      <c r="X13" s="190"/>
-      <c r="Y13" s="190"/>
-      <c r="Z13" s="190"/>
-      <c r="AA13" s="190"/>
-      <c r="AB13" s="190"/>
-      <c r="AC13" s="190"/>
-      <c r="AD13" s="190"/>
-      <c r="AE13" s="191"/>
-      <c r="AF13" s="186"/>
-      <c r="AG13" s="187"/>
-      <c r="AH13" s="187"/>
-      <c r="AI13" s="188"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="217"/>
+      <c r="J13" s="222"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="223"/>
+      <c r="O13" s="223"/>
+      <c r="P13" s="224"/>
+      <c r="Q13" s="225"/>
+      <c r="R13" s="226"/>
+      <c r="S13" s="226"/>
+      <c r="T13" s="226"/>
+      <c r="U13" s="226"/>
+      <c r="V13" s="226"/>
+      <c r="W13" s="226"/>
+      <c r="X13" s="226"/>
+      <c r="Y13" s="226"/>
+      <c r="Z13" s="226"/>
+      <c r="AA13" s="226"/>
+      <c r="AB13" s="226"/>
+      <c r="AC13" s="226"/>
+      <c r="AD13" s="226"/>
+      <c r="AE13" s="227"/>
+      <c r="AF13" s="222"/>
+      <c r="AG13" s="223"/>
+      <c r="AH13" s="223"/>
+      <c r="AI13" s="224"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="188"/>
-      <c r="Q14" s="189"/>
-      <c r="R14" s="190"/>
-      <c r="S14" s="190"/>
-      <c r="T14" s="190"/>
-      <c r="U14" s="190"/>
-      <c r="V14" s="190"/>
-      <c r="W14" s="190"/>
-      <c r="X14" s="190"/>
-      <c r="Y14" s="190"/>
-      <c r="Z14" s="190"/>
-      <c r="AA14" s="190"/>
-      <c r="AB14" s="190"/>
-      <c r="AC14" s="190"/>
-      <c r="AD14" s="190"/>
-      <c r="AE14" s="191"/>
-      <c r="AF14" s="186"/>
-      <c r="AG14" s="187"/>
-      <c r="AH14" s="187"/>
-      <c r="AI14" s="188"/>
+      <c r="B14" s="216"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="222"/>
+      <c r="K14" s="223"/>
+      <c r="L14" s="223"/>
+      <c r="M14" s="223"/>
+      <c r="N14" s="223"/>
+      <c r="O14" s="223"/>
+      <c r="P14" s="224"/>
+      <c r="Q14" s="225"/>
+      <c r="R14" s="226"/>
+      <c r="S14" s="226"/>
+      <c r="T14" s="226"/>
+      <c r="U14" s="226"/>
+      <c r="V14" s="226"/>
+      <c r="W14" s="226"/>
+      <c r="X14" s="226"/>
+      <c r="Y14" s="226"/>
+      <c r="Z14" s="226"/>
+      <c r="AA14" s="226"/>
+      <c r="AB14" s="226"/>
+      <c r="AC14" s="226"/>
+      <c r="AD14" s="226"/>
+      <c r="AE14" s="227"/>
+      <c r="AF14" s="222"/>
+      <c r="AG14" s="223"/>
+      <c r="AH14" s="223"/>
+      <c r="AI14" s="224"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="180"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="188"/>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="190"/>
-      <c r="S15" s="190"/>
-      <c r="T15" s="190"/>
-      <c r="U15" s="190"/>
-      <c r="V15" s="190"/>
-      <c r="W15" s="190"/>
-      <c r="X15" s="190"/>
-      <c r="Y15" s="190"/>
-      <c r="Z15" s="190"/>
-      <c r="AA15" s="190"/>
-      <c r="AB15" s="190"/>
-      <c r="AC15" s="190"/>
-      <c r="AD15" s="190"/>
-      <c r="AE15" s="191"/>
-      <c r="AF15" s="186"/>
-      <c r="AG15" s="187"/>
-      <c r="AH15" s="187"/>
-      <c r="AI15" s="188"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="217"/>
+      <c r="J15" s="222"/>
+      <c r="K15" s="223"/>
+      <c r="L15" s="223"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="223"/>
+      <c r="O15" s="223"/>
+      <c r="P15" s="224"/>
+      <c r="Q15" s="225"/>
+      <c r="R15" s="226"/>
+      <c r="S15" s="226"/>
+      <c r="T15" s="226"/>
+      <c r="U15" s="226"/>
+      <c r="V15" s="226"/>
+      <c r="W15" s="226"/>
+      <c r="X15" s="226"/>
+      <c r="Y15" s="226"/>
+      <c r="Z15" s="226"/>
+      <c r="AA15" s="226"/>
+      <c r="AB15" s="226"/>
+      <c r="AC15" s="226"/>
+      <c r="AD15" s="226"/>
+      <c r="AE15" s="227"/>
+      <c r="AF15" s="222"/>
+      <c r="AG15" s="223"/>
+      <c r="AH15" s="223"/>
+      <c r="AI15" s="224"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="187"/>
-      <c r="N16" s="187"/>
-      <c r="O16" s="187"/>
-      <c r="P16" s="188"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="190"/>
-      <c r="S16" s="190"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="190"/>
-      <c r="V16" s="190"/>
-      <c r="W16" s="190"/>
-      <c r="X16" s="190"/>
-      <c r="Y16" s="190"/>
-      <c r="Z16" s="190"/>
-      <c r="AA16" s="190"/>
-      <c r="AB16" s="190"/>
-      <c r="AC16" s="190"/>
-      <c r="AD16" s="190"/>
-      <c r="AE16" s="191"/>
-      <c r="AF16" s="186"/>
-      <c r="AG16" s="187"/>
-      <c r="AH16" s="187"/>
-      <c r="AI16" s="188"/>
+      <c r="B16" s="216"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="222"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="223"/>
+      <c r="O16" s="223"/>
+      <c r="P16" s="224"/>
+      <c r="Q16" s="225"/>
+      <c r="R16" s="226"/>
+      <c r="S16" s="226"/>
+      <c r="T16" s="226"/>
+      <c r="U16" s="226"/>
+      <c r="V16" s="226"/>
+      <c r="W16" s="226"/>
+      <c r="X16" s="226"/>
+      <c r="Y16" s="226"/>
+      <c r="Z16" s="226"/>
+      <c r="AA16" s="226"/>
+      <c r="AB16" s="226"/>
+      <c r="AC16" s="226"/>
+      <c r="AD16" s="226"/>
+      <c r="AE16" s="227"/>
+      <c r="AF16" s="222"/>
+      <c r="AG16" s="223"/>
+      <c r="AH16" s="223"/>
+      <c r="AI16" s="224"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="187"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="189"/>
-      <c r="R17" s="190"/>
-      <c r="S17" s="190"/>
-      <c r="T17" s="190"/>
-      <c r="U17" s="190"/>
-      <c r="V17" s="190"/>
-      <c r="W17" s="190"/>
-      <c r="X17" s="190"/>
-      <c r="Y17" s="190"/>
-      <c r="Z17" s="190"/>
-      <c r="AA17" s="190"/>
-      <c r="AB17" s="190"/>
-      <c r="AC17" s="190"/>
-      <c r="AD17" s="190"/>
-      <c r="AE17" s="191"/>
-      <c r="AF17" s="186"/>
-      <c r="AG17" s="187"/>
-      <c r="AH17" s="187"/>
-      <c r="AI17" s="188"/>
+      <c r="B17" s="216"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="222"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="225"/>
+      <c r="R17" s="226"/>
+      <c r="S17" s="226"/>
+      <c r="T17" s="226"/>
+      <c r="U17" s="226"/>
+      <c r="V17" s="226"/>
+      <c r="W17" s="226"/>
+      <c r="X17" s="226"/>
+      <c r="Y17" s="226"/>
+      <c r="Z17" s="226"/>
+      <c r="AA17" s="226"/>
+      <c r="AB17" s="226"/>
+      <c r="AC17" s="226"/>
+      <c r="AD17" s="226"/>
+      <c r="AE17" s="227"/>
+      <c r="AF17" s="222"/>
+      <c r="AG17" s="223"/>
+      <c r="AH17" s="223"/>
+      <c r="AI17" s="224"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="187"/>
-      <c r="P18" s="188"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="190"/>
-      <c r="S18" s="190"/>
-      <c r="T18" s="190"/>
-      <c r="U18" s="190"/>
-      <c r="V18" s="190"/>
-      <c r="W18" s="190"/>
-      <c r="X18" s="190"/>
-      <c r="Y18" s="190"/>
-      <c r="Z18" s="190"/>
-      <c r="AA18" s="190"/>
-      <c r="AB18" s="190"/>
-      <c r="AC18" s="190"/>
-      <c r="AD18" s="190"/>
-      <c r="AE18" s="191"/>
-      <c r="AF18" s="186"/>
-      <c r="AG18" s="187"/>
-      <c r="AH18" s="187"/>
-      <c r="AI18" s="188"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="222"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="223"/>
+      <c r="O18" s="223"/>
+      <c r="P18" s="224"/>
+      <c r="Q18" s="225"/>
+      <c r="R18" s="226"/>
+      <c r="S18" s="226"/>
+      <c r="T18" s="226"/>
+      <c r="U18" s="226"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="226"/>
+      <c r="Y18" s="226"/>
+      <c r="Z18" s="226"/>
+      <c r="AA18" s="226"/>
+      <c r="AB18" s="226"/>
+      <c r="AC18" s="226"/>
+      <c r="AD18" s="226"/>
+      <c r="AE18" s="227"/>
+      <c r="AF18" s="222"/>
+      <c r="AG18" s="223"/>
+      <c r="AH18" s="223"/>
+      <c r="AI18" s="224"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="187"/>
-      <c r="P19" s="188"/>
-      <c r="Q19" s="189"/>
-      <c r="R19" s="190"/>
-      <c r="S19" s="190"/>
-      <c r="T19" s="190"/>
-      <c r="U19" s="190"/>
-      <c r="V19" s="190"/>
-      <c r="W19" s="190"/>
-      <c r="X19" s="190"/>
-      <c r="Y19" s="190"/>
-      <c r="Z19" s="190"/>
-      <c r="AA19" s="190"/>
-      <c r="AB19" s="190"/>
-      <c r="AC19" s="190"/>
-      <c r="AD19" s="190"/>
-      <c r="AE19" s="191"/>
-      <c r="AF19" s="186"/>
-      <c r="AG19" s="187"/>
-      <c r="AH19" s="187"/>
-      <c r="AI19" s="188"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="222"/>
+      <c r="K19" s="223"/>
+      <c r="L19" s="223"/>
+      <c r="M19" s="223"/>
+      <c r="N19" s="223"/>
+      <c r="O19" s="223"/>
+      <c r="P19" s="224"/>
+      <c r="Q19" s="225"/>
+      <c r="R19" s="226"/>
+      <c r="S19" s="226"/>
+      <c r="T19" s="226"/>
+      <c r="U19" s="226"/>
+      <c r="V19" s="226"/>
+      <c r="W19" s="226"/>
+      <c r="X19" s="226"/>
+      <c r="Y19" s="226"/>
+      <c r="Z19" s="226"/>
+      <c r="AA19" s="226"/>
+      <c r="AB19" s="226"/>
+      <c r="AC19" s="226"/>
+      <c r="AD19" s="226"/>
+      <c r="AE19" s="227"/>
+      <c r="AF19" s="222"/>
+      <c r="AG19" s="223"/>
+      <c r="AH19" s="223"/>
+      <c r="AI19" s="224"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="180"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="187"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="189"/>
-      <c r="R20" s="190"/>
-      <c r="S20" s="190"/>
-      <c r="T20" s="190"/>
-      <c r="U20" s="190"/>
-      <c r="V20" s="190"/>
-      <c r="W20" s="190"/>
-      <c r="X20" s="190"/>
-      <c r="Y20" s="190"/>
-      <c r="Z20" s="190"/>
-      <c r="AA20" s="190"/>
-      <c r="AB20" s="190"/>
-      <c r="AC20" s="190"/>
-      <c r="AD20" s="190"/>
-      <c r="AE20" s="191"/>
-      <c r="AF20" s="186"/>
-      <c r="AG20" s="187"/>
-      <c r="AH20" s="187"/>
-      <c r="AI20" s="188"/>
+      <c r="B20" s="216"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="216"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="217"/>
+      <c r="J20" s="222"/>
+      <c r="K20" s="223"/>
+      <c r="L20" s="223"/>
+      <c r="M20" s="223"/>
+      <c r="N20" s="223"/>
+      <c r="O20" s="223"/>
+      <c r="P20" s="224"/>
+      <c r="Q20" s="225"/>
+      <c r="R20" s="226"/>
+      <c r="S20" s="226"/>
+      <c r="T20" s="226"/>
+      <c r="U20" s="226"/>
+      <c r="V20" s="226"/>
+      <c r="W20" s="226"/>
+      <c r="X20" s="226"/>
+      <c r="Y20" s="226"/>
+      <c r="Z20" s="226"/>
+      <c r="AA20" s="226"/>
+      <c r="AB20" s="226"/>
+      <c r="AC20" s="226"/>
+      <c r="AD20" s="226"/>
+      <c r="AE20" s="227"/>
+      <c r="AF20" s="222"/>
+      <c r="AG20" s="223"/>
+      <c r="AH20" s="223"/>
+      <c r="AI20" s="224"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="187"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="187"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="189"/>
-      <c r="R21" s="190"/>
-      <c r="S21" s="190"/>
-      <c r="T21" s="190"/>
-      <c r="U21" s="190"/>
-      <c r="V21" s="190"/>
-      <c r="W21" s="190"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="190"/>
-      <c r="Z21" s="190"/>
-      <c r="AA21" s="190"/>
-      <c r="AB21" s="190"/>
-      <c r="AC21" s="190"/>
-      <c r="AD21" s="190"/>
-      <c r="AE21" s="191"/>
-      <c r="AF21" s="186"/>
-      <c r="AG21" s="187"/>
-      <c r="AH21" s="187"/>
-      <c r="AI21" s="188"/>
+      <c r="B21" s="216"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="217"/>
+      <c r="J21" s="222"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="223"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="223"/>
+      <c r="O21" s="223"/>
+      <c r="P21" s="224"/>
+      <c r="Q21" s="225"/>
+      <c r="R21" s="226"/>
+      <c r="S21" s="226"/>
+      <c r="T21" s="226"/>
+      <c r="U21" s="226"/>
+      <c r="V21" s="226"/>
+      <c r="W21" s="226"/>
+      <c r="X21" s="226"/>
+      <c r="Y21" s="226"/>
+      <c r="Z21" s="226"/>
+      <c r="AA21" s="226"/>
+      <c r="AB21" s="226"/>
+      <c r="AC21" s="226"/>
+      <c r="AD21" s="226"/>
+      <c r="AE21" s="227"/>
+      <c r="AF21" s="222"/>
+      <c r="AG21" s="223"/>
+      <c r="AH21" s="223"/>
+      <c r="AI21" s="224"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="180"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="187"/>
-      <c r="M22" s="187"/>
-      <c r="N22" s="187"/>
-      <c r="O22" s="187"/>
-      <c r="P22" s="188"/>
-      <c r="Q22" s="189"/>
-      <c r="R22" s="190"/>
-      <c r="S22" s="190"/>
-      <c r="T22" s="190"/>
-      <c r="U22" s="190"/>
-      <c r="V22" s="190"/>
-      <c r="W22" s="190"/>
-      <c r="X22" s="190"/>
-      <c r="Y22" s="190"/>
-      <c r="Z22" s="190"/>
-      <c r="AA22" s="190"/>
-      <c r="AB22" s="190"/>
-      <c r="AC22" s="190"/>
-      <c r="AD22" s="190"/>
-      <c r="AE22" s="191"/>
-      <c r="AF22" s="186"/>
-      <c r="AG22" s="187"/>
-      <c r="AH22" s="187"/>
-      <c r="AI22" s="188"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="217"/>
+      <c r="J22" s="222"/>
+      <c r="K22" s="223"/>
+      <c r="L22" s="223"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="223"/>
+      <c r="O22" s="223"/>
+      <c r="P22" s="224"/>
+      <c r="Q22" s="225"/>
+      <c r="R22" s="226"/>
+      <c r="S22" s="226"/>
+      <c r="T22" s="226"/>
+      <c r="U22" s="226"/>
+      <c r="V22" s="226"/>
+      <c r="W22" s="226"/>
+      <c r="X22" s="226"/>
+      <c r="Y22" s="226"/>
+      <c r="Z22" s="226"/>
+      <c r="AA22" s="226"/>
+      <c r="AB22" s="226"/>
+      <c r="AC22" s="226"/>
+      <c r="AD22" s="226"/>
+      <c r="AE22" s="227"/>
+      <c r="AF22" s="222"/>
+      <c r="AG22" s="223"/>
+      <c r="AH22" s="223"/>
+      <c r="AI22" s="224"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="180"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="187"/>
-      <c r="M23" s="187"/>
-      <c r="N23" s="187"/>
-      <c r="O23" s="187"/>
-      <c r="P23" s="188"/>
-      <c r="Q23" s="189"/>
-      <c r="R23" s="190"/>
-      <c r="S23" s="190"/>
-      <c r="T23" s="190"/>
-      <c r="U23" s="190"/>
-      <c r="V23" s="190"/>
-      <c r="W23" s="190"/>
-      <c r="X23" s="190"/>
-      <c r="Y23" s="190"/>
-      <c r="Z23" s="190"/>
-      <c r="AA23" s="190"/>
-      <c r="AB23" s="190"/>
-      <c r="AC23" s="190"/>
-      <c r="AD23" s="190"/>
-      <c r="AE23" s="191"/>
-      <c r="AF23" s="186"/>
-      <c r="AG23" s="187"/>
-      <c r="AH23" s="187"/>
-      <c r="AI23" s="188"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="217"/>
+      <c r="J23" s="222"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="223"/>
+      <c r="M23" s="223"/>
+      <c r="N23" s="223"/>
+      <c r="O23" s="223"/>
+      <c r="P23" s="224"/>
+      <c r="Q23" s="225"/>
+      <c r="R23" s="226"/>
+      <c r="S23" s="226"/>
+      <c r="T23" s="226"/>
+      <c r="U23" s="226"/>
+      <c r="V23" s="226"/>
+      <c r="W23" s="226"/>
+      <c r="X23" s="226"/>
+      <c r="Y23" s="226"/>
+      <c r="Z23" s="226"/>
+      <c r="AA23" s="226"/>
+      <c r="AB23" s="226"/>
+      <c r="AC23" s="226"/>
+      <c r="AD23" s="226"/>
+      <c r="AE23" s="227"/>
+      <c r="AF23" s="222"/>
+      <c r="AG23" s="223"/>
+      <c r="AH23" s="223"/>
+      <c r="AI23" s="224"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="180"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="187"/>
-      <c r="M24" s="187"/>
-      <c r="N24" s="187"/>
-      <c r="O24" s="187"/>
-      <c r="P24" s="188"/>
-      <c r="Q24" s="189"/>
-      <c r="R24" s="190"/>
-      <c r="S24" s="190"/>
-      <c r="T24" s="190"/>
-      <c r="U24" s="190"/>
-      <c r="V24" s="190"/>
-      <c r="W24" s="190"/>
-      <c r="X24" s="190"/>
-      <c r="Y24" s="190"/>
-      <c r="Z24" s="190"/>
-      <c r="AA24" s="190"/>
-      <c r="AB24" s="190"/>
-      <c r="AC24" s="190"/>
-      <c r="AD24" s="190"/>
-      <c r="AE24" s="191"/>
-      <c r="AF24" s="186"/>
-      <c r="AG24" s="187"/>
-      <c r="AH24" s="187"/>
-      <c r="AI24" s="188"/>
+      <c r="B24" s="216"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="217"/>
+      <c r="J24" s="222"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="223"/>
+      <c r="O24" s="223"/>
+      <c r="P24" s="224"/>
+      <c r="Q24" s="225"/>
+      <c r="R24" s="226"/>
+      <c r="S24" s="226"/>
+      <c r="T24" s="226"/>
+      <c r="U24" s="226"/>
+      <c r="V24" s="226"/>
+      <c r="W24" s="226"/>
+      <c r="X24" s="226"/>
+      <c r="Y24" s="226"/>
+      <c r="Z24" s="226"/>
+      <c r="AA24" s="226"/>
+      <c r="AB24" s="226"/>
+      <c r="AC24" s="226"/>
+      <c r="AD24" s="226"/>
+      <c r="AE24" s="227"/>
+      <c r="AF24" s="222"/>
+      <c r="AG24" s="223"/>
+      <c r="AH24" s="223"/>
+      <c r="AI24" s="224"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="187"/>
-      <c r="M25" s="187"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="188"/>
-      <c r="Q25" s="189"/>
-      <c r="R25" s="190"/>
-      <c r="S25" s="190"/>
-      <c r="T25" s="190"/>
-      <c r="U25" s="190"/>
-      <c r="V25" s="190"/>
-      <c r="W25" s="190"/>
-      <c r="X25" s="190"/>
-      <c r="Y25" s="190"/>
-      <c r="Z25" s="190"/>
-      <c r="AA25" s="190"/>
-      <c r="AB25" s="190"/>
-      <c r="AC25" s="190"/>
-      <c r="AD25" s="190"/>
-      <c r="AE25" s="191"/>
-      <c r="AF25" s="186"/>
-      <c r="AG25" s="187"/>
-      <c r="AH25" s="187"/>
-      <c r="AI25" s="188"/>
+      <c r="B25" s="216"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="217"/>
+      <c r="J25" s="222"/>
+      <c r="K25" s="223"/>
+      <c r="L25" s="223"/>
+      <c r="M25" s="223"/>
+      <c r="N25" s="223"/>
+      <c r="O25" s="223"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="225"/>
+      <c r="R25" s="226"/>
+      <c r="S25" s="226"/>
+      <c r="T25" s="226"/>
+      <c r="U25" s="226"/>
+      <c r="V25" s="226"/>
+      <c r="W25" s="226"/>
+      <c r="X25" s="226"/>
+      <c r="Y25" s="226"/>
+      <c r="Z25" s="226"/>
+      <c r="AA25" s="226"/>
+      <c r="AB25" s="226"/>
+      <c r="AC25" s="226"/>
+      <c r="AD25" s="226"/>
+      <c r="AE25" s="227"/>
+      <c r="AF25" s="222"/>
+      <c r="AG25" s="223"/>
+      <c r="AH25" s="223"/>
+      <c r="AI25" s="224"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="187"/>
-      <c r="P26" s="188"/>
-      <c r="Q26" s="189"/>
-      <c r="R26" s="190"/>
-      <c r="S26" s="190"/>
-      <c r="T26" s="190"/>
-      <c r="U26" s="190"/>
-      <c r="V26" s="190"/>
-      <c r="W26" s="190"/>
-      <c r="X26" s="190"/>
-      <c r="Y26" s="190"/>
-      <c r="Z26" s="190"/>
-      <c r="AA26" s="190"/>
-      <c r="AB26" s="190"/>
-      <c r="AC26" s="190"/>
-      <c r="AD26" s="190"/>
-      <c r="AE26" s="191"/>
-      <c r="AF26" s="186"/>
-      <c r="AG26" s="187"/>
-      <c r="AH26" s="187"/>
-      <c r="AI26" s="188"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="222"/>
+      <c r="K26" s="223"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="223"/>
+      <c r="N26" s="223"/>
+      <c r="O26" s="223"/>
+      <c r="P26" s="224"/>
+      <c r="Q26" s="225"/>
+      <c r="R26" s="226"/>
+      <c r="S26" s="226"/>
+      <c r="T26" s="226"/>
+      <c r="U26" s="226"/>
+      <c r="V26" s="226"/>
+      <c r="W26" s="226"/>
+      <c r="X26" s="226"/>
+      <c r="Y26" s="226"/>
+      <c r="Z26" s="226"/>
+      <c r="AA26" s="226"/>
+      <c r="AB26" s="226"/>
+      <c r="AC26" s="226"/>
+      <c r="AD26" s="226"/>
+      <c r="AE26" s="227"/>
+      <c r="AF26" s="222"/>
+      <c r="AG26" s="223"/>
+      <c r="AH26" s="223"/>
+      <c r="AI26" s="224"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="187"/>
-      <c r="P27" s="188"/>
-      <c r="Q27" s="189"/>
-      <c r="R27" s="190"/>
-      <c r="S27" s="190"/>
-      <c r="T27" s="190"/>
-      <c r="U27" s="190"/>
-      <c r="V27" s="190"/>
-      <c r="W27" s="190"/>
-      <c r="X27" s="190"/>
-      <c r="Y27" s="190"/>
-      <c r="Z27" s="190"/>
-      <c r="AA27" s="190"/>
-      <c r="AB27" s="190"/>
-      <c r="AC27" s="190"/>
-      <c r="AD27" s="190"/>
-      <c r="AE27" s="191"/>
-      <c r="AF27" s="186"/>
-      <c r="AG27" s="187"/>
-      <c r="AH27" s="187"/>
-      <c r="AI27" s="188"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="217"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="217"/>
+      <c r="J27" s="222"/>
+      <c r="K27" s="223"/>
+      <c r="L27" s="223"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="223"/>
+      <c r="O27" s="223"/>
+      <c r="P27" s="224"/>
+      <c r="Q27" s="225"/>
+      <c r="R27" s="226"/>
+      <c r="S27" s="226"/>
+      <c r="T27" s="226"/>
+      <c r="U27" s="226"/>
+      <c r="V27" s="226"/>
+      <c r="W27" s="226"/>
+      <c r="X27" s="226"/>
+      <c r="Y27" s="226"/>
+      <c r="Z27" s="226"/>
+      <c r="AA27" s="226"/>
+      <c r="AB27" s="226"/>
+      <c r="AC27" s="226"/>
+      <c r="AD27" s="226"/>
+      <c r="AE27" s="227"/>
+      <c r="AF27" s="222"/>
+      <c r="AG27" s="223"/>
+      <c r="AH27" s="223"/>
+      <c r="AI27" s="224"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="187"/>
-      <c r="M28" s="187"/>
-      <c r="N28" s="187"/>
-      <c r="O28" s="187"/>
-      <c r="P28" s="188"/>
-      <c r="Q28" s="189"/>
-      <c r="R28" s="190"/>
-      <c r="S28" s="190"/>
-      <c r="T28" s="190"/>
-      <c r="U28" s="190"/>
-      <c r="V28" s="190"/>
-      <c r="W28" s="190"/>
-      <c r="X28" s="190"/>
-      <c r="Y28" s="190"/>
-      <c r="Z28" s="190"/>
-      <c r="AA28" s="190"/>
-      <c r="AB28" s="190"/>
-      <c r="AC28" s="190"/>
-      <c r="AD28" s="190"/>
-      <c r="AE28" s="191"/>
-      <c r="AF28" s="186"/>
-      <c r="AG28" s="187"/>
-      <c r="AH28" s="187"/>
-      <c r="AI28" s="188"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="217"/>
+      <c r="J28" s="222"/>
+      <c r="K28" s="223"/>
+      <c r="L28" s="223"/>
+      <c r="M28" s="223"/>
+      <c r="N28" s="223"/>
+      <c r="O28" s="223"/>
+      <c r="P28" s="224"/>
+      <c r="Q28" s="225"/>
+      <c r="R28" s="226"/>
+      <c r="S28" s="226"/>
+      <c r="T28" s="226"/>
+      <c r="U28" s="226"/>
+      <c r="V28" s="226"/>
+      <c r="W28" s="226"/>
+      <c r="X28" s="226"/>
+      <c r="Y28" s="226"/>
+      <c r="Z28" s="226"/>
+      <c r="AA28" s="226"/>
+      <c r="AB28" s="226"/>
+      <c r="AC28" s="226"/>
+      <c r="AD28" s="226"/>
+      <c r="AE28" s="227"/>
+      <c r="AF28" s="222"/>
+      <c r="AG28" s="223"/>
+      <c r="AH28" s="223"/>
+      <c r="AI28" s="224"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="180"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="187"/>
-      <c r="P29" s="188"/>
-      <c r="Q29" s="189"/>
-      <c r="R29" s="190"/>
-      <c r="S29" s="190"/>
-      <c r="T29" s="190"/>
-      <c r="U29" s="190"/>
-      <c r="V29" s="190"/>
-      <c r="W29" s="190"/>
-      <c r="X29" s="190"/>
-      <c r="Y29" s="190"/>
-      <c r="Z29" s="190"/>
-      <c r="AA29" s="190"/>
-      <c r="AB29" s="190"/>
-      <c r="AC29" s="190"/>
-      <c r="AD29" s="190"/>
-      <c r="AE29" s="191"/>
-      <c r="AF29" s="186"/>
-      <c r="AG29" s="187"/>
-      <c r="AH29" s="187"/>
-      <c r="AI29" s="188"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="222"/>
+      <c r="K29" s="223"/>
+      <c r="L29" s="223"/>
+      <c r="M29" s="223"/>
+      <c r="N29" s="223"/>
+      <c r="O29" s="223"/>
+      <c r="P29" s="224"/>
+      <c r="Q29" s="225"/>
+      <c r="R29" s="226"/>
+      <c r="S29" s="226"/>
+      <c r="T29" s="226"/>
+      <c r="U29" s="226"/>
+      <c r="V29" s="226"/>
+      <c r="W29" s="226"/>
+      <c r="X29" s="226"/>
+      <c r="Y29" s="226"/>
+      <c r="Z29" s="226"/>
+      <c r="AA29" s="226"/>
+      <c r="AB29" s="226"/>
+      <c r="AC29" s="226"/>
+      <c r="AD29" s="226"/>
+      <c r="AE29" s="227"/>
+      <c r="AF29" s="222"/>
+      <c r="AG29" s="223"/>
+      <c r="AH29" s="223"/>
+      <c r="AI29" s="224"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="180"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187"/>
-      <c r="O30" s="187"/>
-      <c r="P30" s="188"/>
-      <c r="Q30" s="189"/>
-      <c r="R30" s="190"/>
-      <c r="S30" s="190"/>
-      <c r="T30" s="190"/>
-      <c r="U30" s="190"/>
-      <c r="V30" s="190"/>
-      <c r="W30" s="190"/>
-      <c r="X30" s="190"/>
-      <c r="Y30" s="190"/>
-      <c r="Z30" s="190"/>
-      <c r="AA30" s="190"/>
-      <c r="AB30" s="190"/>
-      <c r="AC30" s="190"/>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="186"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="187"/>
-      <c r="AI30" s="188"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="222"/>
+      <c r="K30" s="223"/>
+      <c r="L30" s="223"/>
+      <c r="M30" s="223"/>
+      <c r="N30" s="223"/>
+      <c r="O30" s="223"/>
+      <c r="P30" s="224"/>
+      <c r="Q30" s="225"/>
+      <c r="R30" s="226"/>
+      <c r="S30" s="226"/>
+      <c r="T30" s="226"/>
+      <c r="U30" s="226"/>
+      <c r="V30" s="226"/>
+      <c r="W30" s="226"/>
+      <c r="X30" s="226"/>
+      <c r="Y30" s="226"/>
+      <c r="Z30" s="226"/>
+      <c r="AA30" s="226"/>
+      <c r="AB30" s="226"/>
+      <c r="AC30" s="226"/>
+      <c r="AD30" s="226"/>
+      <c r="AE30" s="227"/>
+      <c r="AF30" s="222"/>
+      <c r="AG30" s="223"/>
+      <c r="AH30" s="223"/>
+      <c r="AI30" s="224"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="180"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="187"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="187"/>
-      <c r="P31" s="188"/>
-      <c r="Q31" s="189"/>
-      <c r="R31" s="190"/>
-      <c r="S31" s="190"/>
-      <c r="T31" s="190"/>
-      <c r="U31" s="190"/>
-      <c r="V31" s="190"/>
-      <c r="W31" s="190"/>
-      <c r="X31" s="190"/>
-      <c r="Y31" s="190"/>
-      <c r="Z31" s="190"/>
-      <c r="AA31" s="190"/>
-      <c r="AB31" s="190"/>
-      <c r="AC31" s="190"/>
-      <c r="AD31" s="190"/>
-      <c r="AE31" s="191"/>
-      <c r="AF31" s="186"/>
-      <c r="AG31" s="187"/>
-      <c r="AH31" s="187"/>
-      <c r="AI31" s="188"/>
+      <c r="B31" s="216"/>
+      <c r="C31" s="217"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="222"/>
+      <c r="K31" s="223"/>
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="223"/>
+      <c r="O31" s="223"/>
+      <c r="P31" s="224"/>
+      <c r="Q31" s="225"/>
+      <c r="R31" s="226"/>
+      <c r="S31" s="226"/>
+      <c r="T31" s="226"/>
+      <c r="U31" s="226"/>
+      <c r="V31" s="226"/>
+      <c r="W31" s="226"/>
+      <c r="X31" s="226"/>
+      <c r="Y31" s="226"/>
+      <c r="Z31" s="226"/>
+      <c r="AA31" s="226"/>
+      <c r="AB31" s="226"/>
+      <c r="AC31" s="226"/>
+      <c r="AD31" s="226"/>
+      <c r="AE31" s="227"/>
+      <c r="AF31" s="222"/>
+      <c r="AG31" s="223"/>
+      <c r="AH31" s="223"/>
+      <c r="AI31" s="224"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="180"/>
-      <c r="C32" s="181"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="192"/>
-      <c r="L32" s="187"/>
-      <c r="M32" s="187"/>
-      <c r="N32" s="187"/>
-      <c r="O32" s="187"/>
-      <c r="P32" s="188"/>
-      <c r="Q32" s="189"/>
-      <c r="R32" s="190"/>
-      <c r="S32" s="190"/>
-      <c r="T32" s="190"/>
-      <c r="U32" s="190"/>
-      <c r="V32" s="190"/>
-      <c r="W32" s="190"/>
-      <c r="X32" s="190"/>
-      <c r="Y32" s="190"/>
-      <c r="Z32" s="190"/>
-      <c r="AA32" s="190"/>
-      <c r="AB32" s="190"/>
-      <c r="AC32" s="190"/>
-      <c r="AD32" s="190"/>
-      <c r="AE32" s="191"/>
-      <c r="AF32" s="186"/>
-      <c r="AG32" s="187"/>
-      <c r="AH32" s="187"/>
-      <c r="AI32" s="188"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="217"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="222"/>
+      <c r="K32" s="241"/>
+      <c r="L32" s="223"/>
+      <c r="M32" s="223"/>
+      <c r="N32" s="223"/>
+      <c r="O32" s="223"/>
+      <c r="P32" s="224"/>
+      <c r="Q32" s="225"/>
+      <c r="R32" s="226"/>
+      <c r="S32" s="226"/>
+      <c r="T32" s="226"/>
+      <c r="U32" s="226"/>
+      <c r="V32" s="226"/>
+      <c r="W32" s="226"/>
+      <c r="X32" s="226"/>
+      <c r="Y32" s="226"/>
+      <c r="Z32" s="226"/>
+      <c r="AA32" s="226"/>
+      <c r="AB32" s="226"/>
+      <c r="AC32" s="226"/>
+      <c r="AD32" s="226"/>
+      <c r="AE32" s="227"/>
+      <c r="AF32" s="222"/>
+      <c r="AG32" s="223"/>
+      <c r="AH32" s="223"/>
+      <c r="AI32" s="224"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="187"/>
-      <c r="P33" s="188"/>
-      <c r="Q33" s="189"/>
-      <c r="R33" s="190"/>
-      <c r="S33" s="190"/>
-      <c r="T33" s="190"/>
-      <c r="U33" s="190"/>
-      <c r="V33" s="190"/>
-      <c r="W33" s="190"/>
-      <c r="X33" s="190"/>
-      <c r="Y33" s="190"/>
-      <c r="Z33" s="190"/>
-      <c r="AA33" s="190"/>
-      <c r="AB33" s="190"/>
-      <c r="AC33" s="190"/>
-      <c r="AD33" s="190"/>
-      <c r="AE33" s="191"/>
-      <c r="AF33" s="186"/>
-      <c r="AG33" s="187"/>
-      <c r="AH33" s="187"/>
-      <c r="AI33" s="188"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="221"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="222"/>
+      <c r="K33" s="223"/>
+      <c r="L33" s="223"/>
+      <c r="M33" s="223"/>
+      <c r="N33" s="223"/>
+      <c r="O33" s="223"/>
+      <c r="P33" s="224"/>
+      <c r="Q33" s="225"/>
+      <c r="R33" s="226"/>
+      <c r="S33" s="226"/>
+      <c r="T33" s="226"/>
+      <c r="U33" s="226"/>
+      <c r="V33" s="226"/>
+      <c r="W33" s="226"/>
+      <c r="X33" s="226"/>
+      <c r="Y33" s="226"/>
+      <c r="Z33" s="226"/>
+      <c r="AA33" s="226"/>
+      <c r="AB33" s="226"/>
+      <c r="AC33" s="226"/>
+      <c r="AD33" s="226"/>
+      <c r="AE33" s="227"/>
+      <c r="AF33" s="222"/>
+      <c r="AG33" s="223"/>
+      <c r="AH33" s="223"/>
+      <c r="AI33" s="224"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13296,162 +13455,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10301_TOPメニュー.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10301_TOPメニュー.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38D39F9-3D28-4975-8218-4CE8C327A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50C7EF3-5EB3-4D65-AA3D-52F719CFA6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7243,34 +7243,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>数値項目に有効範囲の下限値＋1が入力された場合、エラーとなること。</t>
-    <rPh sb="0" eb="2">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カゲン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="19"/>
   </si>
@@ -9066,6 +9038,13 @@
     <t>テストターゲット名：WA10301</t>
     <rPh sb="8" eb="9">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値項目に有効範囲の下限値－1が入力された場合、エラーとなること。</t>
+    <rPh sb="10" eb="12">
+      <t>カゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10363,6 +10342,84 @@
     <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10469,84 +10526,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12081,51 +12060,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="189" t="s">
-        <v>523</v>
-      </c>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="195" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="215" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="204" t="s">
-        <v>697</v>
-      </c>
-      <c r="T1" s="205"/>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205"/>
-      <c r="W1" s="205"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="205"/>
-      <c r="Z1" s="206"/>
-      <c r="AA1" s="186" t="s">
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="223"/>
+      <c r="S1" s="230" t="s">
+        <v>696</v>
+      </c>
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="232"/>
+      <c r="AA1" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="213"/>
-      <c r="AD1" s="214"/>
-      <c r="AE1" s="214"/>
-      <c r="AF1" s="215"/>
-      <c r="AG1" s="180"/>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="182"/>
+      <c r="AB1" s="214"/>
+      <c r="AC1" s="239"/>
+      <c r="AD1" s="240"/>
+      <c r="AE1" s="240"/>
+      <c r="AF1" s="241"/>
+      <c r="AG1" s="206"/>
+      <c r="AH1" s="207"/>
+      <c r="AI1" s="208"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -12133,53 +12112,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="189" t="s">
-        <v>569</v>
-      </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="207"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="186" t="s">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="215" t="s">
+        <v>568</v>
+      </c>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="225"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="180" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="206" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="181"/>
-      <c r="AI2" s="182"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12187,45 +12166,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189" t="s">
-        <v>570</v>
-      </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
-      <c r="V3" s="211"/>
-      <c r="W3" s="211"/>
-      <c r="X3" s="211"/>
-      <c r="Y3" s="211"/>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="213"/>
-      <c r="AD3" s="214"/>
-      <c r="AE3" s="214"/>
-      <c r="AF3" s="215"/>
-      <c r="AG3" s="180"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="182"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215" t="s">
+        <v>569</v>
+      </c>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="236"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="239"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="241"/>
+      <c r="AG3" s="206"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="208"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12262,1176 +12241,1020 @@
       <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="183" t="s">
+      <c r="C7" s="210"/>
+      <c r="D7" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="185"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="183" t="s">
+      <c r="E7" s="211"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="185"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="183" t="s">
+      <c r="H7" s="211"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="183" t="s">
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="210"/>
+      <c r="Q7" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="185"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="185"/>
-      <c r="U7" s="185"/>
-      <c r="V7" s="185"/>
-      <c r="W7" s="185"/>
-      <c r="X7" s="185"/>
-      <c r="Y7" s="185"/>
-      <c r="Z7" s="185"/>
-      <c r="AA7" s="185"/>
-      <c r="AB7" s="185"/>
-      <c r="AC7" s="185"/>
-      <c r="AD7" s="185"/>
-      <c r="AE7" s="184"/>
-      <c r="AF7" s="183" t="s">
+      <c r="R7" s="211"/>
+      <c r="S7" s="211"/>
+      <c r="T7" s="211"/>
+      <c r="U7" s="211"/>
+      <c r="V7" s="211"/>
+      <c r="W7" s="211"/>
+      <c r="X7" s="211"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="211"/>
+      <c r="AA7" s="211"/>
+      <c r="AB7" s="211"/>
+      <c r="AC7" s="211"/>
+      <c r="AD7" s="211"/>
+      <c r="AE7" s="210"/>
+      <c r="AF7" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="AG7" s="185"/>
-      <c r="AH7" s="185"/>
-      <c r="AI7" s="184"/>
+      <c r="AG7" s="211"/>
+      <c r="AH7" s="211"/>
+      <c r="AI7" s="210"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="20"/>
-      <c r="B8" s="228"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="233"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="236"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="236"/>
-      <c r="N8" s="236"/>
-      <c r="O8" s="236"/>
-      <c r="P8" s="237"/>
-      <c r="Q8" s="238"/>
-      <c r="R8" s="239"/>
-      <c r="S8" s="239"/>
-      <c r="T8" s="239"/>
-      <c r="U8" s="239"/>
-      <c r="V8" s="239"/>
-      <c r="W8" s="239"/>
-      <c r="X8" s="239"/>
-      <c r="Y8" s="239"/>
-      <c r="Z8" s="239"/>
-      <c r="AA8" s="239"/>
-      <c r="AB8" s="239"/>
-      <c r="AC8" s="239"/>
-      <c r="AD8" s="239"/>
-      <c r="AE8" s="240"/>
-      <c r="AF8" s="235"/>
-      <c r="AG8" s="236"/>
-      <c r="AH8" s="236"/>
-      <c r="AI8" s="237"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="204"/>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="204"/>
+      <c r="AE8" s="205"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="201"/>
+      <c r="AH8" s="201"/>
+      <c r="AI8" s="202"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="216"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="221"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="222"/>
-      <c r="K9" s="223"/>
-      <c r="L9" s="223"/>
-      <c r="M9" s="223"/>
-      <c r="N9" s="223"/>
-      <c r="O9" s="223"/>
-      <c r="P9" s="224"/>
-      <c r="Q9" s="225"/>
-      <c r="R9" s="226"/>
-      <c r="S9" s="226"/>
-      <c r="T9" s="226"/>
-      <c r="U9" s="226"/>
-      <c r="V9" s="226"/>
-      <c r="W9" s="226"/>
-      <c r="X9" s="226"/>
-      <c r="Y9" s="226"/>
-      <c r="Z9" s="226"/>
-      <c r="AA9" s="226"/>
-      <c r="AB9" s="226"/>
-      <c r="AC9" s="226"/>
-      <c r="AD9" s="226"/>
-      <c r="AE9" s="227"/>
-      <c r="AF9" s="222"/>
-      <c r="AG9" s="223"/>
-      <c r="AH9" s="223"/>
-      <c r="AI9" s="224"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="189"/>
+      <c r="R9" s="190"/>
+      <c r="S9" s="190"/>
+      <c r="T9" s="190"/>
+      <c r="U9" s="190"/>
+      <c r="V9" s="190"/>
+      <c r="W9" s="190"/>
+      <c r="X9" s="190"/>
+      <c r="Y9" s="190"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="190"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="190"/>
+      <c r="AD9" s="190"/>
+      <c r="AE9" s="191"/>
+      <c r="AF9" s="186"/>
+      <c r="AG9" s="187"/>
+      <c r="AH9" s="187"/>
+      <c r="AI9" s="188"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="216"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="221"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="222"/>
-      <c r="K10" s="223"/>
-      <c r="L10" s="223"/>
-      <c r="M10" s="223"/>
-      <c r="N10" s="223"/>
-      <c r="O10" s="223"/>
-      <c r="P10" s="224"/>
-      <c r="Q10" s="225"/>
-      <c r="R10" s="226"/>
-      <c r="S10" s="226"/>
-      <c r="T10" s="226"/>
-      <c r="U10" s="226"/>
-      <c r="V10" s="226"/>
-      <c r="W10" s="226"/>
-      <c r="X10" s="226"/>
-      <c r="Y10" s="226"/>
-      <c r="Z10" s="226"/>
-      <c r="AA10" s="226"/>
-      <c r="AB10" s="226"/>
-      <c r="AC10" s="226"/>
-      <c r="AD10" s="226"/>
-      <c r="AE10" s="227"/>
-      <c r="AF10" s="222"/>
-      <c r="AG10" s="223"/>
-      <c r="AH10" s="223"/>
-      <c r="AI10" s="224"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="187"/>
+      <c r="P10" s="188"/>
+      <c r="Q10" s="189"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="190"/>
+      <c r="V10" s="190"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="190"/>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="190"/>
+      <c r="AD10" s="190"/>
+      <c r="AE10" s="191"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="187"/>
+      <c r="AH10" s="187"/>
+      <c r="AI10" s="188"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="216"/>
-      <c r="C11" s="217"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="220"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="221"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="222"/>
-      <c r="K11" s="223"/>
-      <c r="L11" s="223"/>
-      <c r="M11" s="223"/>
-      <c r="N11" s="223"/>
-      <c r="O11" s="223"/>
-      <c r="P11" s="224"/>
-      <c r="Q11" s="225"/>
-      <c r="R11" s="226"/>
-      <c r="S11" s="226"/>
-      <c r="T11" s="226"/>
-      <c r="U11" s="226"/>
-      <c r="V11" s="226"/>
-      <c r="W11" s="226"/>
-      <c r="X11" s="226"/>
-      <c r="Y11" s="226"/>
-      <c r="Z11" s="226"/>
-      <c r="AA11" s="226"/>
-      <c r="AB11" s="226"/>
-      <c r="AC11" s="226"/>
-      <c r="AD11" s="226"/>
-      <c r="AE11" s="227"/>
-      <c r="AF11" s="222"/>
-      <c r="AG11" s="223"/>
-      <c r="AH11" s="223"/>
-      <c r="AI11" s="224"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="188"/>
+      <c r="Q11" s="189"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="190"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="190"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="191"/>
+      <c r="AF11" s="186"/>
+      <c r="AG11" s="187"/>
+      <c r="AH11" s="187"/>
+      <c r="AI11" s="188"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="216"/>
-      <c r="C12" s="217"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="216"/>
-      <c r="H12" s="221"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="222"/>
-      <c r="K12" s="223"/>
-      <c r="L12" s="223"/>
-      <c r="M12" s="223"/>
-      <c r="N12" s="223"/>
-      <c r="O12" s="223"/>
-      <c r="P12" s="224"/>
-      <c r="Q12" s="225"/>
-      <c r="R12" s="226"/>
-      <c r="S12" s="226"/>
-      <c r="T12" s="226"/>
-      <c r="U12" s="226"/>
-      <c r="V12" s="226"/>
-      <c r="W12" s="226"/>
-      <c r="X12" s="226"/>
-      <c r="Y12" s="226"/>
-      <c r="Z12" s="226"/>
-      <c r="AA12" s="226"/>
-      <c r="AB12" s="226"/>
-      <c r="AC12" s="226"/>
-      <c r="AD12" s="226"/>
-      <c r="AE12" s="227"/>
-      <c r="AF12" s="222"/>
-      <c r="AG12" s="223"/>
-      <c r="AH12" s="223"/>
-      <c r="AI12" s="224"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="187"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="188"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="190"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="190"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="191"/>
+      <c r="AF12" s="186"/>
+      <c r="AG12" s="187"/>
+      <c r="AH12" s="187"/>
+      <c r="AI12" s="188"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="216"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="216"/>
-      <c r="H13" s="221"/>
-      <c r="I13" s="217"/>
-      <c r="J13" s="222"/>
-      <c r="K13" s="223"/>
-      <c r="L13" s="223"/>
-      <c r="M13" s="223"/>
-      <c r="N13" s="223"/>
-      <c r="O13" s="223"/>
-      <c r="P13" s="224"/>
-      <c r="Q13" s="225"/>
-      <c r="R13" s="226"/>
-      <c r="S13" s="226"/>
-      <c r="T13" s="226"/>
-      <c r="U13" s="226"/>
-      <c r="V13" s="226"/>
-      <c r="W13" s="226"/>
-      <c r="X13" s="226"/>
-      <c r="Y13" s="226"/>
-      <c r="Z13" s="226"/>
-      <c r="AA13" s="226"/>
-      <c r="AB13" s="226"/>
-      <c r="AC13" s="226"/>
-      <c r="AD13" s="226"/>
-      <c r="AE13" s="227"/>
-      <c r="AF13" s="222"/>
-      <c r="AG13" s="223"/>
-      <c r="AH13" s="223"/>
-      <c r="AI13" s="224"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="187"/>
+      <c r="P13" s="188"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="190"/>
+      <c r="V13" s="190"/>
+      <c r="W13" s="190"/>
+      <c r="X13" s="190"/>
+      <c r="Y13" s="190"/>
+      <c r="Z13" s="190"/>
+      <c r="AA13" s="190"/>
+      <c r="AB13" s="190"/>
+      <c r="AC13" s="190"/>
+      <c r="AD13" s="190"/>
+      <c r="AE13" s="191"/>
+      <c r="AF13" s="186"/>
+      <c r="AG13" s="187"/>
+      <c r="AH13" s="187"/>
+      <c r="AI13" s="188"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="216"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="219"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="221"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="222"/>
-      <c r="K14" s="223"/>
-      <c r="L14" s="223"/>
-      <c r="M14" s="223"/>
-      <c r="N14" s="223"/>
-      <c r="O14" s="223"/>
-      <c r="P14" s="224"/>
-      <c r="Q14" s="225"/>
-      <c r="R14" s="226"/>
-      <c r="S14" s="226"/>
-      <c r="T14" s="226"/>
-      <c r="U14" s="226"/>
-      <c r="V14" s="226"/>
-      <c r="W14" s="226"/>
-      <c r="X14" s="226"/>
-      <c r="Y14" s="226"/>
-      <c r="Z14" s="226"/>
-      <c r="AA14" s="226"/>
-      <c r="AB14" s="226"/>
-      <c r="AC14" s="226"/>
-      <c r="AD14" s="226"/>
-      <c r="AE14" s="227"/>
-      <c r="AF14" s="222"/>
-      <c r="AG14" s="223"/>
-      <c r="AH14" s="223"/>
-      <c r="AI14" s="224"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="187"/>
+      <c r="P14" s="188"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="190"/>
+      <c r="S14" s="190"/>
+      <c r="T14" s="190"/>
+      <c r="U14" s="190"/>
+      <c r="V14" s="190"/>
+      <c r="W14" s="190"/>
+      <c r="X14" s="190"/>
+      <c r="Y14" s="190"/>
+      <c r="Z14" s="190"/>
+      <c r="AA14" s="190"/>
+      <c r="AB14" s="190"/>
+      <c r="AC14" s="190"/>
+      <c r="AD14" s="190"/>
+      <c r="AE14" s="191"/>
+      <c r="AF14" s="186"/>
+      <c r="AG14" s="187"/>
+      <c r="AH14" s="187"/>
+      <c r="AI14" s="188"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="222"/>
-      <c r="K15" s="223"/>
-      <c r="L15" s="223"/>
-      <c r="M15" s="223"/>
-      <c r="N15" s="223"/>
-      <c r="O15" s="223"/>
-      <c r="P15" s="224"/>
-      <c r="Q15" s="225"/>
-      <c r="R15" s="226"/>
-      <c r="S15" s="226"/>
-      <c r="T15" s="226"/>
-      <c r="U15" s="226"/>
-      <c r="V15" s="226"/>
-      <c r="W15" s="226"/>
-      <c r="X15" s="226"/>
-      <c r="Y15" s="226"/>
-      <c r="Z15" s="226"/>
-      <c r="AA15" s="226"/>
-      <c r="AB15" s="226"/>
-      <c r="AC15" s="226"/>
-      <c r="AD15" s="226"/>
-      <c r="AE15" s="227"/>
-      <c r="AF15" s="222"/>
-      <c r="AG15" s="223"/>
-      <c r="AH15" s="223"/>
-      <c r="AI15" s="224"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
+      <c r="P15" s="188"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="190"/>
+      <c r="S15" s="190"/>
+      <c r="T15" s="190"/>
+      <c r="U15" s="190"/>
+      <c r="V15" s="190"/>
+      <c r="W15" s="190"/>
+      <c r="X15" s="190"/>
+      <c r="Y15" s="190"/>
+      <c r="Z15" s="190"/>
+      <c r="AA15" s="190"/>
+      <c r="AB15" s="190"/>
+      <c r="AC15" s="190"/>
+      <c r="AD15" s="190"/>
+      <c r="AE15" s="191"/>
+      <c r="AF15" s="186"/>
+      <c r="AG15" s="187"/>
+      <c r="AH15" s="187"/>
+      <c r="AI15" s="188"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="220"/>
-      <c r="G16" s="216"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="223"/>
-      <c r="L16" s="223"/>
-      <c r="M16" s="223"/>
-      <c r="N16" s="223"/>
-      <c r="O16" s="223"/>
-      <c r="P16" s="224"/>
-      <c r="Q16" s="225"/>
-      <c r="R16" s="226"/>
-      <c r="S16" s="226"/>
-      <c r="T16" s="226"/>
-      <c r="U16" s="226"/>
-      <c r="V16" s="226"/>
-      <c r="W16" s="226"/>
-      <c r="X16" s="226"/>
-      <c r="Y16" s="226"/>
-      <c r="Z16" s="226"/>
-      <c r="AA16" s="226"/>
-      <c r="AB16" s="226"/>
-      <c r="AC16" s="226"/>
-      <c r="AD16" s="226"/>
-      <c r="AE16" s="227"/>
-      <c r="AF16" s="222"/>
-      <c r="AG16" s="223"/>
-      <c r="AH16" s="223"/>
-      <c r="AI16" s="224"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="187"/>
+      <c r="P16" s="188"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="190"/>
+      <c r="S16" s="190"/>
+      <c r="T16" s="190"/>
+      <c r="U16" s="190"/>
+      <c r="V16" s="190"/>
+      <c r="W16" s="190"/>
+      <c r="X16" s="190"/>
+      <c r="Y16" s="190"/>
+      <c r="Z16" s="190"/>
+      <c r="AA16" s="190"/>
+      <c r="AB16" s="190"/>
+      <c r="AC16" s="190"/>
+      <c r="AD16" s="190"/>
+      <c r="AE16" s="191"/>
+      <c r="AF16" s="186"/>
+      <c r="AG16" s="187"/>
+      <c r="AH16" s="187"/>
+      <c r="AI16" s="188"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="216"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="220"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="222"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="223"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="223"/>
-      <c r="O17" s="223"/>
-      <c r="P17" s="224"/>
-      <c r="Q17" s="225"/>
-      <c r="R17" s="226"/>
-      <c r="S17" s="226"/>
-      <c r="T17" s="226"/>
-      <c r="U17" s="226"/>
-      <c r="V17" s="226"/>
-      <c r="W17" s="226"/>
-      <c r="X17" s="226"/>
-      <c r="Y17" s="226"/>
-      <c r="Z17" s="226"/>
-      <c r="AA17" s="226"/>
-      <c r="AB17" s="226"/>
-      <c r="AC17" s="226"/>
-      <c r="AD17" s="226"/>
-      <c r="AE17" s="227"/>
-      <c r="AF17" s="222"/>
-      <c r="AG17" s="223"/>
-      <c r="AH17" s="223"/>
-      <c r="AI17" s="224"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="187"/>
+      <c r="P17" s="188"/>
+      <c r="Q17" s="189"/>
+      <c r="R17" s="190"/>
+      <c r="S17" s="190"/>
+      <c r="T17" s="190"/>
+      <c r="U17" s="190"/>
+      <c r="V17" s="190"/>
+      <c r="W17" s="190"/>
+      <c r="X17" s="190"/>
+      <c r="Y17" s="190"/>
+      <c r="Z17" s="190"/>
+      <c r="AA17" s="190"/>
+      <c r="AB17" s="190"/>
+      <c r="AC17" s="190"/>
+      <c r="AD17" s="190"/>
+      <c r="AE17" s="191"/>
+      <c r="AF17" s="186"/>
+      <c r="AG17" s="187"/>
+      <c r="AH17" s="187"/>
+      <c r="AI17" s="188"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="216"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="222"/>
-      <c r="K18" s="223"/>
-      <c r="L18" s="223"/>
-      <c r="M18" s="223"/>
-      <c r="N18" s="223"/>
-      <c r="O18" s="223"/>
-      <c r="P18" s="224"/>
-      <c r="Q18" s="225"/>
-      <c r="R18" s="226"/>
-      <c r="S18" s="226"/>
-      <c r="T18" s="226"/>
-      <c r="U18" s="226"/>
-      <c r="V18" s="226"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="226"/>
-      <c r="Y18" s="226"/>
-      <c r="Z18" s="226"/>
-      <c r="AA18" s="226"/>
-      <c r="AB18" s="226"/>
-      <c r="AC18" s="226"/>
-      <c r="AD18" s="226"/>
-      <c r="AE18" s="227"/>
-      <c r="AF18" s="222"/>
-      <c r="AG18" s="223"/>
-      <c r="AH18" s="223"/>
-      <c r="AI18" s="224"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="188"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="190"/>
+      <c r="S18" s="190"/>
+      <c r="T18" s="190"/>
+      <c r="U18" s="190"/>
+      <c r="V18" s="190"/>
+      <c r="W18" s="190"/>
+      <c r="X18" s="190"/>
+      <c r="Y18" s="190"/>
+      <c r="Z18" s="190"/>
+      <c r="AA18" s="190"/>
+      <c r="AB18" s="190"/>
+      <c r="AC18" s="190"/>
+      <c r="AD18" s="190"/>
+      <c r="AE18" s="191"/>
+      <c r="AF18" s="186"/>
+      <c r="AG18" s="187"/>
+      <c r="AH18" s="187"/>
+      <c r="AI18" s="188"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="216"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="222"/>
-      <c r="K19" s="223"/>
-      <c r="L19" s="223"/>
-      <c r="M19" s="223"/>
-      <c r="N19" s="223"/>
-      <c r="O19" s="223"/>
-      <c r="P19" s="224"/>
-      <c r="Q19" s="225"/>
-      <c r="R19" s="226"/>
-      <c r="S19" s="226"/>
-      <c r="T19" s="226"/>
-      <c r="U19" s="226"/>
-      <c r="V19" s="226"/>
-      <c r="W19" s="226"/>
-      <c r="X19" s="226"/>
-      <c r="Y19" s="226"/>
-      <c r="Z19" s="226"/>
-      <c r="AA19" s="226"/>
-      <c r="AB19" s="226"/>
-      <c r="AC19" s="226"/>
-      <c r="AD19" s="226"/>
-      <c r="AE19" s="227"/>
-      <c r="AF19" s="222"/>
-      <c r="AG19" s="223"/>
-      <c r="AH19" s="223"/>
-      <c r="AI19" s="224"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="187"/>
+      <c r="P19" s="188"/>
+      <c r="Q19" s="189"/>
+      <c r="R19" s="190"/>
+      <c r="S19" s="190"/>
+      <c r="T19" s="190"/>
+      <c r="U19" s="190"/>
+      <c r="V19" s="190"/>
+      <c r="W19" s="190"/>
+      <c r="X19" s="190"/>
+      <c r="Y19" s="190"/>
+      <c r="Z19" s="190"/>
+      <c r="AA19" s="190"/>
+      <c r="AB19" s="190"/>
+      <c r="AC19" s="190"/>
+      <c r="AD19" s="190"/>
+      <c r="AE19" s="191"/>
+      <c r="AF19" s="186"/>
+      <c r="AG19" s="187"/>
+      <c r="AH19" s="187"/>
+      <c r="AI19" s="188"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="216"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="216"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="217"/>
-      <c r="J20" s="222"/>
-      <c r="K20" s="223"/>
-      <c r="L20" s="223"/>
-      <c r="M20" s="223"/>
-      <c r="N20" s="223"/>
-      <c r="O20" s="223"/>
-      <c r="P20" s="224"/>
-      <c r="Q20" s="225"/>
-      <c r="R20" s="226"/>
-      <c r="S20" s="226"/>
-      <c r="T20" s="226"/>
-      <c r="U20" s="226"/>
-      <c r="V20" s="226"/>
-      <c r="W20" s="226"/>
-      <c r="X20" s="226"/>
-      <c r="Y20" s="226"/>
-      <c r="Z20" s="226"/>
-      <c r="AA20" s="226"/>
-      <c r="AB20" s="226"/>
-      <c r="AC20" s="226"/>
-      <c r="AD20" s="226"/>
-      <c r="AE20" s="227"/>
-      <c r="AF20" s="222"/>
-      <c r="AG20" s="223"/>
-      <c r="AH20" s="223"/>
-      <c r="AI20" s="224"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="187"/>
+      <c r="N20" s="187"/>
+      <c r="O20" s="187"/>
+      <c r="P20" s="188"/>
+      <c r="Q20" s="189"/>
+      <c r="R20" s="190"/>
+      <c r="S20" s="190"/>
+      <c r="T20" s="190"/>
+      <c r="U20" s="190"/>
+      <c r="V20" s="190"/>
+      <c r="W20" s="190"/>
+      <c r="X20" s="190"/>
+      <c r="Y20" s="190"/>
+      <c r="Z20" s="190"/>
+      <c r="AA20" s="190"/>
+      <c r="AB20" s="190"/>
+      <c r="AC20" s="190"/>
+      <c r="AD20" s="190"/>
+      <c r="AE20" s="191"/>
+      <c r="AF20" s="186"/>
+      <c r="AG20" s="187"/>
+      <c r="AH20" s="187"/>
+      <c r="AI20" s="188"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="216"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="216"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="222"/>
-      <c r="K21" s="223"/>
-      <c r="L21" s="223"/>
-      <c r="M21" s="223"/>
-      <c r="N21" s="223"/>
-      <c r="O21" s="223"/>
-      <c r="P21" s="224"/>
-      <c r="Q21" s="225"/>
-      <c r="R21" s="226"/>
-      <c r="S21" s="226"/>
-      <c r="T21" s="226"/>
-      <c r="U21" s="226"/>
-      <c r="V21" s="226"/>
-      <c r="W21" s="226"/>
-      <c r="X21" s="226"/>
-      <c r="Y21" s="226"/>
-      <c r="Z21" s="226"/>
-      <c r="AA21" s="226"/>
-      <c r="AB21" s="226"/>
-      <c r="AC21" s="226"/>
-      <c r="AD21" s="226"/>
-      <c r="AE21" s="227"/>
-      <c r="AF21" s="222"/>
-      <c r="AG21" s="223"/>
-      <c r="AH21" s="223"/>
-      <c r="AI21" s="224"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="188"/>
+      <c r="Q21" s="189"/>
+      <c r="R21" s="190"/>
+      <c r="S21" s="190"/>
+      <c r="T21" s="190"/>
+      <c r="U21" s="190"/>
+      <c r="V21" s="190"/>
+      <c r="W21" s="190"/>
+      <c r="X21" s="190"/>
+      <c r="Y21" s="190"/>
+      <c r="Z21" s="190"/>
+      <c r="AA21" s="190"/>
+      <c r="AB21" s="190"/>
+      <c r="AC21" s="190"/>
+      <c r="AD21" s="190"/>
+      <c r="AE21" s="191"/>
+      <c r="AF21" s="186"/>
+      <c r="AG21" s="187"/>
+      <c r="AH21" s="187"/>
+      <c r="AI21" s="188"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="216"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="216"/>
-      <c r="H22" s="221"/>
-      <c r="I22" s="217"/>
-      <c r="J22" s="222"/>
-      <c r="K22" s="223"/>
-      <c r="L22" s="223"/>
-      <c r="M22" s="223"/>
-      <c r="N22" s="223"/>
-      <c r="O22" s="223"/>
-      <c r="P22" s="224"/>
-      <c r="Q22" s="225"/>
-      <c r="R22" s="226"/>
-      <c r="S22" s="226"/>
-      <c r="T22" s="226"/>
-      <c r="U22" s="226"/>
-      <c r="V22" s="226"/>
-      <c r="W22" s="226"/>
-      <c r="X22" s="226"/>
-      <c r="Y22" s="226"/>
-      <c r="Z22" s="226"/>
-      <c r="AA22" s="226"/>
-      <c r="AB22" s="226"/>
-      <c r="AC22" s="226"/>
-      <c r="AD22" s="226"/>
-      <c r="AE22" s="227"/>
-      <c r="AF22" s="222"/>
-      <c r="AG22" s="223"/>
-      <c r="AH22" s="223"/>
-      <c r="AI22" s="224"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="187"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="187"/>
+      <c r="P22" s="188"/>
+      <c r="Q22" s="189"/>
+      <c r="R22" s="190"/>
+      <c r="S22" s="190"/>
+      <c r="T22" s="190"/>
+      <c r="U22" s="190"/>
+      <c r="V22" s="190"/>
+      <c r="W22" s="190"/>
+      <c r="X22" s="190"/>
+      <c r="Y22" s="190"/>
+      <c r="Z22" s="190"/>
+      <c r="AA22" s="190"/>
+      <c r="AB22" s="190"/>
+      <c r="AC22" s="190"/>
+      <c r="AD22" s="190"/>
+      <c r="AE22" s="191"/>
+      <c r="AF22" s="186"/>
+      <c r="AG22" s="187"/>
+      <c r="AH22" s="187"/>
+      <c r="AI22" s="188"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="221"/>
-      <c r="I23" s="217"/>
-      <c r="J23" s="222"/>
-      <c r="K23" s="223"/>
-      <c r="L23" s="223"/>
-      <c r="M23" s="223"/>
-      <c r="N23" s="223"/>
-      <c r="O23" s="223"/>
-      <c r="P23" s="224"/>
-      <c r="Q23" s="225"/>
-      <c r="R23" s="226"/>
-      <c r="S23" s="226"/>
-      <c r="T23" s="226"/>
-      <c r="U23" s="226"/>
-      <c r="V23" s="226"/>
-      <c r="W23" s="226"/>
-      <c r="X23" s="226"/>
-      <c r="Y23" s="226"/>
-      <c r="Z23" s="226"/>
-      <c r="AA23" s="226"/>
-      <c r="AB23" s="226"/>
-      <c r="AC23" s="226"/>
-      <c r="AD23" s="226"/>
-      <c r="AE23" s="227"/>
-      <c r="AF23" s="222"/>
-      <c r="AG23" s="223"/>
-      <c r="AH23" s="223"/>
-      <c r="AI23" s="224"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="188"/>
+      <c r="Q23" s="189"/>
+      <c r="R23" s="190"/>
+      <c r="S23" s="190"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="190"/>
+      <c r="V23" s="190"/>
+      <c r="W23" s="190"/>
+      <c r="X23" s="190"/>
+      <c r="Y23" s="190"/>
+      <c r="Z23" s="190"/>
+      <c r="AA23" s="190"/>
+      <c r="AB23" s="190"/>
+      <c r="AC23" s="190"/>
+      <c r="AD23" s="190"/>
+      <c r="AE23" s="191"/>
+      <c r="AF23" s="186"/>
+      <c r="AG23" s="187"/>
+      <c r="AH23" s="187"/>
+      <c r="AI23" s="188"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="216"/>
-      <c r="C24" s="217"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="221"/>
-      <c r="I24" s="217"/>
-      <c r="J24" s="222"/>
-      <c r="K24" s="223"/>
-      <c r="L24" s="223"/>
-      <c r="M24" s="223"/>
-      <c r="N24" s="223"/>
-      <c r="O24" s="223"/>
-      <c r="P24" s="224"/>
-      <c r="Q24" s="225"/>
-      <c r="R24" s="226"/>
-      <c r="S24" s="226"/>
-      <c r="T24" s="226"/>
-      <c r="U24" s="226"/>
-      <c r="V24" s="226"/>
-      <c r="W24" s="226"/>
-      <c r="X24" s="226"/>
-      <c r="Y24" s="226"/>
-      <c r="Z24" s="226"/>
-      <c r="AA24" s="226"/>
-      <c r="AB24" s="226"/>
-      <c r="AC24" s="226"/>
-      <c r="AD24" s="226"/>
-      <c r="AE24" s="227"/>
-      <c r="AF24" s="222"/>
-      <c r="AG24" s="223"/>
-      <c r="AH24" s="223"/>
-      <c r="AI24" s="224"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="187"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="187"/>
+      <c r="P24" s="188"/>
+      <c r="Q24" s="189"/>
+      <c r="R24" s="190"/>
+      <c r="S24" s="190"/>
+      <c r="T24" s="190"/>
+      <c r="U24" s="190"/>
+      <c r="V24" s="190"/>
+      <c r="W24" s="190"/>
+      <c r="X24" s="190"/>
+      <c r="Y24" s="190"/>
+      <c r="Z24" s="190"/>
+      <c r="AA24" s="190"/>
+      <c r="AB24" s="190"/>
+      <c r="AC24" s="190"/>
+      <c r="AD24" s="190"/>
+      <c r="AE24" s="191"/>
+      <c r="AF24" s="186"/>
+      <c r="AG24" s="187"/>
+      <c r="AH24" s="187"/>
+      <c r="AI24" s="188"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="216"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="217"/>
-      <c r="J25" s="222"/>
-      <c r="K25" s="223"/>
-      <c r="L25" s="223"/>
-      <c r="M25" s="223"/>
-      <c r="N25" s="223"/>
-      <c r="O25" s="223"/>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="225"/>
-      <c r="R25" s="226"/>
-      <c r="S25" s="226"/>
-      <c r="T25" s="226"/>
-      <c r="U25" s="226"/>
-      <c r="V25" s="226"/>
-      <c r="W25" s="226"/>
-      <c r="X25" s="226"/>
-      <c r="Y25" s="226"/>
-      <c r="Z25" s="226"/>
-      <c r="AA25" s="226"/>
-      <c r="AB25" s="226"/>
-      <c r="AC25" s="226"/>
-      <c r="AD25" s="226"/>
-      <c r="AE25" s="227"/>
-      <c r="AF25" s="222"/>
-      <c r="AG25" s="223"/>
-      <c r="AH25" s="223"/>
-      <c r="AI25" s="224"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="187"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="188"/>
+      <c r="Q25" s="189"/>
+      <c r="R25" s="190"/>
+      <c r="S25" s="190"/>
+      <c r="T25" s="190"/>
+      <c r="U25" s="190"/>
+      <c r="V25" s="190"/>
+      <c r="W25" s="190"/>
+      <c r="X25" s="190"/>
+      <c r="Y25" s="190"/>
+      <c r="Z25" s="190"/>
+      <c r="AA25" s="190"/>
+      <c r="AB25" s="190"/>
+      <c r="AC25" s="190"/>
+      <c r="AD25" s="190"/>
+      <c r="AE25" s="191"/>
+      <c r="AF25" s="186"/>
+      <c r="AG25" s="187"/>
+      <c r="AH25" s="187"/>
+      <c r="AI25" s="188"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="216"/>
-      <c r="C26" s="217"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="216"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="222"/>
-      <c r="K26" s="223"/>
-      <c r="L26" s="223"/>
-      <c r="M26" s="223"/>
-      <c r="N26" s="223"/>
-      <c r="O26" s="223"/>
-      <c r="P26" s="224"/>
-      <c r="Q26" s="225"/>
-      <c r="R26" s="226"/>
-      <c r="S26" s="226"/>
-      <c r="T26" s="226"/>
-      <c r="U26" s="226"/>
-      <c r="V26" s="226"/>
-      <c r="W26" s="226"/>
-      <c r="X26" s="226"/>
-      <c r="Y26" s="226"/>
-      <c r="Z26" s="226"/>
-      <c r="AA26" s="226"/>
-      <c r="AB26" s="226"/>
-      <c r="AC26" s="226"/>
-      <c r="AD26" s="226"/>
-      <c r="AE26" s="227"/>
-      <c r="AF26" s="222"/>
-      <c r="AG26" s="223"/>
-      <c r="AH26" s="223"/>
-      <c r="AI26" s="224"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="187"/>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="189"/>
+      <c r="R26" s="190"/>
+      <c r="S26" s="190"/>
+      <c r="T26" s="190"/>
+      <c r="U26" s="190"/>
+      <c r="V26" s="190"/>
+      <c r="W26" s="190"/>
+      <c r="X26" s="190"/>
+      <c r="Y26" s="190"/>
+      <c r="Z26" s="190"/>
+      <c r="AA26" s="190"/>
+      <c r="AB26" s="190"/>
+      <c r="AC26" s="190"/>
+      <c r="AD26" s="190"/>
+      <c r="AE26" s="191"/>
+      <c r="AF26" s="186"/>
+      <c r="AG26" s="187"/>
+      <c r="AH26" s="187"/>
+      <c r="AI26" s="188"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="216"/>
-      <c r="C27" s="217"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="219"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="216"/>
-      <c r="H27" s="221"/>
-      <c r="I27" s="217"/>
-      <c r="J27" s="222"/>
-      <c r="K27" s="223"/>
-      <c r="L27" s="223"/>
-      <c r="M27" s="223"/>
-      <c r="N27" s="223"/>
-      <c r="O27" s="223"/>
-      <c r="P27" s="224"/>
-      <c r="Q27" s="225"/>
-      <c r="R27" s="226"/>
-      <c r="S27" s="226"/>
-      <c r="T27" s="226"/>
-      <c r="U27" s="226"/>
-      <c r="V27" s="226"/>
-      <c r="W27" s="226"/>
-      <c r="X27" s="226"/>
-      <c r="Y27" s="226"/>
-      <c r="Z27" s="226"/>
-      <c r="AA27" s="226"/>
-      <c r="AB27" s="226"/>
-      <c r="AC27" s="226"/>
-      <c r="AD27" s="226"/>
-      <c r="AE27" s="227"/>
-      <c r="AF27" s="222"/>
-      <c r="AG27" s="223"/>
-      <c r="AH27" s="223"/>
-      <c r="AI27" s="224"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="188"/>
+      <c r="Q27" s="189"/>
+      <c r="R27" s="190"/>
+      <c r="S27" s="190"/>
+      <c r="T27" s="190"/>
+      <c r="U27" s="190"/>
+      <c r="V27" s="190"/>
+      <c r="W27" s="190"/>
+      <c r="X27" s="190"/>
+      <c r="Y27" s="190"/>
+      <c r="Z27" s="190"/>
+      <c r="AA27" s="190"/>
+      <c r="AB27" s="190"/>
+      <c r="AC27" s="190"/>
+      <c r="AD27" s="190"/>
+      <c r="AE27" s="191"/>
+      <c r="AF27" s="186"/>
+      <c r="AG27" s="187"/>
+      <c r="AH27" s="187"/>
+      <c r="AI27" s="188"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="216"/>
-      <c r="C28" s="217"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="216"/>
-      <c r="H28" s="221"/>
-      <c r="I28" s="217"/>
-      <c r="J28" s="222"/>
-      <c r="K28" s="223"/>
-      <c r="L28" s="223"/>
-      <c r="M28" s="223"/>
-      <c r="N28" s="223"/>
-      <c r="O28" s="223"/>
-      <c r="P28" s="224"/>
-      <c r="Q28" s="225"/>
-      <c r="R28" s="226"/>
-      <c r="S28" s="226"/>
-      <c r="T28" s="226"/>
-      <c r="U28" s="226"/>
-      <c r="V28" s="226"/>
-      <c r="W28" s="226"/>
-      <c r="X28" s="226"/>
-      <c r="Y28" s="226"/>
-      <c r="Z28" s="226"/>
-      <c r="AA28" s="226"/>
-      <c r="AB28" s="226"/>
-      <c r="AC28" s="226"/>
-      <c r="AD28" s="226"/>
-      <c r="AE28" s="227"/>
-      <c r="AF28" s="222"/>
-      <c r="AG28" s="223"/>
-      <c r="AH28" s="223"/>
-      <c r="AI28" s="224"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="187"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="189"/>
+      <c r="R28" s="190"/>
+      <c r="S28" s="190"/>
+      <c r="T28" s="190"/>
+      <c r="U28" s="190"/>
+      <c r="V28" s="190"/>
+      <c r="W28" s="190"/>
+      <c r="X28" s="190"/>
+      <c r="Y28" s="190"/>
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="190"/>
+      <c r="AB28" s="190"/>
+      <c r="AC28" s="190"/>
+      <c r="AD28" s="190"/>
+      <c r="AE28" s="191"/>
+      <c r="AF28" s="186"/>
+      <c r="AG28" s="187"/>
+      <c r="AH28" s="187"/>
+      <c r="AI28" s="188"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="216"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="220"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="221"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="222"/>
-      <c r="K29" s="223"/>
-      <c r="L29" s="223"/>
-      <c r="M29" s="223"/>
-      <c r="N29" s="223"/>
-      <c r="O29" s="223"/>
-      <c r="P29" s="224"/>
-      <c r="Q29" s="225"/>
-      <c r="R29" s="226"/>
-      <c r="S29" s="226"/>
-      <c r="T29" s="226"/>
-      <c r="U29" s="226"/>
-      <c r="V29" s="226"/>
-      <c r="W29" s="226"/>
-      <c r="X29" s="226"/>
-      <c r="Y29" s="226"/>
-      <c r="Z29" s="226"/>
-      <c r="AA29" s="226"/>
-      <c r="AB29" s="226"/>
-      <c r="AC29" s="226"/>
-      <c r="AD29" s="226"/>
-      <c r="AE29" s="227"/>
-      <c r="AF29" s="222"/>
-      <c r="AG29" s="223"/>
-      <c r="AH29" s="223"/>
-      <c r="AI29" s="224"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="187"/>
+      <c r="P29" s="188"/>
+      <c r="Q29" s="189"/>
+      <c r="R29" s="190"/>
+      <c r="S29" s="190"/>
+      <c r="T29" s="190"/>
+      <c r="U29" s="190"/>
+      <c r="V29" s="190"/>
+      <c r="W29" s="190"/>
+      <c r="X29" s="190"/>
+      <c r="Y29" s="190"/>
+      <c r="Z29" s="190"/>
+      <c r="AA29" s="190"/>
+      <c r="AB29" s="190"/>
+      <c r="AC29" s="190"/>
+      <c r="AD29" s="190"/>
+      <c r="AE29" s="191"/>
+      <c r="AF29" s="186"/>
+      <c r="AG29" s="187"/>
+      <c r="AH29" s="187"/>
+      <c r="AI29" s="188"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="216"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="221"/>
-      <c r="I30" s="217"/>
-      <c r="J30" s="222"/>
-      <c r="K30" s="223"/>
-      <c r="L30" s="223"/>
-      <c r="M30" s="223"/>
-      <c r="N30" s="223"/>
-      <c r="O30" s="223"/>
-      <c r="P30" s="224"/>
-      <c r="Q30" s="225"/>
-      <c r="R30" s="226"/>
-      <c r="S30" s="226"/>
-      <c r="T30" s="226"/>
-      <c r="U30" s="226"/>
-      <c r="V30" s="226"/>
-      <c r="W30" s="226"/>
-      <c r="X30" s="226"/>
-      <c r="Y30" s="226"/>
-      <c r="Z30" s="226"/>
-      <c r="AA30" s="226"/>
-      <c r="AB30" s="226"/>
-      <c r="AC30" s="226"/>
-      <c r="AD30" s="226"/>
-      <c r="AE30" s="227"/>
-      <c r="AF30" s="222"/>
-      <c r="AG30" s="223"/>
-      <c r="AH30" s="223"/>
-      <c r="AI30" s="224"/>
+      <c r="B30" s="180"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="187"/>
+      <c r="P30" s="188"/>
+      <c r="Q30" s="189"/>
+      <c r="R30" s="190"/>
+      <c r="S30" s="190"/>
+      <c r="T30" s="190"/>
+      <c r="U30" s="190"/>
+      <c r="V30" s="190"/>
+      <c r="W30" s="190"/>
+      <c r="X30" s="190"/>
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="190"/>
+      <c r="AA30" s="190"/>
+      <c r="AB30" s="190"/>
+      <c r="AC30" s="190"/>
+      <c r="AD30" s="190"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="186"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="188"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="216"/>
-      <c r="C31" s="217"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="216"/>
-      <c r="H31" s="221"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="222"/>
-      <c r="K31" s="223"/>
-      <c r="L31" s="223"/>
-      <c r="M31" s="223"/>
-      <c r="N31" s="223"/>
-      <c r="O31" s="223"/>
-      <c r="P31" s="224"/>
-      <c r="Q31" s="225"/>
-      <c r="R31" s="226"/>
-      <c r="S31" s="226"/>
-      <c r="T31" s="226"/>
-      <c r="U31" s="226"/>
-      <c r="V31" s="226"/>
-      <c r="W31" s="226"/>
-      <c r="X31" s="226"/>
-      <c r="Y31" s="226"/>
-      <c r="Z31" s="226"/>
-      <c r="AA31" s="226"/>
-      <c r="AB31" s="226"/>
-      <c r="AC31" s="226"/>
-      <c r="AD31" s="226"/>
-      <c r="AE31" s="227"/>
-      <c r="AF31" s="222"/>
-      <c r="AG31" s="223"/>
-      <c r="AH31" s="223"/>
-      <c r="AI31" s="224"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="188"/>
+      <c r="Q31" s="189"/>
+      <c r="R31" s="190"/>
+      <c r="S31" s="190"/>
+      <c r="T31" s="190"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="190"/>
+      <c r="W31" s="190"/>
+      <c r="X31" s="190"/>
+      <c r="Y31" s="190"/>
+      <c r="Z31" s="190"/>
+      <c r="AA31" s="190"/>
+      <c r="AB31" s="190"/>
+      <c r="AC31" s="190"/>
+      <c r="AD31" s="190"/>
+      <c r="AE31" s="191"/>
+      <c r="AF31" s="186"/>
+      <c r="AG31" s="187"/>
+      <c r="AH31" s="187"/>
+      <c r="AI31" s="188"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="216"/>
-      <c r="C32" s="217"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="216"/>
-      <c r="H32" s="221"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="222"/>
-      <c r="K32" s="241"/>
-      <c r="L32" s="223"/>
-      <c r="M32" s="223"/>
-      <c r="N32" s="223"/>
-      <c r="O32" s="223"/>
-      <c r="P32" s="224"/>
-      <c r="Q32" s="225"/>
-      <c r="R32" s="226"/>
-      <c r="S32" s="226"/>
-      <c r="T32" s="226"/>
-      <c r="U32" s="226"/>
-      <c r="V32" s="226"/>
-      <c r="W32" s="226"/>
-      <c r="X32" s="226"/>
-      <c r="Y32" s="226"/>
-      <c r="Z32" s="226"/>
-      <c r="AA32" s="226"/>
-      <c r="AB32" s="226"/>
-      <c r="AC32" s="226"/>
-      <c r="AD32" s="226"/>
-      <c r="AE32" s="227"/>
-      <c r="AF32" s="222"/>
-      <c r="AG32" s="223"/>
-      <c r="AH32" s="223"/>
-      <c r="AI32" s="224"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="192"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="187"/>
+      <c r="O32" s="187"/>
+      <c r="P32" s="188"/>
+      <c r="Q32" s="189"/>
+      <c r="R32" s="190"/>
+      <c r="S32" s="190"/>
+      <c r="T32" s="190"/>
+      <c r="U32" s="190"/>
+      <c r="V32" s="190"/>
+      <c r="W32" s="190"/>
+      <c r="X32" s="190"/>
+      <c r="Y32" s="190"/>
+      <c r="Z32" s="190"/>
+      <c r="AA32" s="190"/>
+      <c r="AB32" s="190"/>
+      <c r="AC32" s="190"/>
+      <c r="AD32" s="190"/>
+      <c r="AE32" s="191"/>
+      <c r="AF32" s="186"/>
+      <c r="AG32" s="187"/>
+      <c r="AH32" s="187"/>
+      <c r="AI32" s="188"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="216"/>
-      <c r="C33" s="217"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="221"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="222"/>
-      <c r="K33" s="223"/>
-      <c r="L33" s="223"/>
-      <c r="M33" s="223"/>
-      <c r="N33" s="223"/>
-      <c r="O33" s="223"/>
-      <c r="P33" s="224"/>
-      <c r="Q33" s="225"/>
-      <c r="R33" s="226"/>
-      <c r="S33" s="226"/>
-      <c r="T33" s="226"/>
-      <c r="U33" s="226"/>
-      <c r="V33" s="226"/>
-      <c r="W33" s="226"/>
-      <c r="X33" s="226"/>
-      <c r="Y33" s="226"/>
-      <c r="Z33" s="226"/>
-      <c r="AA33" s="226"/>
-      <c r="AB33" s="226"/>
-      <c r="AC33" s="226"/>
-      <c r="AD33" s="226"/>
-      <c r="AE33" s="227"/>
-      <c r="AF33" s="222"/>
-      <c r="AG33" s="223"/>
-      <c r="AH33" s="223"/>
-      <c r="AI33" s="224"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="187"/>
+      <c r="P33" s="188"/>
+      <c r="Q33" s="189"/>
+      <c r="R33" s="190"/>
+      <c r="S33" s="190"/>
+      <c r="T33" s="190"/>
+      <c r="U33" s="190"/>
+      <c r="V33" s="190"/>
+      <c r="W33" s="190"/>
+      <c r="X33" s="190"/>
+      <c r="Y33" s="190"/>
+      <c r="Z33" s="190"/>
+      <c r="AA33" s="190"/>
+      <c r="AB33" s="190"/>
+      <c r="AC33" s="190"/>
+      <c r="AD33" s="190"/>
+      <c r="AE33" s="191"/>
+      <c r="AF33" s="186"/>
+      <c r="AG33" s="187"/>
+      <c r="AH33" s="187"/>
+      <c r="AI33" s="188"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13455,6 +13278,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -13494,27 +13473,27 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -13529,7 +13508,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="24" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -13644,7 +13623,7 @@
         <v>41</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H11" s="68"/>
       <c r="I11" s="68"/>
@@ -13680,7 +13659,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
@@ -13718,7 +13697,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H13" s="68"/>
       <c r="I13" s="68"/>
@@ -13752,7 +13731,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H14" s="68"/>
       <c r="I14" s="68"/>
@@ -13786,7 +13765,7 @@
         <v>48</v>
       </c>
       <c r="G15" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
@@ -13820,7 +13799,7 @@
         <v>49</v>
       </c>
       <c r="G16" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H16" s="68"/>
       <c r="I16" s="68"/>
@@ -13854,7 +13833,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
@@ -13892,7 +13871,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
@@ -13926,7 +13905,7 @@
         <v>54</v>
       </c>
       <c r="G19" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H19" s="68"/>
       <c r="I19" s="68"/>
@@ -13960,7 +13939,7 @@
         <v>55</v>
       </c>
       <c r="G20" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
@@ -13996,7 +13975,7 @@
         <v>57</v>
       </c>
       <c r="G21" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H21" s="68"/>
       <c r="I21" s="68"/>
@@ -14030,7 +14009,7 @@
         <v>58</v>
       </c>
       <c r="G22" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H22" s="68"/>
       <c r="I22" s="68"/>
@@ -14064,7 +14043,7 @@
         <v>489</v>
       </c>
       <c r="G23" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68"/>
@@ -14094,11 +14073,11 @@
       <c r="C24" s="113"/>
       <c r="D24" s="116"/>
       <c r="E24" s="114"/>
-      <c r="F24" s="66" t="s">
-        <v>490</v>
+      <c r="F24" s="100" t="s">
+        <v>698</v>
       </c>
       <c r="G24" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H24" s="68"/>
       <c r="I24" s="68"/>
@@ -14136,7 +14115,7 @@
         <v>60</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H25" s="68"/>
       <c r="I25" s="68"/>
@@ -14170,7 +14149,7 @@
         <v>61</v>
       </c>
       <c r="G26" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H26" s="68"/>
       <c r="I26" s="68"/>
@@ -14208,7 +14187,7 @@
         <v>64</v>
       </c>
       <c r="G27" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
@@ -14242,7 +14221,7 @@
         <v>65</v>
       </c>
       <c r="G28" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H28" s="68"/>
       <c r="I28" s="68"/>
@@ -14278,7 +14257,7 @@
         <v>67</v>
       </c>
       <c r="G29" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H29" s="68"/>
       <c r="I29" s="68"/>
@@ -14312,7 +14291,7 @@
         <v>68</v>
       </c>
       <c r="G30" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H30" s="68"/>
       <c r="I30" s="68"/>
@@ -14346,7 +14325,7 @@
         <v>69</v>
       </c>
       <c r="G31" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H31" s="68"/>
       <c r="I31" s="68"/>
@@ -14380,7 +14359,7 @@
         <v>70</v>
       </c>
       <c r="G32" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H32" s="68"/>
       <c r="I32" s="68"/>
@@ -14410,13 +14389,13 @@
       <c r="C33" s="113"/>
       <c r="D33" s="115"/>
       <c r="E33" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F33" s="66" t="s">
         <v>71</v>
       </c>
       <c r="G33" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H33" s="68"/>
       <c r="I33" s="68"/>
@@ -14450,7 +14429,7 @@
         <v>72</v>
       </c>
       <c r="G34" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H34" s="68"/>
       <c r="I34" s="68"/>
@@ -14486,7 +14465,7 @@
         <v>74</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H35" s="91"/>
       <c r="I35" s="91"/>
@@ -14526,7 +14505,7 @@
         <v>76</v>
       </c>
       <c r="G36" s="67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H36" s="68"/>
       <c r="I36" s="68"/>
@@ -14557,10 +14536,10 @@
       <c r="D37" s="115"/>
       <c r="E37" s="112"/>
       <c r="F37" s="66" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G37" s="67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H37" s="68"/>
       <c r="I37" s="68"/>
@@ -14594,7 +14573,7 @@
         <v>77</v>
       </c>
       <c r="G38" s="67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H38" s="68"/>
       <c r="I38" s="68"/>
@@ -14628,7 +14607,7 @@
         <v>78</v>
       </c>
       <c r="G39" s="67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H39" s="68"/>
       <c r="I39" s="68"/>
@@ -14663,10 +14642,10 @@
         <v>45</v>
       </c>
       <c r="F40" s="66" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G40" s="67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H40" s="68"/>
       <c r="I40" s="68"/>
@@ -14697,10 +14676,10 @@
       <c r="D41" s="116"/>
       <c r="E41" s="114"/>
       <c r="F41" s="66" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G41" s="67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H41" s="68"/>
       <c r="I41" s="68"/>
@@ -14745,7 +14724,7 @@
       <c r="H42" s="91"/>
       <c r="I42" s="91"/>
       <c r="J42" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K42" s="55"/>
       <c r="L42" s="68"/>
@@ -14779,7 +14758,7 @@
       <c r="H43" s="100"/>
       <c r="I43" s="91"/>
       <c r="J43" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K43" s="55"/>
       <c r="L43" s="68"/>
@@ -14813,7 +14792,7 @@
       <c r="H44" s="100"/>
       <c r="I44" s="91"/>
       <c r="J44" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K44" s="55"/>
       <c r="L44" s="68"/>
@@ -14849,7 +14828,7 @@
       <c r="H45" s="68"/>
       <c r="I45" s="68"/>
       <c r="J45" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K45" s="69"/>
       <c r="L45" s="68"/>
@@ -14883,7 +14862,7 @@
       <c r="H46" s="68"/>
       <c r="I46" s="68"/>
       <c r="J46" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K46" s="69"/>
       <c r="L46" s="68"/>
@@ -14917,7 +14896,7 @@
       <c r="H47" s="68"/>
       <c r="I47" s="68"/>
       <c r="J47" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K47" s="69"/>
       <c r="L47" s="68"/>
@@ -14953,7 +14932,7 @@
       <c r="H48" s="91"/>
       <c r="I48" s="91"/>
       <c r="J48" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K48" s="55"/>
       <c r="L48" s="68"/>
@@ -14987,7 +14966,7 @@
       <c r="H49" s="91"/>
       <c r="I49" s="91"/>
       <c r="J49" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K49" s="55"/>
       <c r="L49" s="68"/>
@@ -15023,7 +15002,7 @@
       <c r="H50" s="68"/>
       <c r="I50" s="68"/>
       <c r="J50" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K50" s="69"/>
       <c r="L50" s="68"/>
@@ -15057,7 +15036,7 @@
       <c r="H51" s="68"/>
       <c r="I51" s="68"/>
       <c r="J51" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K51" s="69"/>
       <c r="L51" s="68"/>
@@ -15091,7 +15070,7 @@
       <c r="H52" s="68"/>
       <c r="I52" s="68"/>
       <c r="J52" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K52" s="69"/>
       <c r="L52" s="68"/>
@@ -15125,7 +15104,7 @@
       <c r="H53" s="68"/>
       <c r="I53" s="68"/>
       <c r="J53" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K53" s="69"/>
       <c r="L53" s="68"/>
@@ -15159,7 +15138,7 @@
       <c r="H54" s="68"/>
       <c r="I54" s="68"/>
       <c r="J54" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K54" s="69"/>
       <c r="L54" s="68"/>
@@ -15193,7 +15172,7 @@
       <c r="H55" s="68"/>
       <c r="I55" s="68"/>
       <c r="J55" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K55" s="69"/>
       <c r="L55" s="68"/>
@@ -15229,7 +15208,7 @@
       <c r="H56" s="91"/>
       <c r="I56" s="91"/>
       <c r="J56" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K56" s="55"/>
       <c r="L56" s="68"/>
@@ -15256,7 +15235,7 @@
       <c r="C57" s="112"/>
       <c r="D57" s="112"/>
       <c r="E57" s="90" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F57" s="66" t="s">
         <v>102</v>
@@ -15265,7 +15244,7 @@
       <c r="H57" s="68"/>
       <c r="I57" s="68"/>
       <c r="J57" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K57" s="69"/>
       <c r="L57" s="68"/>
@@ -15301,7 +15280,7 @@
       <c r="H58" s="68"/>
       <c r="I58" s="68"/>
       <c r="J58" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K58" s="69"/>
       <c r="L58" s="68"/>
@@ -15333,13 +15312,13 @@
         <v>459</v>
       </c>
       <c r="F59" s="66" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G59" s="67"/>
       <c r="H59" s="68"/>
       <c r="I59" s="68"/>
       <c r="J59" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K59" s="69"/>
       <c r="L59" s="68"/>
@@ -15367,13 +15346,13 @@
       <c r="D60" s="112"/>
       <c r="E60" s="115"/>
       <c r="F60" s="153" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G60" s="67"/>
       <c r="H60" s="91"/>
       <c r="I60" s="91"/>
       <c r="J60" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K60" s="55"/>
       <c r="L60" s="68"/>
@@ -15401,13 +15380,13 @@
       <c r="D61" s="112"/>
       <c r="E61" s="115"/>
       <c r="F61" s="66" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G61" s="67"/>
       <c r="H61" s="68"/>
       <c r="I61" s="68"/>
       <c r="J61" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K61" s="69"/>
       <c r="L61" s="68"/>
@@ -15435,13 +15414,13 @@
       <c r="D62" s="112"/>
       <c r="E62" s="115"/>
       <c r="F62" s="66" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G62" s="67"/>
       <c r="H62" s="68"/>
       <c r="I62" s="68"/>
       <c r="J62" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K62" s="69"/>
       <c r="L62" s="68"/>
@@ -15475,7 +15454,7 @@
       <c r="H63" s="68"/>
       <c r="I63" s="68"/>
       <c r="J63" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K63" s="69"/>
       <c r="L63" s="68"/>
@@ -15511,7 +15490,7 @@
       <c r="H64" s="68"/>
       <c r="I64" s="68"/>
       <c r="J64" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K64" s="69"/>
       <c r="L64" s="68"/>
@@ -15545,7 +15524,7 @@
       <c r="H65" s="68"/>
       <c r="I65" s="68"/>
       <c r="J65" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K65" s="69"/>
       <c r="L65" s="68"/>
@@ -15579,7 +15558,7 @@
       <c r="H66" s="68"/>
       <c r="I66" s="68"/>
       <c r="J66" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K66" s="69"/>
       <c r="L66" s="68"/>
@@ -15613,7 +15592,7 @@
       <c r="H67" s="68"/>
       <c r="I67" s="68"/>
       <c r="J67" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K67" s="69"/>
       <c r="L67" s="68"/>
@@ -15647,7 +15626,7 @@
       <c r="H68" s="68"/>
       <c r="I68" s="68"/>
       <c r="J68" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K68" s="69"/>
       <c r="L68" s="68"/>
@@ -15681,7 +15660,7 @@
       <c r="H69" s="68"/>
       <c r="I69" s="68"/>
       <c r="J69" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K69" s="69"/>
       <c r="L69" s="68"/>
@@ -15715,7 +15694,7 @@
       <c r="H70" s="68"/>
       <c r="I70" s="68"/>
       <c r="J70" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K70" s="69"/>
       <c r="L70" s="68"/>
@@ -15749,7 +15728,7 @@
       <c r="H71" s="68"/>
       <c r="I71" s="68"/>
       <c r="J71" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K71" s="69"/>
       <c r="L71" s="68"/>
@@ -15785,7 +15764,7 @@
       <c r="H72" s="91"/>
       <c r="I72" s="91"/>
       <c r="J72" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K72" s="55"/>
       <c r="L72" s="148"/>
@@ -15821,7 +15800,7 @@
       <c r="H73" s="68"/>
       <c r="I73" s="68"/>
       <c r="J73" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K73" s="69"/>
       <c r="L73" s="68"/>
@@ -15855,7 +15834,7 @@
       <c r="H74" s="68"/>
       <c r="I74" s="68"/>
       <c r="J74" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K74" s="69"/>
       <c r="L74" s="68"/>
@@ -15889,7 +15868,7 @@
       <c r="H75" s="68"/>
       <c r="I75" s="68"/>
       <c r="J75" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K75" s="69"/>
       <c r="L75" s="68"/>
@@ -15923,7 +15902,7 @@
       <c r="H76" s="68"/>
       <c r="I76" s="68"/>
       <c r="J76" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K76" s="69"/>
       <c r="L76" s="68"/>
@@ -15954,7 +15933,7 @@
         <v>123</v>
       </c>
       <c r="G77" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H77" s="68"/>
       <c r="I77" s="68"/>
@@ -15997,7 +15976,7 @@
       <c r="H78" s="91"/>
       <c r="I78" s="91"/>
       <c r="J78" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K78" s="55"/>
       <c r="L78" s="68"/>
@@ -16031,7 +16010,7 @@
       <c r="H79" s="91"/>
       <c r="I79" s="91"/>
       <c r="J79" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K79" s="55"/>
       <c r="L79" s="68"/>
@@ -16067,7 +16046,7 @@
       <c r="H80" s="68"/>
       <c r="I80" s="68"/>
       <c r="J80" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K80" s="69"/>
       <c r="L80" s="68"/>
@@ -16103,7 +16082,7 @@
       <c r="H81" s="68"/>
       <c r="I81" s="68"/>
       <c r="J81" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K81" s="69"/>
       <c r="L81" s="68"/>
@@ -16137,7 +16116,7 @@
       <c r="H82" s="68"/>
       <c r="I82" s="68"/>
       <c r="J82" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K82" s="69"/>
       <c r="L82" s="68"/>
@@ -16173,7 +16152,7 @@
       <c r="H83" s="68"/>
       <c r="I83" s="68"/>
       <c r="J83" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K83" s="69"/>
       <c r="L83" s="68"/>
@@ -16209,7 +16188,7 @@
       <c r="H84" s="68"/>
       <c r="I84" s="68"/>
       <c r="J84" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K84" s="69"/>
       <c r="L84" s="68"/>
@@ -16249,7 +16228,7 @@
       <c r="H85" s="68"/>
       <c r="I85" s="68"/>
       <c r="J85" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K85" s="69"/>
       <c r="L85" s="68"/>
@@ -16285,7 +16264,7 @@
       <c r="H86" s="68"/>
       <c r="I86" s="68"/>
       <c r="J86" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K86" s="69"/>
       <c r="L86" s="68"/>
@@ -16321,7 +16300,7 @@
       <c r="H87" s="68"/>
       <c r="I87" s="68"/>
       <c r="J87" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K87" s="69"/>
       <c r="L87" s="68"/>
@@ -16361,7 +16340,7 @@
       <c r="H88" s="91"/>
       <c r="I88" s="91"/>
       <c r="J88" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K88" s="68"/>
       <c r="L88" s="68"/>
@@ -16395,7 +16374,7 @@
       <c r="H89" s="68"/>
       <c r="I89" s="68"/>
       <c r="J89" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K89" s="69"/>
       <c r="L89" s="68"/>
@@ -16431,7 +16410,7 @@
       <c r="H90" s="68"/>
       <c r="I90" s="68"/>
       <c r="J90" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K90" s="69"/>
       <c r="L90" s="68"/>
@@ -16467,7 +16446,7 @@
       <c r="H91" s="68"/>
       <c r="I91" s="68"/>
       <c r="J91" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K91" s="69"/>
       <c r="L91" s="68"/>
@@ -16501,7 +16480,7 @@
       <c r="H92" s="68"/>
       <c r="I92" s="68"/>
       <c r="J92" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K92" s="69"/>
       <c r="L92" s="68"/>
@@ -16537,7 +16516,7 @@
       <c r="H93" s="68"/>
       <c r="I93" s="68"/>
       <c r="J93" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K93" s="69"/>
       <c r="L93" s="68"/>
@@ -16577,7 +16556,7 @@
       <c r="H94" s="68"/>
       <c r="I94" s="68"/>
       <c r="J94" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K94" s="69"/>
       <c r="L94" s="68"/>
@@ -16611,7 +16590,7 @@
       <c r="H95" s="68"/>
       <c r="I95" s="68"/>
       <c r="J95" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K95" s="69"/>
       <c r="L95" s="68"/>
@@ -16645,7 +16624,7 @@
       <c r="H96" s="68"/>
       <c r="I96" s="68"/>
       <c r="J96" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K96" s="69"/>
       <c r="L96" s="68"/>
@@ -16679,7 +16658,7 @@
       <c r="H97" s="68"/>
       <c r="I97" s="68"/>
       <c r="J97" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K97" s="69"/>
       <c r="L97" s="68"/>
@@ -16713,7 +16692,7 @@
       <c r="H98" s="68"/>
       <c r="I98" s="68"/>
       <c r="J98" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K98" s="69"/>
       <c r="L98" s="68"/>
@@ -16749,7 +16728,7 @@
       <c r="H99" s="68"/>
       <c r="I99" s="68"/>
       <c r="J99" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K99" s="69"/>
       <c r="L99" s="68"/>
@@ -16783,7 +16762,7 @@
       <c r="H100" s="68"/>
       <c r="I100" s="68"/>
       <c r="J100" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K100" s="69"/>
       <c r="L100" s="68"/>
@@ -16817,7 +16796,7 @@
       <c r="H101" s="68"/>
       <c r="I101" s="68"/>
       <c r="J101" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K101" s="69"/>
       <c r="L101" s="68"/>
@@ -16851,7 +16830,7 @@
       <c r="H102" s="68"/>
       <c r="I102" s="68"/>
       <c r="J102" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K102" s="69"/>
       <c r="L102" s="68"/>
@@ -16885,7 +16864,7 @@
       <c r="H103" s="68"/>
       <c r="I103" s="68"/>
       <c r="J103" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K103" s="69"/>
       <c r="L103" s="68"/>
@@ -16921,7 +16900,7 @@
       <c r="H104" s="68"/>
       <c r="I104" s="68"/>
       <c r="J104" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K104" s="69"/>
       <c r="L104" s="68"/>
@@ -16963,7 +16942,7 @@
       <c r="H105" s="68"/>
       <c r="I105" s="68"/>
       <c r="J105" s="69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K105" s="69"/>
       <c r="L105" s="68"/>
@@ -17003,7 +16982,7 @@
       <c r="H106" s="68"/>
       <c r="I106" s="68"/>
       <c r="J106" s="69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K106" s="69"/>
       <c r="L106" s="68"/>
@@ -17037,7 +17016,7 @@
       <c r="H107" s="68"/>
       <c r="I107" s="68"/>
       <c r="J107" s="69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K107" s="69"/>
       <c r="L107" s="68"/>
@@ -17062,7 +17041,7 @@
       </c>
       <c r="B108" s="112"/>
       <c r="C108" s="90" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D108" s="90" t="s">
         <v>45</v>
@@ -17077,7 +17056,7 @@
       <c r="H108" s="68"/>
       <c r="I108" s="68"/>
       <c r="J108" s="69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K108" s="69"/>
       <c r="L108" s="68"/>
@@ -17102,7 +17081,7 @@
       </c>
       <c r="B109" s="112"/>
       <c r="C109" s="112" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D109" s="112" t="s">
         <v>45</v>
@@ -17117,7 +17096,7 @@
       <c r="H109" s="68"/>
       <c r="I109" s="68"/>
       <c r="J109" s="69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K109" s="69"/>
       <c r="L109" s="68"/>
@@ -17151,7 +17130,7 @@
       <c r="H110" s="68"/>
       <c r="I110" s="68"/>
       <c r="J110" s="69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K110" s="69"/>
       <c r="L110" s="68"/>
@@ -17193,7 +17172,7 @@
       <c r="H111" s="68"/>
       <c r="I111" s="68"/>
       <c r="J111" s="69" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K111" s="69"/>
       <c r="L111" s="68"/>
@@ -17217,7 +17196,7 @@
         <v>43-2-1</v>
       </c>
       <c r="B112" s="242" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C112" s="115"/>
       <c r="D112" s="112"/>
@@ -17229,7 +17208,7 @@
       <c r="H112" s="68"/>
       <c r="I112" s="68"/>
       <c r="J112" s="69" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K112" s="69"/>
       <c r="L112" s="68"/>
@@ -17263,7 +17242,7 @@
       <c r="H113" s="68"/>
       <c r="I113" s="68"/>
       <c r="J113" s="69" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K113" s="69"/>
       <c r="L113" s="68"/>
@@ -17297,7 +17276,7 @@
       <c r="H114" s="68"/>
       <c r="I114" s="68"/>
       <c r="J114" s="69" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K114" s="69"/>
       <c r="L114" s="68"/>
@@ -17330,7 +17309,7 @@
         <v>176</v>
       </c>
       <c r="G115" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H115" s="68"/>
       <c r="I115" s="68"/>
@@ -17364,7 +17343,7 @@
         <v>177</v>
       </c>
       <c r="G116" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H116" s="68"/>
       <c r="I116" s="68"/>
@@ -17398,7 +17377,7 @@
         <v>178</v>
       </c>
       <c r="G117" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H117" s="68"/>
       <c r="I117" s="68"/>
@@ -17432,7 +17411,7 @@
         <v>179</v>
       </c>
       <c r="G118" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H118" s="68"/>
       <c r="I118" s="68"/>
@@ -17466,7 +17445,7 @@
         <v>180</v>
       </c>
       <c r="G119" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H119" s="68"/>
       <c r="I119" s="68"/>
@@ -17502,7 +17481,7 @@
         <v>182</v>
       </c>
       <c r="G120" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H120" s="68"/>
       <c r="I120" s="68"/>
@@ -17536,7 +17515,7 @@
         <v>183</v>
       </c>
       <c r="G121" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H121" s="68"/>
       <c r="I121" s="68"/>
@@ -17570,7 +17549,7 @@
         <v>184</v>
       </c>
       <c r="G122" s="63" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H122" s="68"/>
       <c r="I122" s="68"/>
@@ -17604,7 +17583,7 @@
         <v>185</v>
       </c>
       <c r="G123" s="63" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H123" s="68"/>
       <c r="I123" s="68"/>
@@ -17638,7 +17617,7 @@
         <v>186</v>
       </c>
       <c r="G124" s="63" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H124" s="68"/>
       <c r="I124" s="68"/>
@@ -17668,13 +17647,13 @@
       <c r="C125" s="115"/>
       <c r="D125" s="114"/>
       <c r="E125" s="114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F125" s="66" t="s">
         <v>187</v>
       </c>
       <c r="G125" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H125" s="68"/>
       <c r="I125" s="68"/>
@@ -17715,7 +17694,7 @@
       <c r="H126" s="68"/>
       <c r="I126" s="68"/>
       <c r="J126" s="69" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K126" s="69"/>
       <c r="L126" s="68"/>
@@ -17752,7 +17731,7 @@
         <v>191</v>
       </c>
       <c r="G127" s="63" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H127" s="68"/>
       <c r="I127" s="68"/>
@@ -17782,13 +17761,13 @@
       <c r="C128" s="112"/>
       <c r="D128" s="112"/>
       <c r="E128" s="115" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F128" s="66" t="s">
         <v>192</v>
       </c>
       <c r="G128" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H128" s="68"/>
       <c r="I128" s="68"/>
@@ -17822,7 +17801,7 @@
         <v>193</v>
       </c>
       <c r="G129" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H129" s="68"/>
       <c r="I129" s="68"/>
@@ -17856,7 +17835,7 @@
         <v>194</v>
       </c>
       <c r="G130" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H130" s="68"/>
       <c r="I130" s="68"/>
@@ -17901,7 +17880,7 @@
       <c r="H131" s="68"/>
       <c r="I131" s="68"/>
       <c r="J131" s="69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K131" s="69"/>
       <c r="L131" s="68"/>
@@ -17934,7 +17913,7 @@
         <v>198</v>
       </c>
       <c r="G132" s="63" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H132" s="68"/>
       <c r="I132" s="68"/>
@@ -17968,7 +17947,7 @@
         <v>199</v>
       </c>
       <c r="G133" s="63" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H133" s="68"/>
       <c r="I133" s="68"/>
@@ -18002,7 +17981,7 @@
         <v>200</v>
       </c>
       <c r="G134" s="63" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H134" s="68"/>
       <c r="I134" s="68"/>
@@ -18041,7 +18020,7 @@
       <c r="H135" s="68"/>
       <c r="I135" s="68"/>
       <c r="J135" s="69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K135" s="69"/>
       <c r="L135" s="68"/>
@@ -18075,7 +18054,7 @@
       <c r="H136" s="68"/>
       <c r="I136" s="68"/>
       <c r="J136" s="69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K136" s="69"/>
       <c r="L136" s="68"/>
@@ -18113,7 +18092,7 @@
       <c r="H137" s="68"/>
       <c r="I137" s="68"/>
       <c r="J137" s="69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K137" s="69"/>
       <c r="L137" s="68"/>
@@ -18150,7 +18129,7 @@
         <v>207</v>
       </c>
       <c r="G138" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H138" s="68"/>
       <c r="I138" s="68"/>
@@ -18186,7 +18165,7 @@
         <v>209</v>
       </c>
       <c r="G139" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H139" s="68"/>
       <c r="I139" s="68"/>
@@ -18222,7 +18201,7 @@
         <v>211</v>
       </c>
       <c r="G140" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H140" s="68"/>
       <c r="I140" s="68"/>
@@ -18258,7 +18237,7 @@
         <v>212</v>
       </c>
       <c r="G141" s="63" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H141" s="68"/>
       <c r="I141" s="68"/>
@@ -18288,13 +18267,13 @@
       <c r="C142" s="115"/>
       <c r="D142" s="112"/>
       <c r="E142" s="90" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F142" s="66" t="s">
         <v>214</v>
       </c>
       <c r="G142" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H142" s="68"/>
       <c r="I142" s="68"/>
@@ -18324,13 +18303,13 @@
       <c r="C143" s="115"/>
       <c r="D143" s="112"/>
       <c r="E143" s="131" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F143" s="66" t="s">
         <v>215</v>
       </c>
       <c r="G143" s="63" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H143" s="68"/>
       <c r="I143" s="68"/>
@@ -18364,7 +18343,7 @@
         <v>216</v>
       </c>
       <c r="G144" s="63" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H144" s="68"/>
       <c r="I144" s="68"/>
@@ -18398,7 +18377,7 @@
         <v>217</v>
       </c>
       <c r="G145" s="63" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H145" s="68"/>
       <c r="I145" s="68"/>
@@ -18432,7 +18411,7 @@
         <v>218</v>
       </c>
       <c r="G146" s="63" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H146" s="68"/>
       <c r="I146" s="68"/>
@@ -18466,7 +18445,7 @@
         <v>219</v>
       </c>
       <c r="G147" s="63" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H147" s="68"/>
       <c r="I147" s="68"/>
@@ -18500,7 +18479,7 @@
         <v>220</v>
       </c>
       <c r="G148" s="63" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H148" s="68"/>
       <c r="I148" s="68"/>
@@ -18538,7 +18517,7 @@
         <v>222</v>
       </c>
       <c r="G149" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H149" s="68"/>
       <c r="I149" s="68"/>
@@ -18572,7 +18551,7 @@
         <v>223</v>
       </c>
       <c r="G150" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H150" s="68"/>
       <c r="I150" s="68"/>
@@ -18608,7 +18587,7 @@
         <v>224</v>
       </c>
       <c r="G151" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H151" s="68"/>
       <c r="I151" s="68"/>
@@ -18642,7 +18621,7 @@
         <v>225</v>
       </c>
       <c r="G152" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H152" s="68"/>
       <c r="I152" s="68"/>
@@ -18673,10 +18652,10 @@
       <c r="D153" s="112"/>
       <c r="E153" s="131"/>
       <c r="F153" s="66" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G153" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H153" s="68"/>
       <c r="I153" s="68"/>
@@ -18707,10 +18686,10 @@
       <c r="D154" s="112"/>
       <c r="E154" s="131"/>
       <c r="F154" s="66" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G154" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H154" s="68"/>
       <c r="I154" s="68"/>
@@ -18744,7 +18723,7 @@
         <v>226</v>
       </c>
       <c r="G155" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H155" s="68"/>
       <c r="I155" s="68"/>
@@ -18778,7 +18757,7 @@
         <v>227</v>
       </c>
       <c r="G156" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H156" s="68"/>
       <c r="I156" s="68"/>
@@ -18812,7 +18791,7 @@
         <v>228</v>
       </c>
       <c r="G157" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H157" s="68"/>
       <c r="I157" s="68"/>
@@ -18846,7 +18825,7 @@
         <v>229</v>
       </c>
       <c r="G158" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H158" s="68"/>
       <c r="I158" s="68"/>
@@ -18880,7 +18859,7 @@
         <v>230</v>
       </c>
       <c r="G159" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H159" s="68"/>
       <c r="I159" s="68"/>
@@ -18914,7 +18893,7 @@
         <v>231</v>
       </c>
       <c r="G160" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H160" s="68"/>
       <c r="I160" s="68"/>
@@ -18948,7 +18927,7 @@
         <v>232</v>
       </c>
       <c r="G161" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H161" s="68"/>
       <c r="I161" s="68"/>
@@ -18984,7 +18963,7 @@
         <v>233</v>
       </c>
       <c r="G162" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H162" s="68"/>
       <c r="I162" s="68"/>
@@ -19018,7 +18997,7 @@
         <v>234</v>
       </c>
       <c r="G163" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H163" s="68"/>
       <c r="I163" s="68"/>
@@ -19052,7 +19031,7 @@
         <v>235</v>
       </c>
       <c r="G164" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H164" s="68"/>
       <c r="I164" s="68"/>
@@ -19086,7 +19065,7 @@
         <v>236</v>
       </c>
       <c r="G165" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H165" s="68"/>
       <c r="I165" s="68"/>
@@ -19120,7 +19099,7 @@
         <v>237</v>
       </c>
       <c r="G166" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H166" s="68"/>
       <c r="I166" s="68"/>
@@ -19154,7 +19133,7 @@
         <v>238</v>
       </c>
       <c r="G167" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H167" s="68"/>
       <c r="I167" s="68"/>
@@ -19188,7 +19167,7 @@
         <v>239</v>
       </c>
       <c r="G168" s="63" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H168" s="68"/>
       <c r="I168" s="68"/>
@@ -19224,7 +19203,7 @@
         <v>240</v>
       </c>
       <c r="G169" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H169" s="68"/>
       <c r="I169" s="68"/>
@@ -19258,7 +19237,7 @@
         <v>241</v>
       </c>
       <c r="G170" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H170" s="68"/>
       <c r="I170" s="68"/>
@@ -19292,7 +19271,7 @@
         <v>242</v>
       </c>
       <c r="G171" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H171" s="68"/>
       <c r="I171" s="68"/>
@@ -19326,7 +19305,7 @@
         <v>243</v>
       </c>
       <c r="G172" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H172" s="68"/>
       <c r="I172" s="68"/>
@@ -19360,7 +19339,7 @@
         <v>244</v>
       </c>
       <c r="G173" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H173" s="68"/>
       <c r="I173" s="68"/>
@@ -19397,7 +19376,7 @@
       <c r="H174" s="68"/>
       <c r="I174" s="68"/>
       <c r="J174" s="69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K174" s="69"/>
       <c r="L174" s="68"/>
@@ -19428,7 +19407,7 @@
         <v>246</v>
       </c>
       <c r="G175" s="63" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H175" s="68"/>
       <c r="I175" s="68"/>
@@ -19462,7 +19441,7 @@
         <v>247</v>
       </c>
       <c r="G176" s="63" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H176" s="68"/>
       <c r="I176" s="68"/>
@@ -19496,7 +19475,7 @@
         <v>248</v>
       </c>
       <c r="G177" s="63" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H177" s="68"/>
       <c r="I177" s="68"/>
@@ -19532,7 +19511,7 @@
         <v>249</v>
       </c>
       <c r="G178" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H178" s="68"/>
       <c r="I178" s="68"/>
@@ -19568,7 +19547,7 @@
         <v>251</v>
       </c>
       <c r="G179" s="63" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H179" s="68"/>
       <c r="I179" s="68"/>
@@ -19677,7 +19656,7 @@
       <c r="B182" s="114"/>
       <c r="C182" s="116"/>
       <c r="D182" s="116" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E182" s="116" t="s">
         <v>45</v>
@@ -19728,7 +19707,7 @@
         <v>260</v>
       </c>
       <c r="G183" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H183" s="35"/>
       <c r="I183" s="35"/>
@@ -19764,7 +19743,7 @@
         <v>261</v>
       </c>
       <c r="G184" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H184" s="35"/>
       <c r="I184" s="35"/>
@@ -19798,7 +19777,7 @@
         <v>262</v>
       </c>
       <c r="G185" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H185" s="35"/>
       <c r="I185" s="35"/>
@@ -19834,7 +19813,7 @@
         <v>264</v>
       </c>
       <c r="G186" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H186" s="35"/>
       <c r="I186" s="35"/>
@@ -19868,7 +19847,7 @@
         <v>265</v>
       </c>
       <c r="G187" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H187" s="35"/>
       <c r="I187" s="35"/>
@@ -19906,7 +19885,7 @@
         <v>266</v>
       </c>
       <c r="G188" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
@@ -19937,7 +19916,7 @@
         <v>267</v>
       </c>
       <c r="D189" s="119" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E189" s="120" t="s">
         <v>268</v>
@@ -19946,7 +19925,7 @@
         <v>269</v>
       </c>
       <c r="G189" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H189" s="35"/>
       <c r="I189" s="35"/>
@@ -19980,7 +19959,7 @@
         <v>270</v>
       </c>
       <c r="G190" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H190" s="35"/>
       <c r="I190" s="35"/>
@@ -20014,7 +19993,7 @@
         <v>271</v>
       </c>
       <c r="G191" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H191" s="35"/>
       <c r="I191" s="35"/>
@@ -20048,7 +20027,7 @@
         <v>272</v>
       </c>
       <c r="G192" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H192" s="35"/>
       <c r="I192" s="35"/>
@@ -20082,7 +20061,7 @@
         <v>273</v>
       </c>
       <c r="G193" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H193" s="35"/>
       <c r="I193" s="35"/>
@@ -20116,7 +20095,7 @@
         <v>274</v>
       </c>
       <c r="G194" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H194" s="35"/>
       <c r="I194" s="35"/>
@@ -20150,7 +20129,7 @@
         <v>275</v>
       </c>
       <c r="G195" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H195" s="35"/>
       <c r="I195" s="35"/>
@@ -20183,10 +20162,10 @@
         <v>276</v>
       </c>
       <c r="F196" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G196" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H196" s="35"/>
       <c r="I196" s="35"/>
@@ -20224,7 +20203,7 @@
         <v>278</v>
       </c>
       <c r="G197" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H197" s="35"/>
       <c r="I197" s="35"/>
@@ -20258,7 +20237,7 @@
         <v>279</v>
       </c>
       <c r="G198" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H198" s="35"/>
       <c r="I198" s="35"/>
@@ -20292,7 +20271,7 @@
         <v>280</v>
       </c>
       <c r="G199" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H199" s="35"/>
       <c r="I199" s="35"/>
@@ -20326,7 +20305,7 @@
         <v>281</v>
       </c>
       <c r="G200" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H200" s="35"/>
       <c r="I200" s="35"/>
@@ -20360,7 +20339,7 @@
         <v>282</v>
       </c>
       <c r="G201" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H201" s="35"/>
       <c r="I201" s="35"/>
@@ -20394,7 +20373,7 @@
         <v>283</v>
       </c>
       <c r="G202" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H202" s="35"/>
       <c r="I202" s="35"/>
@@ -20425,10 +20404,10 @@
       <c r="D203" s="119"/>
       <c r="E203" s="120"/>
       <c r="F203" s="43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G203" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H203" s="35"/>
       <c r="I203" s="35"/>
@@ -20462,7 +20441,7 @@
         <v>284</v>
       </c>
       <c r="G204" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H204" s="35"/>
       <c r="I204" s="35"/>
@@ -20496,7 +20475,7 @@
         <v>285</v>
       </c>
       <c r="G205" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H205" s="35"/>
       <c r="I205" s="35"/>
@@ -20530,7 +20509,7 @@
         <v>286</v>
       </c>
       <c r="G206" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H206" s="35"/>
       <c r="I206" s="35"/>
@@ -20564,7 +20543,7 @@
         <v>287</v>
       </c>
       <c r="G207" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H207" s="35"/>
       <c r="I207" s="35"/>
@@ -20598,7 +20577,7 @@
         <v>288</v>
       </c>
       <c r="G208" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H208" s="35"/>
       <c r="I208" s="35"/>
@@ -20632,7 +20611,7 @@
         <v>289</v>
       </c>
       <c r="G209" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H209" s="35"/>
       <c r="I209" s="35"/>
@@ -20661,7 +20640,7 @@
       <c r="B210" s="119"/>
       <c r="C210" s="132"/>
       <c r="D210" s="118" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E210" s="117" t="s">
         <v>107</v>
@@ -20670,7 +20649,7 @@
         <v>290</v>
       </c>
       <c r="G210" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H210" s="35"/>
       <c r="I210" s="35"/>
@@ -20704,7 +20683,7 @@
         <v>291</v>
       </c>
       <c r="G211" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H211" s="35"/>
       <c r="I211" s="35"/>
@@ -20738,7 +20717,7 @@
         <v>292</v>
       </c>
       <c r="G212" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H212" s="35"/>
       <c r="I212" s="35"/>
@@ -20772,7 +20751,7 @@
         <v>280</v>
       </c>
       <c r="G213" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H213" s="35"/>
       <c r="I213" s="35"/>
@@ -20806,7 +20785,7 @@
         <v>281</v>
       </c>
       <c r="G214" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H214" s="35"/>
       <c r="I214" s="35"/>
@@ -20840,7 +20819,7 @@
         <v>293</v>
       </c>
       <c r="G215" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H215" s="35"/>
       <c r="I215" s="35"/>
@@ -20874,7 +20853,7 @@
         <v>294</v>
       </c>
       <c r="G216" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H216" s="35"/>
       <c r="I216" s="35"/>
@@ -20905,10 +20884,10 @@
       <c r="D217" s="119"/>
       <c r="E217" s="120"/>
       <c r="F217" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G217" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H217" s="35"/>
       <c r="I217" s="35"/>
@@ -20939,10 +20918,10 @@
       <c r="D218" s="119"/>
       <c r="E218" s="120"/>
       <c r="F218" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G218" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H218" s="35"/>
       <c r="I218" s="35"/>
@@ -20976,7 +20955,7 @@
         <v>295</v>
       </c>
       <c r="G219" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H219" s="35"/>
       <c r="I219" s="35"/>
@@ -21010,7 +20989,7 @@
         <v>296</v>
       </c>
       <c r="G220" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H220" s="35"/>
       <c r="I220" s="35"/>
@@ -21044,7 +21023,7 @@
         <v>297</v>
       </c>
       <c r="G221" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H221" s="35"/>
       <c r="I221" s="35"/>
@@ -21078,7 +21057,7 @@
         <v>298</v>
       </c>
       <c r="G222" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H222" s="35"/>
       <c r="I222" s="35"/>
@@ -21112,7 +21091,7 @@
         <v>299</v>
       </c>
       <c r="G223" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H223" s="35"/>
       <c r="I223" s="35"/>
@@ -21146,7 +21125,7 @@
         <v>289</v>
       </c>
       <c r="G224" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H224" s="35"/>
       <c r="I224" s="35"/>
@@ -21182,7 +21161,7 @@
         <v>301</v>
       </c>
       <c r="G225" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H225" s="35"/>
       <c r="I225" s="35"/>
@@ -21216,7 +21195,7 @@
         <v>302</v>
       </c>
       <c r="G226" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H226" s="35"/>
       <c r="I226" s="35"/>
@@ -21250,7 +21229,7 @@
         <v>303</v>
       </c>
       <c r="G227" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H227" s="35"/>
       <c r="I227" s="35"/>
@@ -21283,10 +21262,10 @@
         <v>132</v>
       </c>
       <c r="F228" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G228" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H228" s="35"/>
       <c r="I228" s="35"/>
@@ -21322,7 +21301,7 @@
         <v>305</v>
       </c>
       <c r="G229" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H229" s="35"/>
       <c r="I229" s="35"/>
@@ -21364,7 +21343,7 @@
         <v>307</v>
       </c>
       <c r="G230" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H230" s="35"/>
       <c r="I230" s="35"/>
@@ -21400,7 +21379,7 @@
         <v>308</v>
       </c>
       <c r="G231" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H231" s="35"/>
       <c r="I231" s="35"/>
@@ -21434,7 +21413,7 @@
         <v>309</v>
       </c>
       <c r="G232" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H232" s="35"/>
       <c r="I232" s="35"/>
@@ -21468,7 +21447,7 @@
         <v>310</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H233" s="35"/>
       <c r="I233" s="35"/>
@@ -21502,7 +21481,7 @@
         <v>311</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H234" s="35"/>
       <c r="I234" s="35"/>
@@ -21536,7 +21515,7 @@
         <v>312</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H235" s="35"/>
       <c r="I235" s="35"/>
@@ -21572,7 +21551,7 @@
         <v>313</v>
       </c>
       <c r="G236" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H236" s="35"/>
       <c r="I236" s="35"/>
@@ -21606,7 +21585,7 @@
         <v>314</v>
       </c>
       <c r="G237" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H237" s="35"/>
       <c r="I237" s="35"/>
@@ -21640,7 +21619,7 @@
         <v>315</v>
       </c>
       <c r="G238" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H238" s="35"/>
       <c r="I238" s="35"/>
@@ -21674,7 +21653,7 @@
         <v>316</v>
       </c>
       <c r="G239" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H239" s="35"/>
       <c r="I239" s="35"/>
@@ -21708,7 +21687,7 @@
         <v>317</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H240" s="35"/>
       <c r="I240" s="35"/>
@@ -21738,13 +21717,13 @@
       <c r="C241" s="122"/>
       <c r="D241" s="122"/>
       <c r="E241" s="122" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F241" s="43" t="s">
         <v>318</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H241" s="35"/>
       <c r="I241" s="35"/>
@@ -21784,7 +21763,7 @@
         <v>319</v>
       </c>
       <c r="G242" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H242" s="35"/>
       <c r="I242" s="35"/>
@@ -21826,7 +21805,7 @@
         <v>322</v>
       </c>
       <c r="G243" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H243" s="35"/>
       <c r="I243" s="35"/>
@@ -21860,7 +21839,7 @@
         <v>323</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H244" s="35"/>
       <c r="I244" s="35"/>
@@ -21898,7 +21877,7 @@
         <v>324</v>
       </c>
       <c r="G245" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H245" s="35"/>
       <c r="I245" s="35"/>
@@ -21932,7 +21911,7 @@
         <v>325</v>
       </c>
       <c r="G246" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H246" s="35"/>
       <c r="I246" s="35"/>
@@ -21972,7 +21951,7 @@
         <v>327</v>
       </c>
       <c r="G247" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H247" s="35"/>
       <c r="I247" s="35"/>
@@ -22008,7 +21987,7 @@
         <v>328</v>
       </c>
       <c r="G248" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H248" s="35"/>
       <c r="I248" s="35"/>
@@ -22044,7 +22023,7 @@
         <v>329</v>
       </c>
       <c r="G249" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H249" s="35"/>
       <c r="I249" s="35"/>
@@ -22080,7 +22059,7 @@
         <v>330</v>
       </c>
       <c r="G250" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H250" s="35"/>
       <c r="I250" s="35"/>
@@ -22118,7 +22097,7 @@
         <v>331</v>
       </c>
       <c r="G251" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H251" s="35"/>
       <c r="I251" s="35"/>
@@ -22152,7 +22131,7 @@
         <v>332</v>
       </c>
       <c r="G252" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H252" s="35"/>
       <c r="I252" s="35"/>
@@ -22188,7 +22167,7 @@
         <v>333</v>
       </c>
       <c r="G253" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H253" s="35"/>
       <c r="I253" s="35"/>
@@ -22222,7 +22201,7 @@
         <v>334</v>
       </c>
       <c r="G254" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H254" s="35"/>
       <c r="I254" s="35"/>
@@ -22253,10 +22232,10 @@
       <c r="D255" s="120"/>
       <c r="E255" s="120"/>
       <c r="F255" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G255" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H255" s="35"/>
       <c r="I255" s="35"/>
@@ -22290,7 +22269,7 @@
         <v>335</v>
       </c>
       <c r="G256" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H256" s="35"/>
       <c r="I256" s="35"/>
@@ -22324,7 +22303,7 @@
         <v>336</v>
       </c>
       <c r="G257" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H257" s="35"/>
       <c r="I257" s="35"/>
@@ -22358,7 +22337,7 @@
         <v>337</v>
       </c>
       <c r="G258" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H258" s="35"/>
       <c r="I258" s="35"/>
@@ -22392,7 +22371,7 @@
         <v>338</v>
       </c>
       <c r="G259" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H259" s="35"/>
       <c r="I259" s="35"/>
@@ -22426,7 +22405,7 @@
         <v>339</v>
       </c>
       <c r="G260" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H260" s="35"/>
       <c r="I260" s="35"/>
@@ -22460,7 +22439,7 @@
         <v>340</v>
       </c>
       <c r="G261" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H261" s="35"/>
       <c r="I261" s="35"/>
@@ -22494,7 +22473,7 @@
         <v>341</v>
       </c>
       <c r="G262" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H262" s="35"/>
       <c r="I262" s="35"/>
@@ -22528,7 +22507,7 @@
         <v>342</v>
       </c>
       <c r="G263" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H263" s="35"/>
       <c r="I263" s="35"/>
@@ -22564,7 +22543,7 @@
         <v>343</v>
       </c>
       <c r="G264" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H264" s="35"/>
       <c r="I264" s="35"/>
@@ -22598,7 +22577,7 @@
         <v>344</v>
       </c>
       <c r="G265" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H265" s="35"/>
       <c r="I265" s="35"/>
@@ -22632,7 +22611,7 @@
         <v>345</v>
       </c>
       <c r="G266" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H266" s="35"/>
       <c r="I266" s="35"/>
@@ -22666,7 +22645,7 @@
         <v>346</v>
       </c>
       <c r="G267" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H267" s="35"/>
       <c r="I267" s="35"/>
@@ -22700,7 +22679,7 @@
         <v>347</v>
       </c>
       <c r="G268" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H268" s="35"/>
       <c r="I268" s="35"/>
@@ -22734,7 +22713,7 @@
         <v>348</v>
       </c>
       <c r="G269" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H269" s="35"/>
       <c r="I269" s="35"/>
@@ -22770,7 +22749,7 @@
         <v>349</v>
       </c>
       <c r="G270" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H270" s="35"/>
       <c r="I270" s="35"/>
@@ -22804,7 +22783,7 @@
         <v>350</v>
       </c>
       <c r="G271" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H271" s="35"/>
       <c r="I271" s="35"/>
@@ -22838,7 +22817,7 @@
         <v>351</v>
       </c>
       <c r="G272" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H272" s="35"/>
       <c r="I272" s="35"/>
@@ -22872,7 +22851,7 @@
         <v>352</v>
       </c>
       <c r="G273" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H273" s="35"/>
       <c r="I273" s="35"/>
@@ -22906,7 +22885,7 @@
         <v>353</v>
       </c>
       <c r="G274" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H274" s="35"/>
       <c r="I274" s="35"/>
@@ -22940,7 +22919,7 @@
         <v>354</v>
       </c>
       <c r="G275" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H275" s="35"/>
       <c r="I275" s="35"/>
@@ -22974,7 +22953,7 @@
         <v>355</v>
       </c>
       <c r="G276" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H276" s="35"/>
       <c r="I276" s="35"/>
@@ -23008,7 +22987,7 @@
         <v>356</v>
       </c>
       <c r="G277" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H277" s="35"/>
       <c r="I277" s="35"/>
@@ -23044,7 +23023,7 @@
         <v>357</v>
       </c>
       <c r="G278" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H278" s="35"/>
       <c r="I278" s="35"/>
@@ -23089,7 +23068,7 @@
       <c r="H279" s="68"/>
       <c r="I279" s="68"/>
       <c r="J279" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K279" s="69"/>
       <c r="L279" s="68"/>
@@ -23123,7 +23102,7 @@
       <c r="H280" s="68"/>
       <c r="I280" s="68"/>
       <c r="J280" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K280" s="69"/>
       <c r="L280" s="68"/>
@@ -23157,7 +23136,7 @@
       <c r="H281" s="68"/>
       <c r="I281" s="68"/>
       <c r="J281" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K281" s="69"/>
       <c r="L281" s="68"/>
@@ -23191,7 +23170,7 @@
       <c r="H282" s="68"/>
       <c r="I282" s="68"/>
       <c r="J282" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K282" s="69"/>
       <c r="L282" s="68"/>
@@ -23231,7 +23210,7 @@
       <c r="H283" s="68"/>
       <c r="I283" s="68"/>
       <c r="J283" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K283" s="69"/>
       <c r="L283" s="68"/>
@@ -23267,7 +23246,7 @@
       <c r="H284" s="68"/>
       <c r="I284" s="68"/>
       <c r="J284" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K284" s="69"/>
       <c r="L284" s="68"/>
@@ -23303,7 +23282,7 @@
       <c r="H285" s="68"/>
       <c r="I285" s="68"/>
       <c r="J285" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K285" s="69"/>
       <c r="L285" s="68"/>
@@ -23339,7 +23318,7 @@
       <c r="H286" s="68"/>
       <c r="I286" s="68"/>
       <c r="J286" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K286" s="69"/>
       <c r="L286" s="68"/>
@@ -23377,7 +23356,7 @@
       <c r="H287" s="68"/>
       <c r="I287" s="68"/>
       <c r="J287" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K287" s="69"/>
       <c r="L287" s="68"/>
@@ -23411,7 +23390,7 @@
       <c r="H288" s="68"/>
       <c r="I288" s="68"/>
       <c r="J288" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K288" s="69"/>
       <c r="L288" s="68"/>
@@ -23445,7 +23424,7 @@
       <c r="H289" s="68"/>
       <c r="I289" s="68"/>
       <c r="J289" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K289" s="69"/>
       <c r="L289" s="68"/>
@@ -23473,13 +23452,13 @@
       <c r="D290" s="115"/>
       <c r="E290" s="115"/>
       <c r="F290" s="66" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G290" s="67"/>
       <c r="H290" s="68"/>
       <c r="I290" s="68"/>
       <c r="J290" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K290" s="69"/>
       <c r="L290" s="68"/>
@@ -23507,13 +23486,13 @@
       <c r="D291" s="115"/>
       <c r="E291" s="115"/>
       <c r="F291" s="66" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G291" s="67"/>
       <c r="H291" s="68"/>
       <c r="I291" s="68"/>
       <c r="J291" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K291" s="69"/>
       <c r="L291" s="68"/>
@@ -23541,13 +23520,13 @@
       <c r="D292" s="115"/>
       <c r="E292" s="115"/>
       <c r="F292" s="66" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G292" s="67"/>
       <c r="H292" s="68"/>
       <c r="I292" s="68"/>
       <c r="J292" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K292" s="69"/>
       <c r="L292" s="68"/>
@@ -23575,13 +23554,13 @@
       <c r="D293" s="115"/>
       <c r="E293" s="115"/>
       <c r="F293" s="66" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G293" s="67"/>
       <c r="H293" s="68"/>
       <c r="I293" s="68"/>
       <c r="J293" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K293" s="69"/>
       <c r="L293" s="68"/>
@@ -23615,7 +23594,7 @@
       <c r="H294" s="68"/>
       <c r="I294" s="68"/>
       <c r="J294" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K294" s="69"/>
       <c r="L294" s="68"/>
@@ -23649,7 +23628,7 @@
       <c r="H295" s="68"/>
       <c r="I295" s="68"/>
       <c r="J295" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K295" s="69"/>
       <c r="L295" s="68"/>
@@ -23688,7 +23667,7 @@
         <v>379</v>
       </c>
       <c r="G296" s="55" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H296" s="55"/>
       <c r="I296" s="55"/>
@@ -23722,7 +23701,7 @@
         <v>380</v>
       </c>
       <c r="G297" s="55" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H297" s="55"/>
       <c r="I297" s="55"/>
@@ -23757,16 +23736,16 @@
       </c>
       <c r="G298" s="32"/>
       <c r="H298" s="88" t="s">
+        <v>587</v>
+      </c>
+      <c r="I298" s="88" t="s">
         <v>588</v>
       </c>
-      <c r="I298" s="88" t="s">
-        <v>589</v>
-      </c>
       <c r="J298" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K298" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L298" s="85"/>
       <c r="M298" s="85"/>
@@ -23797,16 +23776,16 @@
       </c>
       <c r="G299" s="32"/>
       <c r="H299" s="88" t="s">
+        <v>587</v>
+      </c>
+      <c r="I299" s="88" t="s">
         <v>588</v>
       </c>
-      <c r="I299" s="88" t="s">
-        <v>589</v>
-      </c>
       <c r="J299" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K299" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L299" s="85"/>
       <c r="M299" s="85"/>
@@ -23837,16 +23816,16 @@
       </c>
       <c r="G300" s="32"/>
       <c r="H300" s="88" t="s">
+        <v>587</v>
+      </c>
+      <c r="I300" s="88" t="s">
         <v>588</v>
       </c>
-      <c r="I300" s="88" t="s">
-        <v>589</v>
-      </c>
       <c r="J300" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K300" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L300" s="85"/>
       <c r="M300" s="85"/>
@@ -23873,20 +23852,20 @@
       <c r="D301" s="141"/>
       <c r="E301" s="141"/>
       <c r="F301" s="36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G301" s="36"/>
       <c r="H301" s="88" t="s">
+        <v>587</v>
+      </c>
+      <c r="I301" s="88" t="s">
         <v>588</v>
       </c>
-      <c r="I301" s="88" t="s">
-        <v>589</v>
-      </c>
       <c r="J301" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K301" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L301" s="54"/>
       <c r="M301" s="95"/>
@@ -23917,16 +23896,16 @@
       </c>
       <c r="G302" s="32"/>
       <c r="H302" s="88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I302" s="88" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J302" s="88" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K302" s="32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L302" s="85"/>
       <c r="M302" s="85"/>
@@ -23957,16 +23936,16 @@
       </c>
       <c r="G303" s="32"/>
       <c r="H303" s="88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I303" s="88" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J303" s="88" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K303" s="32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L303" s="85"/>
       <c r="M303" s="85"/>
@@ -23997,16 +23976,16 @@
       </c>
       <c r="G304" s="32"/>
       <c r="H304" s="88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I304" s="88" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J304" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K304" s="32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L304" s="85"/>
       <c r="M304" s="85"/>
@@ -24037,16 +24016,16 @@
       </c>
       <c r="G305" s="32"/>
       <c r="H305" s="88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I305" s="88" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J305" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K305" s="32" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L305" s="85"/>
       <c r="M305" s="85"/>
@@ -24077,16 +24056,16 @@
       </c>
       <c r="G306" s="32"/>
       <c r="H306" s="88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I306" s="88" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J306" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K306" s="32" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L306" s="85"/>
       <c r="M306" s="85"/>
@@ -24117,16 +24096,16 @@
       </c>
       <c r="G307" s="32"/>
       <c r="H307" s="88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I307" s="88" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J307" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K307" s="32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L307" s="85"/>
       <c r="M307" s="85"/>
@@ -24157,16 +24136,16 @@
       </c>
       <c r="G308" s="32"/>
       <c r="H308" s="88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I308" s="88" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J308" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K308" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L308" s="85"/>
       <c r="M308" s="85"/>
@@ -24199,7 +24178,7 @@
       <c r="H309" s="91"/>
       <c r="I309" s="91"/>
       <c r="J309" s="91" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K309" s="55"/>
       <c r="L309" s="68"/>
@@ -24231,16 +24210,16 @@
       </c>
       <c r="G310" s="32"/>
       <c r="H310" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I310" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I310" s="88" t="s">
+      <c r="J310" s="88" t="s">
+        <v>604</v>
+      </c>
+      <c r="K310" s="32" t="s">
         <v>609</v>
-      </c>
-      <c r="J310" s="88" t="s">
-        <v>605</v>
-      </c>
-      <c r="K310" s="32" t="s">
-        <v>610</v>
       </c>
       <c r="L310" s="85"/>
       <c r="M310" s="85"/>
@@ -24273,7 +24252,7 @@
       <c r="H311" s="91"/>
       <c r="I311" s="91"/>
       <c r="J311" s="55" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K311" s="55"/>
       <c r="L311" s="68"/>
@@ -24305,16 +24284,16 @@
       </c>
       <c r="G312" s="32"/>
       <c r="H312" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I312" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I312" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J312" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K312" s="32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L312" s="85"/>
       <c r="M312" s="85"/>
@@ -24343,16 +24322,16 @@
       <c r="F313" s="158"/>
       <c r="G313" s="32"/>
       <c r="H313" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I313" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I313" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J313" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K313" s="32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L313" s="85"/>
       <c r="M313" s="85"/>
@@ -24381,16 +24360,16 @@
       <c r="F314" s="158"/>
       <c r="G314" s="32"/>
       <c r="H314" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I314" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I314" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J314" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K314" s="32" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L314" s="85"/>
       <c r="M314" s="85"/>
@@ -24419,16 +24398,16 @@
       <c r="F315" s="158"/>
       <c r="G315" s="32"/>
       <c r="H315" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I315" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I315" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J315" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K315" s="32" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L315" s="85"/>
       <c r="M315" s="85"/>
@@ -24457,16 +24436,16 @@
       <c r="F316" s="158"/>
       <c r="G316" s="32"/>
       <c r="H316" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I316" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I316" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J316" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K316" s="32" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L316" s="85"/>
       <c r="M316" s="85"/>
@@ -24495,16 +24474,16 @@
       <c r="F317" s="159"/>
       <c r="G317" s="32"/>
       <c r="H317" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I317" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I317" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J317" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K317" s="32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L317" s="85"/>
       <c r="M317" s="85"/>
@@ -24535,16 +24514,16 @@
       </c>
       <c r="G318" s="32"/>
       <c r="H318" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I318" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I318" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J318" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K318" s="32" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L318" s="85"/>
       <c r="M318" s="85"/>
@@ -24573,16 +24552,16 @@
       <c r="F319" s="158"/>
       <c r="G319" s="32"/>
       <c r="H319" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I319" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I319" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J319" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K319" s="32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L319" s="85"/>
       <c r="M319" s="85"/>
@@ -24611,16 +24590,16 @@
       <c r="F320" s="158"/>
       <c r="G320" s="32"/>
       <c r="H320" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I320" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I320" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J320" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K320" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L320" s="85"/>
       <c r="M320" s="85"/>
@@ -24649,16 +24628,16 @@
       <c r="F321" s="158"/>
       <c r="G321" s="32"/>
       <c r="H321" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I321" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I321" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J321" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K321" s="32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L321" s="85"/>
       <c r="M321" s="85"/>
@@ -24687,16 +24666,16 @@
       <c r="F322" s="158"/>
       <c r="G322" s="32"/>
       <c r="H322" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I322" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I322" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J322" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K322" s="32" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L322" s="85"/>
       <c r="M322" s="85"/>
@@ -24725,16 +24704,16 @@
       <c r="F323" s="159"/>
       <c r="G323" s="32"/>
       <c r="H323" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I323" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I323" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J323" s="88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K323" s="32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L323" s="85"/>
       <c r="M323" s="85"/>
@@ -24767,7 +24746,7 @@
       <c r="H324" s="91"/>
       <c r="I324" s="91"/>
       <c r="J324" s="91" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K324" s="55"/>
       <c r="L324" s="68"/>
@@ -24801,7 +24780,7 @@
       <c r="H325" s="91"/>
       <c r="I325" s="91"/>
       <c r="J325" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K325" s="89"/>
       <c r="L325" s="68"/>
@@ -24832,7 +24811,7 @@
         <v>398</v>
       </c>
       <c r="G326" s="55" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H326" s="91"/>
       <c r="I326" s="55"/>
@@ -24871,7 +24850,7 @@
       <c r="H327" s="91"/>
       <c r="I327" s="55"/>
       <c r="J327" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K327" s="89"/>
       <c r="L327" s="68"/>
@@ -24905,7 +24884,7 @@
       <c r="H328" s="91"/>
       <c r="I328" s="55"/>
       <c r="J328" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K328" s="89"/>
       <c r="L328" s="68"/>
@@ -24939,16 +24918,16 @@
       </c>
       <c r="G329" s="39"/>
       <c r="H329" s="88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I329" s="88" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J329" s="85" t="s">
+        <v>628</v>
+      </c>
+      <c r="K329" s="32" t="s">
         <v>629</v>
-      </c>
-      <c r="K329" s="32" t="s">
-        <v>630</v>
       </c>
       <c r="L329" s="88"/>
       <c r="M329" s="85"/>
@@ -24977,16 +24956,16 @@
       <c r="F330" s="158"/>
       <c r="G330" s="39"/>
       <c r="H330" s="88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I330" s="88" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J330" s="85" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K330" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L330" s="88"/>
       <c r="M330" s="85"/>
@@ -25015,16 +24994,16 @@
       <c r="F331" s="158"/>
       <c r="G331" s="39"/>
       <c r="H331" s="88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I331" s="88" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J331" s="85" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K331" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L331" s="88"/>
       <c r="M331" s="85"/>
@@ -25053,16 +25032,16 @@
       <c r="F332" s="158"/>
       <c r="G332" s="39"/>
       <c r="H332" s="88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I332" s="88" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J332" s="85" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K332" s="32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L332" s="88"/>
       <c r="M332" s="85"/>
@@ -25091,16 +25070,16 @@
       <c r="F333" s="158"/>
       <c r="G333" s="39"/>
       <c r="H333" s="88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I333" s="88" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J333" s="85" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K333" s="32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L333" s="88"/>
       <c r="M333" s="85"/>
@@ -25129,16 +25108,16 @@
       <c r="F334" s="158"/>
       <c r="G334" s="39"/>
       <c r="H334" s="88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I334" s="88" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J334" s="85" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K334" s="32" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L334" s="88"/>
       <c r="M334" s="85"/>
@@ -25167,16 +25146,16 @@
       <c r="F335" s="158"/>
       <c r="G335" s="39"/>
       <c r="H335" s="88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I335" s="88" t="s">
+        <v>626</v>
+      </c>
+      <c r="J335" s="85" t="s">
         <v>627</v>
       </c>
-      <c r="J335" s="85" t="s">
-        <v>628</v>
-      </c>
       <c r="K335" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L335" s="88"/>
       <c r="M335" s="85"/>
@@ -25205,16 +25184,16 @@
       <c r="F336" s="159"/>
       <c r="G336" s="39"/>
       <c r="H336" s="88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I336" s="88" t="s">
+        <v>626</v>
+      </c>
+      <c r="J336" s="85" t="s">
         <v>627</v>
       </c>
-      <c r="J336" s="85" t="s">
-        <v>628</v>
-      </c>
       <c r="K336" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L336" s="88"/>
       <c r="M336" s="85"/>
@@ -25245,16 +25224,16 @@
       </c>
       <c r="G337" s="39"/>
       <c r="H337" s="88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I337" s="88" t="s">
+        <v>626</v>
+      </c>
+      <c r="J337" s="85" t="s">
         <v>627</v>
       </c>
-      <c r="J337" s="85" t="s">
-        <v>628</v>
-      </c>
       <c r="K337" s="32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L337" s="88"/>
       <c r="M337" s="85"/>
@@ -25283,16 +25262,16 @@
       <c r="F338" s="158"/>
       <c r="G338" s="39"/>
       <c r="H338" s="88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I338" s="88" t="s">
+        <v>626</v>
+      </c>
+      <c r="J338" s="85" t="s">
         <v>627</v>
       </c>
-      <c r="J338" s="85" t="s">
-        <v>628</v>
-      </c>
       <c r="K338" s="32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L338" s="88"/>
       <c r="M338" s="85"/>
@@ -25321,16 +25300,16 @@
       <c r="F339" s="158"/>
       <c r="G339" s="39"/>
       <c r="H339" s="88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I339" s="88" t="s">
+        <v>626</v>
+      </c>
+      <c r="J339" s="85" t="s">
         <v>627</v>
       </c>
-      <c r="J339" s="85" t="s">
-        <v>628</v>
-      </c>
       <c r="K339" s="32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L339" s="88"/>
       <c r="M339" s="85"/>
@@ -25359,16 +25338,16 @@
       <c r="F340" s="159"/>
       <c r="G340" s="39"/>
       <c r="H340" s="88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I340" s="88" t="s">
+        <v>626</v>
+      </c>
+      <c r="J340" s="85" t="s">
         <v>627</v>
       </c>
-      <c r="J340" s="85" t="s">
-        <v>628</v>
-      </c>
       <c r="K340" s="32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L340" s="88"/>
       <c r="M340" s="85"/>
@@ -25403,7 +25382,7 @@
       <c r="H341" s="91"/>
       <c r="I341" s="55"/>
       <c r="J341" s="68" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K341" s="89"/>
       <c r="L341" s="68"/>
@@ -25439,7 +25418,7 @@
       <c r="H342" s="91"/>
       <c r="I342" s="91"/>
       <c r="J342" s="91" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K342" s="55"/>
       <c r="L342" s="68"/>
@@ -25473,7 +25452,7 @@
       <c r="H343" s="91"/>
       <c r="I343" s="91"/>
       <c r="J343" s="91" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K343" s="55"/>
       <c r="L343" s="68"/>
@@ -25507,7 +25486,7 @@
       <c r="H344" s="68"/>
       <c r="I344" s="68"/>
       <c r="J344" s="69" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K344" s="69"/>
       <c r="L344" s="68"/>
@@ -25541,7 +25520,7 @@
       <c r="H345" s="68"/>
       <c r="I345" s="68"/>
       <c r="J345" s="69" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K345" s="69"/>
       <c r="L345" s="68"/>
@@ -25575,7 +25554,7 @@
       <c r="H346" s="68"/>
       <c r="I346" s="68"/>
       <c r="J346" s="69" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K346" s="69"/>
       <c r="L346" s="68"/>
@@ -25609,7 +25588,7 @@
       <c r="H347" s="68"/>
       <c r="I347" s="68"/>
       <c r="J347" s="69" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K347" s="69"/>
       <c r="L347" s="68"/>
@@ -25643,7 +25622,7 @@
       <c r="H348" s="68"/>
       <c r="I348" s="68"/>
       <c r="J348" s="69" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K348" s="69"/>
       <c r="L348" s="68"/>
@@ -25677,7 +25656,7 @@
       <c r="H349" s="68"/>
       <c r="I349" s="68"/>
       <c r="J349" s="69" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K349" s="69"/>
       <c r="L349" s="68"/>
@@ -25709,16 +25688,16 @@
       </c>
       <c r="G350" s="47"/>
       <c r="H350" s="85" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I350" s="85" t="s">
+        <v>641</v>
+      </c>
+      <c r="J350" s="86" t="s">
+        <v>643</v>
+      </c>
+      <c r="K350" s="54" t="s">
         <v>642</v>
-      </c>
-      <c r="J350" s="86" t="s">
-        <v>644</v>
-      </c>
-      <c r="K350" s="54" t="s">
-        <v>643</v>
       </c>
       <c r="L350" s="85"/>
       <c r="M350" s="85"/>
@@ -25751,16 +25730,16 @@
       </c>
       <c r="G351" s="47"/>
       <c r="H351" s="88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I351" s="88" t="s">
+        <v>644</v>
+      </c>
+      <c r="J351" s="88" t="s">
+        <v>604</v>
+      </c>
+      <c r="K351" s="32" t="s">
         <v>645</v>
-      </c>
-      <c r="J351" s="88" t="s">
-        <v>605</v>
-      </c>
-      <c r="K351" s="32" t="s">
-        <v>646</v>
       </c>
       <c r="L351" s="85"/>
       <c r="M351" s="85"/>
@@ -25793,16 +25772,16 @@
       </c>
       <c r="G352" s="47"/>
       <c r="H352" s="88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I352" s="88" t="s">
+        <v>646</v>
+      </c>
+      <c r="J352" s="88" t="s">
+        <v>604</v>
+      </c>
+      <c r="K352" s="85" t="s">
         <v>647</v>
-      </c>
-      <c r="J352" s="88" t="s">
-        <v>605</v>
-      </c>
-      <c r="K352" s="85" t="s">
-        <v>648</v>
       </c>
       <c r="L352" s="85"/>
       <c r="M352" s="85"/>
@@ -25837,16 +25816,16 @@
       </c>
       <c r="G353" s="47"/>
       <c r="H353" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I353" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I353" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J353" s="88" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K353" s="32" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L353" s="85"/>
       <c r="M353" s="85"/>
@@ -25875,16 +25854,16 @@
       <c r="F354" s="158"/>
       <c r="G354" s="47"/>
       <c r="H354" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I354" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I354" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J354" s="88" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K354" s="32" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L354" s="85"/>
       <c r="M354" s="85"/>
@@ -25913,16 +25892,16 @@
       <c r="F355" s="158"/>
       <c r="G355" s="47"/>
       <c r="H355" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I355" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I355" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J355" s="88" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K355" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L355" s="85"/>
       <c r="M355" s="85"/>
@@ -25951,16 +25930,16 @@
       <c r="F356" s="158"/>
       <c r="G356" s="47"/>
       <c r="H356" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I356" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I356" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J356" s="88" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K356" s="32" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L356" s="85"/>
       <c r="M356" s="85"/>
@@ -25989,16 +25968,16 @@
       <c r="F357" s="158"/>
       <c r="G357" s="47"/>
       <c r="H357" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I357" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I357" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J357" s="88" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K357" s="32" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L357" s="85"/>
       <c r="M357" s="85"/>
@@ -26027,16 +26006,16 @@
       <c r="F358" s="159"/>
       <c r="G358" s="47"/>
       <c r="H358" s="88" t="s">
+        <v>607</v>
+      </c>
+      <c r="I358" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="I358" s="88" t="s">
-        <v>609</v>
-      </c>
       <c r="J358" s="88" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K358" s="32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L358" s="85"/>
       <c r="M358" s="85"/>
@@ -26071,7 +26050,7 @@
       <c r="H359" s="91"/>
       <c r="I359" s="91"/>
       <c r="J359" s="91" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K359" s="55"/>
       <c r="L359" s="68"/>
@@ -26105,7 +26084,7 @@
       <c r="H360" s="91"/>
       <c r="I360" s="91"/>
       <c r="J360" s="91" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K360" s="55"/>
       <c r="L360" s="68"/>
@@ -26139,7 +26118,7 @@
       <c r="H361" s="68"/>
       <c r="I361" s="68"/>
       <c r="J361" s="91" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K361" s="69"/>
       <c r="L361" s="68"/>
@@ -26173,7 +26152,7 @@
       <c r="H362" s="68"/>
       <c r="I362" s="68"/>
       <c r="J362" s="69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K362" s="69"/>
       <c r="L362" s="68"/>
@@ -26211,7 +26190,7 @@
       <c r="H363" s="68"/>
       <c r="I363" s="68"/>
       <c r="J363" s="69" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K363" s="69"/>
       <c r="L363" s="68"/>
@@ -26245,7 +26224,7 @@
       <c r="H364" s="68"/>
       <c r="I364" s="68"/>
       <c r="J364" s="69" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K364" s="69"/>
       <c r="L364" s="68"/>
@@ -26279,7 +26258,7 @@
       <c r="H365" s="68"/>
       <c r="I365" s="68"/>
       <c r="J365" s="69" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K365" s="69"/>
       <c r="L365" s="68"/>
@@ -26317,7 +26296,7 @@
       <c r="H366" s="68"/>
       <c r="I366" s="68"/>
       <c r="J366" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K366" s="69"/>
       <c r="L366" s="68"/>
@@ -26351,7 +26330,7 @@
       <c r="H367" s="68"/>
       <c r="I367" s="68"/>
       <c r="J367" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K367" s="69"/>
       <c r="L367" s="68"/>
@@ -26385,7 +26364,7 @@
       <c r="H368" s="68"/>
       <c r="I368" s="68"/>
       <c r="J368" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K368" s="69"/>
       <c r="L368" s="68"/>
@@ -26419,7 +26398,7 @@
       <c r="H369" s="68"/>
       <c r="I369" s="68"/>
       <c r="J369" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K369" s="69"/>
       <c r="L369" s="68"/>
@@ -26453,7 +26432,7 @@
       <c r="H370" s="68"/>
       <c r="I370" s="68"/>
       <c r="J370" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K370" s="69"/>
       <c r="L370" s="68"/>
@@ -26484,7 +26463,7 @@
         <v>433</v>
       </c>
       <c r="G371" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H371" s="68"/>
       <c r="I371" s="68"/>
@@ -26521,7 +26500,7 @@
       <c r="H372" s="68"/>
       <c r="I372" s="68"/>
       <c r="J372" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K372" s="69"/>
       <c r="L372" s="68"/>
@@ -26555,7 +26534,7 @@
       <c r="H373" s="68"/>
       <c r="I373" s="68"/>
       <c r="J373" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K373" s="69"/>
       <c r="L373" s="68"/>
@@ -26589,7 +26568,7 @@
       <c r="H374" s="68"/>
       <c r="I374" s="68"/>
       <c r="J374" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K374" s="69"/>
       <c r="L374" s="68"/>
@@ -26623,7 +26602,7 @@
       <c r="H375" s="68"/>
       <c r="I375" s="68"/>
       <c r="J375" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K375" s="69"/>
       <c r="L375" s="68"/>
@@ -26657,7 +26636,7 @@
       <c r="H376" s="68"/>
       <c r="I376" s="68"/>
       <c r="J376" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K376" s="69"/>
       <c r="L376" s="68"/>
@@ -26691,7 +26670,7 @@
       <c r="H377" s="68"/>
       <c r="I377" s="68"/>
       <c r="J377" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K377" s="69"/>
       <c r="L377" s="68"/>
@@ -26725,7 +26704,7 @@
       <c r="H378" s="68"/>
       <c r="I378" s="68"/>
       <c r="J378" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K378" s="69"/>
       <c r="L378" s="68"/>
@@ -26759,7 +26738,7 @@
       <c r="H379" s="68"/>
       <c r="I379" s="68"/>
       <c r="J379" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K379" s="69"/>
       <c r="L379" s="68"/>
@@ -26795,7 +26774,7 @@
       <c r="H380" s="68"/>
       <c r="I380" s="68"/>
       <c r="J380" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K380" s="69"/>
       <c r="L380" s="68"/>
@@ -26829,7 +26808,7 @@
       <c r="H381" s="68"/>
       <c r="I381" s="68"/>
       <c r="J381" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K381" s="69"/>
       <c r="L381" s="68"/>
@@ -26863,7 +26842,7 @@
       <c r="H382" s="68"/>
       <c r="I382" s="68"/>
       <c r="J382" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K382" s="69"/>
       <c r="L382" s="68"/>
@@ -26897,7 +26876,7 @@
       <c r="H383" s="68"/>
       <c r="I383" s="68"/>
       <c r="J383" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K383" s="69"/>
       <c r="L383" s="68"/>
@@ -26931,7 +26910,7 @@
       <c r="H384" s="68"/>
       <c r="I384" s="68"/>
       <c r="J384" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K384" s="69"/>
       <c r="L384" s="68"/>
@@ -26965,7 +26944,7 @@
       <c r="H385" s="68"/>
       <c r="I385" s="68"/>
       <c r="J385" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K385" s="69"/>
       <c r="L385" s="68"/>
@@ -26999,7 +26978,7 @@
       <c r="H386" s="68"/>
       <c r="I386" s="68"/>
       <c r="J386" s="143" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K386" s="69"/>
       <c r="L386" s="68"/>
@@ -27041,7 +27020,7 @@
       <c r="H387" s="56"/>
       <c r="I387" s="56"/>
       <c r="J387" s="68" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K387" s="160"/>
       <c r="L387" s="161"/>
@@ -27075,7 +27054,7 @@
       <c r="H388" s="56"/>
       <c r="I388" s="56"/>
       <c r="J388" s="68" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K388" s="143"/>
       <c r="L388" s="144"/>
@@ -27109,7 +27088,7 @@
       <c r="H389" s="56"/>
       <c r="I389" s="56"/>
       <c r="J389" s="68" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K389" s="143"/>
       <c r="L389" s="144"/>
@@ -27143,7 +27122,7 @@
       <c r="H390" s="56"/>
       <c r="I390" s="56"/>
       <c r="J390" s="68" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K390" s="143"/>
       <c r="L390" s="144"/>
@@ -27174,7 +27153,7 @@
         <v>468</v>
       </c>
       <c r="G391" s="142" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H391" s="56"/>
       <c r="I391" s="56"/>
@@ -27215,7 +27194,7 @@
       <c r="H392" s="91"/>
       <c r="I392" s="91"/>
       <c r="J392" s="56" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K392" s="143"/>
       <c r="L392" s="144"/>
@@ -27249,7 +27228,7 @@
       <c r="H393" s="56"/>
       <c r="I393" s="56"/>
       <c r="J393" s="91" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K393" s="143"/>
       <c r="L393" s="144"/>
@@ -27280,7 +27259,7 @@
         <v>473</v>
       </c>
       <c r="G394" s="142" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H394" s="56"/>
       <c r="I394" s="56"/>
@@ -27317,7 +27296,7 @@
       <c r="H395" s="91"/>
       <c r="I395" s="91"/>
       <c r="J395" s="91" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K395" s="68"/>
       <c r="L395" s="144"/>
@@ -27351,7 +27330,7 @@
       <c r="H396" s="56"/>
       <c r="I396" s="56"/>
       <c r="J396" s="143" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K396" s="143"/>
       <c r="L396" s="144"/>
@@ -27385,20 +27364,20 @@
         <v>455</v>
       </c>
       <c r="F397" s="64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G397" s="70"/>
       <c r="H397" s="88" t="s">
+        <v>666</v>
+      </c>
+      <c r="I397" s="88" t="s">
+        <v>695</v>
+      </c>
+      <c r="J397" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="K397" s="37" t="s">
         <v>667</v>
-      </c>
-      <c r="I397" s="88" t="s">
-        <v>696</v>
-      </c>
-      <c r="J397" s="88" t="s">
-        <v>670</v>
-      </c>
-      <c r="K397" s="37" t="s">
-        <v>668</v>
       </c>
       <c r="L397" s="96"/>
       <c r="M397" s="97"/>
@@ -27427,16 +27406,16 @@
       <c r="F398" s="65"/>
       <c r="G398" s="70"/>
       <c r="H398" s="88" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I398" s="88" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J398" s="88" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K398" s="37" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L398" s="96"/>
       <c r="M398" s="97"/>
@@ -27465,16 +27444,16 @@
       <c r="F399" s="65"/>
       <c r="G399" s="70"/>
       <c r="H399" s="88" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I399" s="88" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J399" s="88" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K399" s="37" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L399" s="96"/>
       <c r="M399" s="97"/>
@@ -27503,16 +27482,16 @@
       <c r="F400" s="65"/>
       <c r="G400" s="70"/>
       <c r="H400" s="88" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I400" s="88" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J400" s="88" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K400" s="37" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L400" s="96"/>
       <c r="M400" s="97"/>
@@ -27541,16 +27520,16 @@
       <c r="F401" s="65"/>
       <c r="G401" s="70"/>
       <c r="H401" s="88" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I401" s="88" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J401" s="88" t="s">
+        <v>675</v>
+      </c>
+      <c r="K401" s="37" t="s">
         <v>676</v>
-      </c>
-      <c r="K401" s="37" t="s">
-        <v>677</v>
       </c>
       <c r="L401" s="96"/>
       <c r="M401" s="97"/>
@@ -27579,16 +27558,16 @@
       <c r="F402" s="110"/>
       <c r="G402" s="70"/>
       <c r="H402" s="88" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I402" s="88" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J402" s="88" t="s">
+        <v>677</v>
+      </c>
+      <c r="K402" s="37" t="s">
         <v>678</v>
-      </c>
-      <c r="K402" s="37" t="s">
-        <v>679</v>
       </c>
       <c r="L402" s="96"/>
       <c r="M402" s="97"/>
@@ -27621,7 +27600,7 @@
       <c r="H403" s="91"/>
       <c r="I403" s="91"/>
       <c r="J403" s="91" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K403" s="92"/>
       <c r="L403" s="104"/>
@@ -27653,16 +27632,16 @@
       </c>
       <c r="G404" s="70"/>
       <c r="H404" s="88" t="s">
+        <v>681</v>
+      </c>
+      <c r="I404" s="88" t="s">
+        <v>693</v>
+      </c>
+      <c r="J404" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="K404" s="85" t="s">
         <v>682</v>
-      </c>
-      <c r="I404" s="88" t="s">
-        <v>694</v>
-      </c>
-      <c r="J404" s="88" t="s">
-        <v>670</v>
-      </c>
-      <c r="K404" s="85" t="s">
-        <v>683</v>
       </c>
       <c r="L404" s="96"/>
       <c r="M404" s="97"/>
@@ -27691,16 +27670,16 @@
       <c r="F405" s="65"/>
       <c r="G405" s="70"/>
       <c r="H405" s="88" t="s">
+        <v>681</v>
+      </c>
+      <c r="I405" s="88" t="s">
+        <v>693</v>
+      </c>
+      <c r="J405" s="88" t="s">
+        <v>668</v>
+      </c>
+      <c r="K405" s="85" t="s">
         <v>682</v>
-      </c>
-      <c r="I405" s="88" t="s">
-        <v>694</v>
-      </c>
-      <c r="J405" s="88" t="s">
-        <v>669</v>
-      </c>
-      <c r="K405" s="85" t="s">
-        <v>683</v>
       </c>
       <c r="L405" s="96"/>
       <c r="M405" s="97"/>
@@ -27729,16 +27708,16 @@
       <c r="F406" s="65"/>
       <c r="G406" s="70"/>
       <c r="H406" s="88" t="s">
+        <v>681</v>
+      </c>
+      <c r="I406" s="88" t="s">
+        <v>693</v>
+      </c>
+      <c r="J406" s="88" t="s">
+        <v>671</v>
+      </c>
+      <c r="K406" s="85" t="s">
         <v>682</v>
-      </c>
-      <c r="I406" s="88" t="s">
-        <v>694</v>
-      </c>
-      <c r="J406" s="88" t="s">
-        <v>672</v>
-      </c>
-      <c r="K406" s="85" t="s">
-        <v>683</v>
       </c>
       <c r="L406" s="96"/>
       <c r="M406" s="97"/>
@@ -27767,16 +27746,16 @@
       <c r="F407" s="65"/>
       <c r="G407" s="70"/>
       <c r="H407" s="88" t="s">
+        <v>681</v>
+      </c>
+      <c r="I407" s="88" t="s">
+        <v>693</v>
+      </c>
+      <c r="J407" s="88" t="s">
+        <v>672</v>
+      </c>
+      <c r="K407" s="85" t="s">
         <v>682</v>
-      </c>
-      <c r="I407" s="88" t="s">
-        <v>694</v>
-      </c>
-      <c r="J407" s="88" t="s">
-        <v>673</v>
-      </c>
-      <c r="K407" s="85" t="s">
-        <v>683</v>
       </c>
       <c r="L407" s="96"/>
       <c r="M407" s="97"/>
@@ -27805,16 +27784,16 @@
       <c r="F408" s="65"/>
       <c r="G408" s="70"/>
       <c r="H408" s="88" t="s">
+        <v>681</v>
+      </c>
+      <c r="I408" s="88" t="s">
+        <v>693</v>
+      </c>
+      <c r="J408" s="88" t="s">
+        <v>675</v>
+      </c>
+      <c r="K408" s="85" t="s">
         <v>682</v>
-      </c>
-      <c r="I408" s="88" t="s">
-        <v>694</v>
-      </c>
-      <c r="J408" s="88" t="s">
-        <v>676</v>
-      </c>
-      <c r="K408" s="85" t="s">
-        <v>683</v>
       </c>
       <c r="L408" s="96"/>
       <c r="M408" s="97"/>
@@ -27843,16 +27822,16 @@
       <c r="F409" s="110"/>
       <c r="G409" s="70"/>
       <c r="H409" s="88" t="s">
+        <v>681</v>
+      </c>
+      <c r="I409" s="88" t="s">
+        <v>693</v>
+      </c>
+      <c r="J409" s="88" t="s">
+        <v>677</v>
+      </c>
+      <c r="K409" s="85" t="s">
         <v>682</v>
-      </c>
-      <c r="I409" s="88" t="s">
-        <v>694</v>
-      </c>
-      <c r="J409" s="88" t="s">
-        <v>678</v>
-      </c>
-      <c r="K409" s="85" t="s">
-        <v>683</v>
       </c>
       <c r="L409" s="96"/>
       <c r="M409" s="97"/>
@@ -27885,7 +27864,7 @@
       <c r="H410" s="56"/>
       <c r="I410" s="56"/>
       <c r="J410" s="91" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K410" s="103"/>
       <c r="L410" s="104"/>
@@ -27916,7 +27895,7 @@
         <v>481</v>
       </c>
       <c r="G411" s="102" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H411" s="56"/>
       <c r="I411" s="56"/>
@@ -27953,7 +27932,7 @@
       <c r="H412" s="91"/>
       <c r="I412" s="91"/>
       <c r="J412" s="91" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K412" s="92"/>
       <c r="L412" s="104"/>
@@ -27989,16 +27968,16 @@
       </c>
       <c r="G413" s="70"/>
       <c r="H413" s="64" t="s">
+        <v>690</v>
+      </c>
+      <c r="I413" s="64" t="s">
+        <v>694</v>
+      </c>
+      <c r="J413" s="37" t="s">
+        <v>692</v>
+      </c>
+      <c r="K413" s="177" t="s">
         <v>691</v>
-      </c>
-      <c r="I413" s="64" t="s">
-        <v>695</v>
-      </c>
-      <c r="J413" s="37" t="s">
-        <v>693</v>
-      </c>
-      <c r="K413" s="177" t="s">
-        <v>692</v>
       </c>
       <c r="L413" s="96"/>
       <c r="M413" s="97"/>
@@ -28033,16 +28012,16 @@
       </c>
       <c r="G414" s="70"/>
       <c r="H414" s="88" t="s">
+        <v>684</v>
+      </c>
+      <c r="I414" s="88" t="s">
         <v>685</v>
       </c>
-      <c r="I414" s="88" t="s">
+      <c r="J414" s="88" t="s">
+        <v>604</v>
+      </c>
+      <c r="K414" s="85" t="s">
         <v>686</v>
-      </c>
-      <c r="J414" s="88" t="s">
-        <v>605</v>
-      </c>
-      <c r="K414" s="85" t="s">
-        <v>687</v>
       </c>
       <c r="L414" s="96"/>
       <c r="M414" s="97"/>
@@ -28071,16 +28050,16 @@
       <c r="F415" s="65"/>
       <c r="G415" s="70"/>
       <c r="H415" s="88" t="s">
+        <v>684</v>
+      </c>
+      <c r="I415" s="88" t="s">
         <v>685</v>
       </c>
-      <c r="I415" s="88" t="s">
+      <c r="J415" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="K415" s="85" t="s">
         <v>686</v>
-      </c>
-      <c r="J415" s="88" t="s">
-        <v>670</v>
-      </c>
-      <c r="K415" s="85" t="s">
-        <v>687</v>
       </c>
       <c r="L415" s="98"/>
       <c r="M415" s="99"/>
@@ -28109,16 +28088,16 @@
       <c r="F416" s="65"/>
       <c r="G416" s="70"/>
       <c r="H416" s="88" t="s">
+        <v>684</v>
+      </c>
+      <c r="I416" s="88" t="s">
         <v>685</v>
       </c>
-      <c r="I416" s="88" t="s">
+      <c r="J416" s="88" t="s">
+        <v>668</v>
+      </c>
+      <c r="K416" s="85" t="s">
         <v>686</v>
-      </c>
-      <c r="J416" s="88" t="s">
-        <v>669</v>
-      </c>
-      <c r="K416" s="85" t="s">
-        <v>687</v>
       </c>
       <c r="L416" s="98"/>
       <c r="M416" s="99"/>
@@ -28147,16 +28126,16 @@
       <c r="F417" s="65"/>
       <c r="G417" s="70"/>
       <c r="H417" s="88" t="s">
+        <v>684</v>
+      </c>
+      <c r="I417" s="88" t="s">
         <v>685</v>
       </c>
-      <c r="I417" s="88" t="s">
+      <c r="J417" s="88" t="s">
+        <v>671</v>
+      </c>
+      <c r="K417" s="85" t="s">
         <v>686</v>
-      </c>
-      <c r="J417" s="88" t="s">
-        <v>672</v>
-      </c>
-      <c r="K417" s="85" t="s">
-        <v>687</v>
       </c>
       <c r="L417" s="98"/>
       <c r="M417" s="99"/>
@@ -28185,16 +28164,16 @@
       <c r="F418" s="65"/>
       <c r="G418" s="70"/>
       <c r="H418" s="88" t="s">
+        <v>684</v>
+      </c>
+      <c r="I418" s="88" t="s">
         <v>685</v>
       </c>
-      <c r="I418" s="88" t="s">
+      <c r="J418" s="88" t="s">
+        <v>672</v>
+      </c>
+      <c r="K418" s="85" t="s">
         <v>686</v>
-      </c>
-      <c r="J418" s="88" t="s">
-        <v>673</v>
-      </c>
-      <c r="K418" s="85" t="s">
-        <v>687</v>
       </c>
       <c r="L418" s="98"/>
       <c r="M418" s="99"/>
@@ -28223,16 +28202,16 @@
       <c r="F419" s="65"/>
       <c r="G419" s="70"/>
       <c r="H419" s="88" t="s">
+        <v>684</v>
+      </c>
+      <c r="I419" s="88" t="s">
         <v>685</v>
       </c>
-      <c r="I419" s="88" t="s">
+      <c r="J419" s="88" t="s">
+        <v>675</v>
+      </c>
+      <c r="K419" s="85" t="s">
         <v>686</v>
-      </c>
-      <c r="J419" s="88" t="s">
-        <v>676</v>
-      </c>
-      <c r="K419" s="85" t="s">
-        <v>687</v>
       </c>
       <c r="L419" s="98"/>
       <c r="M419" s="99"/>
@@ -28261,16 +28240,16 @@
       <c r="F420" s="110"/>
       <c r="G420" s="70"/>
       <c r="H420" s="88" t="s">
+        <v>684</v>
+      </c>
+      <c r="I420" s="88" t="s">
         <v>685</v>
       </c>
-      <c r="I420" s="88" t="s">
+      <c r="J420" s="88" t="s">
+        <v>677</v>
+      </c>
+      <c r="K420" s="85" t="s">
         <v>686</v>
-      </c>
-      <c r="J420" s="88" t="s">
-        <v>678</v>
-      </c>
-      <c r="K420" s="85" t="s">
-        <v>687</v>
       </c>
       <c r="L420" s="98"/>
       <c r="M420" s="99"/>
@@ -28301,20 +28280,20 @@
         <v>455</v>
       </c>
       <c r="F421" s="71" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G421" s="70"/>
       <c r="H421" s="64" t="s">
+        <v>687</v>
+      </c>
+      <c r="I421" s="64" t="s">
         <v>688</v>
       </c>
-      <c r="I421" s="64" t="s">
+      <c r="J421" s="88" t="s">
+        <v>604</v>
+      </c>
+      <c r="K421" s="87" t="s">
         <v>689</v>
-      </c>
-      <c r="J421" s="88" t="s">
-        <v>605</v>
-      </c>
-      <c r="K421" s="87" t="s">
-        <v>690</v>
       </c>
       <c r="L421" s="98"/>
       <c r="M421" s="99"/>
@@ -28355,7 +28334,7 @@
       <c r="H422" s="68"/>
       <c r="I422" s="68"/>
       <c r="J422" s="69" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K422" s="69"/>
       <c r="L422" s="68"/>
@@ -28389,7 +28368,7 @@
       <c r="H423" s="91"/>
       <c r="I423" s="91"/>
       <c r="J423" s="69" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K423" s="68"/>
       <c r="L423" s="68"/>
@@ -28449,27 +28428,27 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M6" s="24" t="s">
         <v>11</v>
@@ -28515,16 +28494,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="E10" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>527</v>
-      </c>
       <c r="F10" s="72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>9</v>
@@ -28572,13 +28551,13 @@
         <v>1-1-1</v>
       </c>
       <c r="B11" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>576</v>
+      </c>
+      <c r="D11" s="146" t="s">
         <v>528</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>577</v>
-      </c>
-      <c r="D11" s="146" t="s">
-        <v>529</v>
       </c>
       <c r="E11" s="167"/>
       <c r="F11" s="68"/>
@@ -28610,7 +28589,7 @@
       <c r="B12" s="172"/>
       <c r="C12" s="172"/>
       <c r="D12" s="106" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E12" s="107"/>
       <c r="F12" s="68"/>
@@ -28642,11 +28621,11 @@
       <c r="B13" s="172"/>
       <c r="C13" s="172"/>
       <c r="D13" s="106" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E13" s="107"/>
       <c r="F13" s="68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G13" s="56"/>
       <c r="H13" s="56"/>
@@ -28676,7 +28655,7 @@
       <c r="B14" s="172"/>
       <c r="C14" s="172"/>
       <c r="D14" s="106" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E14" s="107"/>
       <c r="F14" s="68"/>
@@ -28708,10 +28687,10 @@
       <c r="B15" s="172"/>
       <c r="C15" s="172"/>
       <c r="D15" s="108" t="s">
+        <v>532</v>
+      </c>
+      <c r="E15" s="59" t="s">
         <v>533</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>534</v>
       </c>
       <c r="F15" s="68"/>
       <c r="G15" s="56"/>
@@ -28743,10 +28722,10 @@
       <c r="C16" s="172"/>
       <c r="D16" s="172"/>
       <c r="E16" s="55" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G16" s="56"/>
       <c r="H16" s="56"/>
@@ -28777,10 +28756,10 @@
       <c r="C17" s="172"/>
       <c r="D17" s="172"/>
       <c r="E17" s="59" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G17" s="56"/>
       <c r="H17" s="56"/>
@@ -28811,10 +28790,10 @@
       <c r="C18" s="172"/>
       <c r="D18" s="109"/>
       <c r="E18" s="59" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
@@ -28844,13 +28823,13 @@
       <c r="B19" s="172"/>
       <c r="C19" s="172"/>
       <c r="D19" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="E19" s="55" t="s">
         <v>538</v>
       </c>
-      <c r="E19" s="55" t="s">
-        <v>539</v>
-      </c>
       <c r="F19" s="68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G19" s="56"/>
       <c r="H19" s="56"/>
@@ -28880,10 +28859,10 @@
       <c r="B20" s="172"/>
       <c r="C20" s="172"/>
       <c r="D20" s="146" t="s">
+        <v>539</v>
+      </c>
+      <c r="E20" s="55" t="s">
         <v>540</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>541</v>
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="56"/>
@@ -28914,11 +28893,11 @@
       <c r="B21" s="172"/>
       <c r="C21" s="172"/>
       <c r="D21" s="243" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E21" s="244"/>
       <c r="F21" s="68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
@@ -28947,14 +28926,14 @@
       </c>
       <c r="B22" s="172"/>
       <c r="C22" s="108" t="s">
+        <v>541</v>
+      </c>
+      <c r="D22" s="106" t="s">
         <v>542</v>
-      </c>
-      <c r="D22" s="106" t="s">
-        <v>543</v>
       </c>
       <c r="E22" s="107"/>
       <c r="F22" s="68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G22" s="56"/>
       <c r="H22" s="56"/>
@@ -28984,11 +28963,11 @@
       <c r="B23" s="172"/>
       <c r="C23" s="109"/>
       <c r="D23" s="106" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E23" s="107"/>
       <c r="F23" s="68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
@@ -29017,13 +28996,13 @@
       </c>
       <c r="B24" s="172"/>
       <c r="C24" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>572</v>
+      </c>
+      <c r="E24" s="173" t="s">
         <v>558</v>
-      </c>
-      <c r="D24" s="102" t="s">
-        <v>573</v>
-      </c>
-      <c r="E24" s="173" t="s">
-        <v>559</v>
       </c>
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
@@ -29055,7 +29034,7 @@
       <c r="C25" s="165"/>
       <c r="D25" s="176"/>
       <c r="E25" s="173" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F25" s="56"/>
       <c r="G25" s="56"/>
@@ -29086,10 +29065,10 @@
       <c r="B26" s="172"/>
       <c r="C26" s="172"/>
       <c r="D26" s="102" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E26" s="173" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F26" s="56"/>
       <c r="G26" s="56"/>
@@ -29121,7 +29100,7 @@
       <c r="C27" s="109"/>
       <c r="D27" s="109"/>
       <c r="E27" s="173" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
@@ -29150,17 +29129,17 @@
         <v>13-1-1</v>
       </c>
       <c r="B28" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="C28" s="178" t="s">
         <v>545</v>
-      </c>
-      <c r="C28" s="178" t="s">
-        <v>546</v>
       </c>
       <c r="D28" s="60" t="s">
         <v>455</v>
       </c>
       <c r="E28" s="61"/>
       <c r="F28" s="68" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="55"/>
@@ -29189,14 +29168,14 @@
       </c>
       <c r="B29" s="77"/>
       <c r="C29" s="81" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D29" s="78" t="s">
         <v>455</v>
       </c>
       <c r="E29" s="79"/>
       <c r="F29" s="68" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G29" s="80"/>
       <c r="H29" s="80"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10301_TOPメニュー.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10301_TOPメニュー.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50C7EF3-5EB3-4D65-AA3D-52F719CFA6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD9247B-6EB7-41A8-A138-0A46675A141D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10342,84 +10342,6 @@
     <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10526,6 +10448,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12060,51 +12060,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="215" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="189" t="s">
         <v>522</v>
       </c>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-      <c r="M1" s="216"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="221" t="s">
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="230" t="s">
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="204" t="s">
         <v>696</v>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="212" t="s">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="214"/>
-      <c r="AC1" s="239"/>
-      <c r="AD1" s="240"/>
-      <c r="AE1" s="240"/>
-      <c r="AF1" s="241"/>
-      <c r="AG1" s="206"/>
-      <c r="AH1" s="207"/>
-      <c r="AI1" s="208"/>
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="213"/>
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="180"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="182"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -12112,53 +12112,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="215" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="189" t="s">
         <v>568</v>
       </c>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="212" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="214"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="206" t="str">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="180" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="182"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12166,45 +12166,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215" t="s">
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="189" t="s">
         <v>569</v>
       </c>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="212"/>
-      <c r="AB3" s="214"/>
-      <c r="AC3" s="239"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="241"/>
-      <c r="AG3" s="206"/>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="208"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="213"/>
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="180"/>
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="182"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12241,1020 +12241,1176 @@
       <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="209" t="s">
+      <c r="C7" s="184"/>
+      <c r="D7" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="211"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="209" t="s">
+      <c r="E7" s="185"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="211"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="209" t="s">
+      <c r="H7" s="185"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="210"/>
-      <c r="Q7" s="209" t="s">
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="211"/>
-      <c r="S7" s="211"/>
-      <c r="T7" s="211"/>
-      <c r="U7" s="211"/>
-      <c r="V7" s="211"/>
-      <c r="W7" s="211"/>
-      <c r="X7" s="211"/>
-      <c r="Y7" s="211"/>
-      <c r="Z7" s="211"/>
-      <c r="AA7" s="211"/>
-      <c r="AB7" s="211"/>
-      <c r="AC7" s="211"/>
-      <c r="AD7" s="211"/>
-      <c r="AE7" s="210"/>
-      <c r="AF7" s="209" t="s">
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185"/>
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="AG7" s="211"/>
-      <c r="AH7" s="211"/>
-      <c r="AI7" s="210"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="184"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="20"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="204"/>
-      <c r="S8" s="204"/>
-      <c r="T8" s="204"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204"/>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="204"/>
-      <c r="AA8" s="204"/>
-      <c r="AB8" s="204"/>
-      <c r="AC8" s="204"/>
-      <c r="AD8" s="204"/>
-      <c r="AE8" s="205"/>
-      <c r="AF8" s="200"/>
-      <c r="AG8" s="201"/>
-      <c r="AH8" s="201"/>
-      <c r="AI8" s="202"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="236"/>
+      <c r="M8" s="236"/>
+      <c r="N8" s="236"/>
+      <c r="O8" s="236"/>
+      <c r="P8" s="237"/>
+      <c r="Q8" s="238"/>
+      <c r="R8" s="239"/>
+      <c r="S8" s="239"/>
+      <c r="T8" s="239"/>
+      <c r="U8" s="239"/>
+      <c r="V8" s="239"/>
+      <c r="W8" s="239"/>
+      <c r="X8" s="239"/>
+      <c r="Y8" s="239"/>
+      <c r="Z8" s="239"/>
+      <c r="AA8" s="239"/>
+      <c r="AB8" s="239"/>
+      <c r="AC8" s="239"/>
+      <c r="AD8" s="239"/>
+      <c r="AE8" s="240"/>
+      <c r="AF8" s="235"/>
+      <c r="AG8" s="236"/>
+      <c r="AH8" s="236"/>
+      <c r="AI8" s="237"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="187"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="189"/>
-      <c r="R9" s="190"/>
-      <c r="S9" s="190"/>
-      <c r="T9" s="190"/>
-      <c r="U9" s="190"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="190"/>
-      <c r="Y9" s="190"/>
-      <c r="Z9" s="190"/>
-      <c r="AA9" s="190"/>
-      <c r="AB9" s="190"/>
-      <c r="AC9" s="190"/>
-      <c r="AD9" s="190"/>
-      <c r="AE9" s="191"/>
-      <c r="AF9" s="186"/>
-      <c r="AG9" s="187"/>
-      <c r="AH9" s="187"/>
-      <c r="AI9" s="188"/>
+      <c r="B9" s="216"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="222"/>
+      <c r="K9" s="223"/>
+      <c r="L9" s="223"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="223"/>
+      <c r="O9" s="223"/>
+      <c r="P9" s="224"/>
+      <c r="Q9" s="225"/>
+      <c r="R9" s="226"/>
+      <c r="S9" s="226"/>
+      <c r="T9" s="226"/>
+      <c r="U9" s="226"/>
+      <c r="V9" s="226"/>
+      <c r="W9" s="226"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="226"/>
+      <c r="AA9" s="226"/>
+      <c r="AB9" s="226"/>
+      <c r="AC9" s="226"/>
+      <c r="AD9" s="226"/>
+      <c r="AE9" s="227"/>
+      <c r="AF9" s="222"/>
+      <c r="AG9" s="223"/>
+      <c r="AH9" s="223"/>
+      <c r="AI9" s="224"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="187"/>
-      <c r="P10" s="188"/>
-      <c r="Q10" s="189"/>
-      <c r="R10" s="190"/>
-      <c r="S10" s="190"/>
-      <c r="T10" s="190"/>
-      <c r="U10" s="190"/>
-      <c r="V10" s="190"/>
-      <c r="W10" s="190"/>
-      <c r="X10" s="190"/>
-      <c r="Y10" s="190"/>
-      <c r="Z10" s="190"/>
-      <c r="AA10" s="190"/>
-      <c r="AB10" s="190"/>
-      <c r="AC10" s="190"/>
-      <c r="AD10" s="190"/>
-      <c r="AE10" s="191"/>
-      <c r="AF10" s="186"/>
-      <c r="AG10" s="187"/>
-      <c r="AH10" s="187"/>
-      <c r="AI10" s="188"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="223"/>
+      <c r="M10" s="223"/>
+      <c r="N10" s="223"/>
+      <c r="O10" s="223"/>
+      <c r="P10" s="224"/>
+      <c r="Q10" s="225"/>
+      <c r="R10" s="226"/>
+      <c r="S10" s="226"/>
+      <c r="T10" s="226"/>
+      <c r="U10" s="226"/>
+      <c r="V10" s="226"/>
+      <c r="W10" s="226"/>
+      <c r="X10" s="226"/>
+      <c r="Y10" s="226"/>
+      <c r="Z10" s="226"/>
+      <c r="AA10" s="226"/>
+      <c r="AB10" s="226"/>
+      <c r="AC10" s="226"/>
+      <c r="AD10" s="226"/>
+      <c r="AE10" s="227"/>
+      <c r="AF10" s="222"/>
+      <c r="AG10" s="223"/>
+      <c r="AH10" s="223"/>
+      <c r="AI10" s="224"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="180"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="188"/>
-      <c r="Q11" s="189"/>
-      <c r="R11" s="190"/>
-      <c r="S11" s="190"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="190"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="190"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="190"/>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="191"/>
-      <c r="AF11" s="186"/>
-      <c r="AG11" s="187"/>
-      <c r="AH11" s="187"/>
-      <c r="AI11" s="188"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="220"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="221"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="223"/>
+      <c r="O11" s="223"/>
+      <c r="P11" s="224"/>
+      <c r="Q11" s="225"/>
+      <c r="R11" s="226"/>
+      <c r="S11" s="226"/>
+      <c r="T11" s="226"/>
+      <c r="U11" s="226"/>
+      <c r="V11" s="226"/>
+      <c r="W11" s="226"/>
+      <c r="X11" s="226"/>
+      <c r="Y11" s="226"/>
+      <c r="Z11" s="226"/>
+      <c r="AA11" s="226"/>
+      <c r="AB11" s="226"/>
+      <c r="AC11" s="226"/>
+      <c r="AD11" s="226"/>
+      <c r="AE11" s="227"/>
+      <c r="AF11" s="222"/>
+      <c r="AG11" s="223"/>
+      <c r="AH11" s="223"/>
+      <c r="AI11" s="224"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="188"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="190"/>
-      <c r="S12" s="190"/>
-      <c r="T12" s="190"/>
-      <c r="U12" s="190"/>
-      <c r="V12" s="190"/>
-      <c r="W12" s="190"/>
-      <c r="X12" s="190"/>
-      <c r="Y12" s="190"/>
-      <c r="Z12" s="190"/>
-      <c r="AA12" s="190"/>
-      <c r="AB12" s="190"/>
-      <c r="AC12" s="190"/>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="191"/>
-      <c r="AF12" s="186"/>
-      <c r="AG12" s="187"/>
-      <c r="AH12" s="187"/>
-      <c r="AI12" s="188"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="217"/>
+      <c r="J12" s="222"/>
+      <c r="K12" s="223"/>
+      <c r="L12" s="223"/>
+      <c r="M12" s="223"/>
+      <c r="N12" s="223"/>
+      <c r="O12" s="223"/>
+      <c r="P12" s="224"/>
+      <c r="Q12" s="225"/>
+      <c r="R12" s="226"/>
+      <c r="S12" s="226"/>
+      <c r="T12" s="226"/>
+      <c r="U12" s="226"/>
+      <c r="V12" s="226"/>
+      <c r="W12" s="226"/>
+      <c r="X12" s="226"/>
+      <c r="Y12" s="226"/>
+      <c r="Z12" s="226"/>
+      <c r="AA12" s="226"/>
+      <c r="AB12" s="226"/>
+      <c r="AC12" s="226"/>
+      <c r="AD12" s="226"/>
+      <c r="AE12" s="227"/>
+      <c r="AF12" s="222"/>
+      <c r="AG12" s="223"/>
+      <c r="AH12" s="223"/>
+      <c r="AI12" s="224"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="187"/>
-      <c r="P13" s="188"/>
-      <c r="Q13" s="189"/>
-      <c r="R13" s="190"/>
-      <c r="S13" s="190"/>
-      <c r="T13" s="190"/>
-      <c r="U13" s="190"/>
-      <c r="V13" s="190"/>
-      <c r="W13" s="190"/>
-      <c r="X13" s="190"/>
-      <c r="Y13" s="190"/>
-      <c r="Z13" s="190"/>
-      <c r="AA13" s="190"/>
-      <c r="AB13" s="190"/>
-      <c r="AC13" s="190"/>
-      <c r="AD13" s="190"/>
-      <c r="AE13" s="191"/>
-      <c r="AF13" s="186"/>
-      <c r="AG13" s="187"/>
-      <c r="AH13" s="187"/>
-      <c r="AI13" s="188"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="217"/>
+      <c r="J13" s="222"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="223"/>
+      <c r="O13" s="223"/>
+      <c r="P13" s="224"/>
+      <c r="Q13" s="225"/>
+      <c r="R13" s="226"/>
+      <c r="S13" s="226"/>
+      <c r="T13" s="226"/>
+      <c r="U13" s="226"/>
+      <c r="V13" s="226"/>
+      <c r="W13" s="226"/>
+      <c r="X13" s="226"/>
+      <c r="Y13" s="226"/>
+      <c r="Z13" s="226"/>
+      <c r="AA13" s="226"/>
+      <c r="AB13" s="226"/>
+      <c r="AC13" s="226"/>
+      <c r="AD13" s="226"/>
+      <c r="AE13" s="227"/>
+      <c r="AF13" s="222"/>
+      <c r="AG13" s="223"/>
+      <c r="AH13" s="223"/>
+      <c r="AI13" s="224"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="188"/>
-      <c r="Q14" s="189"/>
-      <c r="R14" s="190"/>
-      <c r="S14" s="190"/>
-      <c r="T14" s="190"/>
-      <c r="U14" s="190"/>
-      <c r="V14" s="190"/>
-      <c r="W14" s="190"/>
-      <c r="X14" s="190"/>
-      <c r="Y14" s="190"/>
-      <c r="Z14" s="190"/>
-      <c r="AA14" s="190"/>
-      <c r="AB14" s="190"/>
-      <c r="AC14" s="190"/>
-      <c r="AD14" s="190"/>
-      <c r="AE14" s="191"/>
-      <c r="AF14" s="186"/>
-      <c r="AG14" s="187"/>
-      <c r="AH14" s="187"/>
-      <c r="AI14" s="188"/>
+      <c r="B14" s="216"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="222"/>
+      <c r="K14" s="223"/>
+      <c r="L14" s="223"/>
+      <c r="M14" s="223"/>
+      <c r="N14" s="223"/>
+      <c r="O14" s="223"/>
+      <c r="P14" s="224"/>
+      <c r="Q14" s="225"/>
+      <c r="R14" s="226"/>
+      <c r="S14" s="226"/>
+      <c r="T14" s="226"/>
+      <c r="U14" s="226"/>
+      <c r="V14" s="226"/>
+      <c r="W14" s="226"/>
+      <c r="X14" s="226"/>
+      <c r="Y14" s="226"/>
+      <c r="Z14" s="226"/>
+      <c r="AA14" s="226"/>
+      <c r="AB14" s="226"/>
+      <c r="AC14" s="226"/>
+      <c r="AD14" s="226"/>
+      <c r="AE14" s="227"/>
+      <c r="AF14" s="222"/>
+      <c r="AG14" s="223"/>
+      <c r="AH14" s="223"/>
+      <c r="AI14" s="224"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="180"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="188"/>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="190"/>
-      <c r="S15" s="190"/>
-      <c r="T15" s="190"/>
-      <c r="U15" s="190"/>
-      <c r="V15" s="190"/>
-      <c r="W15" s="190"/>
-      <c r="X15" s="190"/>
-      <c r="Y15" s="190"/>
-      <c r="Z15" s="190"/>
-      <c r="AA15" s="190"/>
-      <c r="AB15" s="190"/>
-      <c r="AC15" s="190"/>
-      <c r="AD15" s="190"/>
-      <c r="AE15" s="191"/>
-      <c r="AF15" s="186"/>
-      <c r="AG15" s="187"/>
-      <c r="AH15" s="187"/>
-      <c r="AI15" s="188"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="217"/>
+      <c r="J15" s="222"/>
+      <c r="K15" s="223"/>
+      <c r="L15" s="223"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="223"/>
+      <c r="O15" s="223"/>
+      <c r="P15" s="224"/>
+      <c r="Q15" s="225"/>
+      <c r="R15" s="226"/>
+      <c r="S15" s="226"/>
+      <c r="T15" s="226"/>
+      <c r="U15" s="226"/>
+      <c r="V15" s="226"/>
+      <c r="W15" s="226"/>
+      <c r="X15" s="226"/>
+      <c r="Y15" s="226"/>
+      <c r="Z15" s="226"/>
+      <c r="AA15" s="226"/>
+      <c r="AB15" s="226"/>
+      <c r="AC15" s="226"/>
+      <c r="AD15" s="226"/>
+      <c r="AE15" s="227"/>
+      <c r="AF15" s="222"/>
+      <c r="AG15" s="223"/>
+      <c r="AH15" s="223"/>
+      <c r="AI15" s="224"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="187"/>
-      <c r="N16" s="187"/>
-      <c r="O16" s="187"/>
-      <c r="P16" s="188"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="190"/>
-      <c r="S16" s="190"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="190"/>
-      <c r="V16" s="190"/>
-      <c r="W16" s="190"/>
-      <c r="X16" s="190"/>
-      <c r="Y16" s="190"/>
-      <c r="Z16" s="190"/>
-      <c r="AA16" s="190"/>
-      <c r="AB16" s="190"/>
-      <c r="AC16" s="190"/>
-      <c r="AD16" s="190"/>
-      <c r="AE16" s="191"/>
-      <c r="AF16" s="186"/>
-      <c r="AG16" s="187"/>
-      <c r="AH16" s="187"/>
-      <c r="AI16" s="188"/>
+      <c r="B16" s="216"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="222"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="223"/>
+      <c r="O16" s="223"/>
+      <c r="P16" s="224"/>
+      <c r="Q16" s="225"/>
+      <c r="R16" s="226"/>
+      <c r="S16" s="226"/>
+      <c r="T16" s="226"/>
+      <c r="U16" s="226"/>
+      <c r="V16" s="226"/>
+      <c r="W16" s="226"/>
+      <c r="X16" s="226"/>
+      <c r="Y16" s="226"/>
+      <c r="Z16" s="226"/>
+      <c r="AA16" s="226"/>
+      <c r="AB16" s="226"/>
+      <c r="AC16" s="226"/>
+      <c r="AD16" s="226"/>
+      <c r="AE16" s="227"/>
+      <c r="AF16" s="222"/>
+      <c r="AG16" s="223"/>
+      <c r="AH16" s="223"/>
+      <c r="AI16" s="224"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="187"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="189"/>
-      <c r="R17" s="190"/>
-      <c r="S17" s="190"/>
-      <c r="T17" s="190"/>
-      <c r="U17" s="190"/>
-      <c r="V17" s="190"/>
-      <c r="W17" s="190"/>
-      <c r="X17" s="190"/>
-      <c r="Y17" s="190"/>
-      <c r="Z17" s="190"/>
-      <c r="AA17" s="190"/>
-      <c r="AB17" s="190"/>
-      <c r="AC17" s="190"/>
-      <c r="AD17" s="190"/>
-      <c r="AE17" s="191"/>
-      <c r="AF17" s="186"/>
-      <c r="AG17" s="187"/>
-      <c r="AH17" s="187"/>
-      <c r="AI17" s="188"/>
+      <c r="B17" s="216"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="222"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="225"/>
+      <c r="R17" s="226"/>
+      <c r="S17" s="226"/>
+      <c r="T17" s="226"/>
+      <c r="U17" s="226"/>
+      <c r="V17" s="226"/>
+      <c r="W17" s="226"/>
+      <c r="X17" s="226"/>
+      <c r="Y17" s="226"/>
+      <c r="Z17" s="226"/>
+      <c r="AA17" s="226"/>
+      <c r="AB17" s="226"/>
+      <c r="AC17" s="226"/>
+      <c r="AD17" s="226"/>
+      <c r="AE17" s="227"/>
+      <c r="AF17" s="222"/>
+      <c r="AG17" s="223"/>
+      <c r="AH17" s="223"/>
+      <c r="AI17" s="224"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="187"/>
-      <c r="P18" s="188"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="190"/>
-      <c r="S18" s="190"/>
-      <c r="T18" s="190"/>
-      <c r="U18" s="190"/>
-      <c r="V18" s="190"/>
-      <c r="W18" s="190"/>
-      <c r="X18" s="190"/>
-      <c r="Y18" s="190"/>
-      <c r="Z18" s="190"/>
-      <c r="AA18" s="190"/>
-      <c r="AB18" s="190"/>
-      <c r="AC18" s="190"/>
-      <c r="AD18" s="190"/>
-      <c r="AE18" s="191"/>
-      <c r="AF18" s="186"/>
-      <c r="AG18" s="187"/>
-      <c r="AH18" s="187"/>
-      <c r="AI18" s="188"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="222"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="223"/>
+      <c r="O18" s="223"/>
+      <c r="P18" s="224"/>
+      <c r="Q18" s="225"/>
+      <c r="R18" s="226"/>
+      <c r="S18" s="226"/>
+      <c r="T18" s="226"/>
+      <c r="U18" s="226"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="226"/>
+      <c r="Y18" s="226"/>
+      <c r="Z18" s="226"/>
+      <c r="AA18" s="226"/>
+      <c r="AB18" s="226"/>
+      <c r="AC18" s="226"/>
+      <c r="AD18" s="226"/>
+      <c r="AE18" s="227"/>
+      <c r="AF18" s="222"/>
+      <c r="AG18" s="223"/>
+      <c r="AH18" s="223"/>
+      <c r="AI18" s="224"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="187"/>
-      <c r="P19" s="188"/>
-      <c r="Q19" s="189"/>
-      <c r="R19" s="190"/>
-      <c r="S19" s="190"/>
-      <c r="T19" s="190"/>
-      <c r="U19" s="190"/>
-      <c r="V19" s="190"/>
-      <c r="W19" s="190"/>
-      <c r="X19" s="190"/>
-      <c r="Y19" s="190"/>
-      <c r="Z19" s="190"/>
-      <c r="AA19" s="190"/>
-      <c r="AB19" s="190"/>
-      <c r="AC19" s="190"/>
-      <c r="AD19" s="190"/>
-      <c r="AE19" s="191"/>
-      <c r="AF19" s="186"/>
-      <c r="AG19" s="187"/>
-      <c r="AH19" s="187"/>
-      <c r="AI19" s="188"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="222"/>
+      <c r="K19" s="223"/>
+      <c r="L19" s="223"/>
+      <c r="M19" s="223"/>
+      <c r="N19" s="223"/>
+      <c r="O19" s="223"/>
+      <c r="P19" s="224"/>
+      <c r="Q19" s="225"/>
+      <c r="R19" s="226"/>
+      <c r="S19" s="226"/>
+      <c r="T19" s="226"/>
+      <c r="U19" s="226"/>
+      <c r="V19" s="226"/>
+      <c r="W19" s="226"/>
+      <c r="X19" s="226"/>
+      <c r="Y19" s="226"/>
+      <c r="Z19" s="226"/>
+      <c r="AA19" s="226"/>
+      <c r="AB19" s="226"/>
+      <c r="AC19" s="226"/>
+      <c r="AD19" s="226"/>
+      <c r="AE19" s="227"/>
+      <c r="AF19" s="222"/>
+      <c r="AG19" s="223"/>
+      <c r="AH19" s="223"/>
+      <c r="AI19" s="224"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="180"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="187"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="189"/>
-      <c r="R20" s="190"/>
-      <c r="S20" s="190"/>
-      <c r="T20" s="190"/>
-      <c r="U20" s="190"/>
-      <c r="V20" s="190"/>
-      <c r="W20" s="190"/>
-      <c r="X20" s="190"/>
-      <c r="Y20" s="190"/>
-      <c r="Z20" s="190"/>
-      <c r="AA20" s="190"/>
-      <c r="AB20" s="190"/>
-      <c r="AC20" s="190"/>
-      <c r="AD20" s="190"/>
-      <c r="AE20" s="191"/>
-      <c r="AF20" s="186"/>
-      <c r="AG20" s="187"/>
-      <c r="AH20" s="187"/>
-      <c r="AI20" s="188"/>
+      <c r="B20" s="216"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="216"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="217"/>
+      <c r="J20" s="222"/>
+      <c r="K20" s="223"/>
+      <c r="L20" s="223"/>
+      <c r="M20" s="223"/>
+      <c r="N20" s="223"/>
+      <c r="O20" s="223"/>
+      <c r="P20" s="224"/>
+      <c r="Q20" s="225"/>
+      <c r="R20" s="226"/>
+      <c r="S20" s="226"/>
+      <c r="T20" s="226"/>
+      <c r="U20" s="226"/>
+      <c r="V20" s="226"/>
+      <c r="W20" s="226"/>
+      <c r="X20" s="226"/>
+      <c r="Y20" s="226"/>
+      <c r="Z20" s="226"/>
+      <c r="AA20" s="226"/>
+      <c r="AB20" s="226"/>
+      <c r="AC20" s="226"/>
+      <c r="AD20" s="226"/>
+      <c r="AE20" s="227"/>
+      <c r="AF20" s="222"/>
+      <c r="AG20" s="223"/>
+      <c r="AH20" s="223"/>
+      <c r="AI20" s="224"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="187"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="187"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="189"/>
-      <c r="R21" s="190"/>
-      <c r="S21" s="190"/>
-      <c r="T21" s="190"/>
-      <c r="U21" s="190"/>
-      <c r="V21" s="190"/>
-      <c r="W21" s="190"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="190"/>
-      <c r="Z21" s="190"/>
-      <c r="AA21" s="190"/>
-      <c r="AB21" s="190"/>
-      <c r="AC21" s="190"/>
-      <c r="AD21" s="190"/>
-      <c r="AE21" s="191"/>
-      <c r="AF21" s="186"/>
-      <c r="AG21" s="187"/>
-      <c r="AH21" s="187"/>
-      <c r="AI21" s="188"/>
+      <c r="B21" s="216"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="217"/>
+      <c r="J21" s="222"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="223"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="223"/>
+      <c r="O21" s="223"/>
+      <c r="P21" s="224"/>
+      <c r="Q21" s="225"/>
+      <c r="R21" s="226"/>
+      <c r="S21" s="226"/>
+      <c r="T21" s="226"/>
+      <c r="U21" s="226"/>
+      <c r="V21" s="226"/>
+      <c r="W21" s="226"/>
+      <c r="X21" s="226"/>
+      <c r="Y21" s="226"/>
+      <c r="Z21" s="226"/>
+      <c r="AA21" s="226"/>
+      <c r="AB21" s="226"/>
+      <c r="AC21" s="226"/>
+      <c r="AD21" s="226"/>
+      <c r="AE21" s="227"/>
+      <c r="AF21" s="222"/>
+      <c r="AG21" s="223"/>
+      <c r="AH21" s="223"/>
+      <c r="AI21" s="224"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="180"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="187"/>
-      <c r="M22" s="187"/>
-      <c r="N22" s="187"/>
-      <c r="O22" s="187"/>
-      <c r="P22" s="188"/>
-      <c r="Q22" s="189"/>
-      <c r="R22" s="190"/>
-      <c r="S22" s="190"/>
-      <c r="T22" s="190"/>
-      <c r="U22" s="190"/>
-      <c r="V22" s="190"/>
-      <c r="W22" s="190"/>
-      <c r="X22" s="190"/>
-      <c r="Y22" s="190"/>
-      <c r="Z22" s="190"/>
-      <c r="AA22" s="190"/>
-      <c r="AB22" s="190"/>
-      <c r="AC22" s="190"/>
-      <c r="AD22" s="190"/>
-      <c r="AE22" s="191"/>
-      <c r="AF22" s="186"/>
-      <c r="AG22" s="187"/>
-      <c r="AH22" s="187"/>
-      <c r="AI22" s="188"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="217"/>
+      <c r="J22" s="222"/>
+      <c r="K22" s="223"/>
+      <c r="L22" s="223"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="223"/>
+      <c r="O22" s="223"/>
+      <c r="P22" s="224"/>
+      <c r="Q22" s="225"/>
+      <c r="R22" s="226"/>
+      <c r="S22" s="226"/>
+      <c r="T22" s="226"/>
+      <c r="U22" s="226"/>
+      <c r="V22" s="226"/>
+      <c r="W22" s="226"/>
+      <c r="X22" s="226"/>
+      <c r="Y22" s="226"/>
+      <c r="Z22" s="226"/>
+      <c r="AA22" s="226"/>
+      <c r="AB22" s="226"/>
+      <c r="AC22" s="226"/>
+      <c r="AD22" s="226"/>
+      <c r="AE22" s="227"/>
+      <c r="AF22" s="222"/>
+      <c r="AG22" s="223"/>
+      <c r="AH22" s="223"/>
+      <c r="AI22" s="224"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="180"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="187"/>
-      <c r="M23" s="187"/>
-      <c r="N23" s="187"/>
-      <c r="O23" s="187"/>
-      <c r="P23" s="188"/>
-      <c r="Q23" s="189"/>
-      <c r="R23" s="190"/>
-      <c r="S23" s="190"/>
-      <c r="T23" s="190"/>
-      <c r="U23" s="190"/>
-      <c r="V23" s="190"/>
-      <c r="W23" s="190"/>
-      <c r="X23" s="190"/>
-      <c r="Y23" s="190"/>
-      <c r="Z23" s="190"/>
-      <c r="AA23" s="190"/>
-      <c r="AB23" s="190"/>
-      <c r="AC23" s="190"/>
-      <c r="AD23" s="190"/>
-      <c r="AE23" s="191"/>
-      <c r="AF23" s="186"/>
-      <c r="AG23" s="187"/>
-      <c r="AH23" s="187"/>
-      <c r="AI23" s="188"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="217"/>
+      <c r="J23" s="222"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="223"/>
+      <c r="M23" s="223"/>
+      <c r="N23" s="223"/>
+      <c r="O23" s="223"/>
+      <c r="P23" s="224"/>
+      <c r="Q23" s="225"/>
+      <c r="R23" s="226"/>
+      <c r="S23" s="226"/>
+      <c r="T23" s="226"/>
+      <c r="U23" s="226"/>
+      <c r="V23" s="226"/>
+      <c r="W23" s="226"/>
+      <c r="X23" s="226"/>
+      <c r="Y23" s="226"/>
+      <c r="Z23" s="226"/>
+      <c r="AA23" s="226"/>
+      <c r="AB23" s="226"/>
+      <c r="AC23" s="226"/>
+      <c r="AD23" s="226"/>
+      <c r="AE23" s="227"/>
+      <c r="AF23" s="222"/>
+      <c r="AG23" s="223"/>
+      <c r="AH23" s="223"/>
+      <c r="AI23" s="224"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="180"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="187"/>
-      <c r="M24" s="187"/>
-      <c r="N24" s="187"/>
-      <c r="O24" s="187"/>
-      <c r="P24" s="188"/>
-      <c r="Q24" s="189"/>
-      <c r="R24" s="190"/>
-      <c r="S24" s="190"/>
-      <c r="T24" s="190"/>
-      <c r="U24" s="190"/>
-      <c r="V24" s="190"/>
-      <c r="W24" s="190"/>
-      <c r="X24" s="190"/>
-      <c r="Y24" s="190"/>
-      <c r="Z24" s="190"/>
-      <c r="AA24" s="190"/>
-      <c r="AB24" s="190"/>
-      <c r="AC24" s="190"/>
-      <c r="AD24" s="190"/>
-      <c r="AE24" s="191"/>
-      <c r="AF24" s="186"/>
-      <c r="AG24" s="187"/>
-      <c r="AH24" s="187"/>
-      <c r="AI24" s="188"/>
+      <c r="B24" s="216"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="217"/>
+      <c r="J24" s="222"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="223"/>
+      <c r="O24" s="223"/>
+      <c r="P24" s="224"/>
+      <c r="Q24" s="225"/>
+      <c r="R24" s="226"/>
+      <c r="S24" s="226"/>
+      <c r="T24" s="226"/>
+      <c r="U24" s="226"/>
+      <c r="V24" s="226"/>
+      <c r="W24" s="226"/>
+      <c r="X24" s="226"/>
+      <c r="Y24" s="226"/>
+      <c r="Z24" s="226"/>
+      <c r="AA24" s="226"/>
+      <c r="AB24" s="226"/>
+      <c r="AC24" s="226"/>
+      <c r="AD24" s="226"/>
+      <c r="AE24" s="227"/>
+      <c r="AF24" s="222"/>
+      <c r="AG24" s="223"/>
+      <c r="AH24" s="223"/>
+      <c r="AI24" s="224"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="187"/>
-      <c r="M25" s="187"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="188"/>
-      <c r="Q25" s="189"/>
-      <c r="R25" s="190"/>
-      <c r="S25" s="190"/>
-      <c r="T25" s="190"/>
-      <c r="U25" s="190"/>
-      <c r="V25" s="190"/>
-      <c r="W25" s="190"/>
-      <c r="X25" s="190"/>
-      <c r="Y25" s="190"/>
-      <c r="Z25" s="190"/>
-      <c r="AA25" s="190"/>
-      <c r="AB25" s="190"/>
-      <c r="AC25" s="190"/>
-      <c r="AD25" s="190"/>
-      <c r="AE25" s="191"/>
-      <c r="AF25" s="186"/>
-      <c r="AG25" s="187"/>
-      <c r="AH25" s="187"/>
-      <c r="AI25" s="188"/>
+      <c r="B25" s="216"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="217"/>
+      <c r="J25" s="222"/>
+      <c r="K25" s="223"/>
+      <c r="L25" s="223"/>
+      <c r="M25" s="223"/>
+      <c r="N25" s="223"/>
+      <c r="O25" s="223"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="225"/>
+      <c r="R25" s="226"/>
+      <c r="S25" s="226"/>
+      <c r="T25" s="226"/>
+      <c r="U25" s="226"/>
+      <c r="V25" s="226"/>
+      <c r="W25" s="226"/>
+      <c r="X25" s="226"/>
+      <c r="Y25" s="226"/>
+      <c r="Z25" s="226"/>
+      <c r="AA25" s="226"/>
+      <c r="AB25" s="226"/>
+      <c r="AC25" s="226"/>
+      <c r="AD25" s="226"/>
+      <c r="AE25" s="227"/>
+      <c r="AF25" s="222"/>
+      <c r="AG25" s="223"/>
+      <c r="AH25" s="223"/>
+      <c r="AI25" s="224"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="187"/>
-      <c r="P26" s="188"/>
-      <c r="Q26" s="189"/>
-      <c r="R26" s="190"/>
-      <c r="S26" s="190"/>
-      <c r="T26" s="190"/>
-      <c r="U26" s="190"/>
-      <c r="V26" s="190"/>
-      <c r="W26" s="190"/>
-      <c r="X26" s="190"/>
-      <c r="Y26" s="190"/>
-      <c r="Z26" s="190"/>
-      <c r="AA26" s="190"/>
-      <c r="AB26" s="190"/>
-      <c r="AC26" s="190"/>
-      <c r="AD26" s="190"/>
-      <c r="AE26" s="191"/>
-      <c r="AF26" s="186"/>
-      <c r="AG26" s="187"/>
-      <c r="AH26" s="187"/>
-      <c r="AI26" s="188"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="222"/>
+      <c r="K26" s="223"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="223"/>
+      <c r="N26" s="223"/>
+      <c r="O26" s="223"/>
+      <c r="P26" s="224"/>
+      <c r="Q26" s="225"/>
+      <c r="R26" s="226"/>
+      <c r="S26" s="226"/>
+      <c r="T26" s="226"/>
+      <c r="U26" s="226"/>
+      <c r="V26" s="226"/>
+      <c r="W26" s="226"/>
+      <c r="X26" s="226"/>
+      <c r="Y26" s="226"/>
+      <c r="Z26" s="226"/>
+      <c r="AA26" s="226"/>
+      <c r="AB26" s="226"/>
+      <c r="AC26" s="226"/>
+      <c r="AD26" s="226"/>
+      <c r="AE26" s="227"/>
+      <c r="AF26" s="222"/>
+      <c r="AG26" s="223"/>
+      <c r="AH26" s="223"/>
+      <c r="AI26" s="224"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="187"/>
-      <c r="P27" s="188"/>
-      <c r="Q27" s="189"/>
-      <c r="R27" s="190"/>
-      <c r="S27" s="190"/>
-      <c r="T27" s="190"/>
-      <c r="U27" s="190"/>
-      <c r="V27" s="190"/>
-      <c r="W27" s="190"/>
-      <c r="X27" s="190"/>
-      <c r="Y27" s="190"/>
-      <c r="Z27" s="190"/>
-      <c r="AA27" s="190"/>
-      <c r="AB27" s="190"/>
-      <c r="AC27" s="190"/>
-      <c r="AD27" s="190"/>
-      <c r="AE27" s="191"/>
-      <c r="AF27" s="186"/>
-      <c r="AG27" s="187"/>
-      <c r="AH27" s="187"/>
-      <c r="AI27" s="188"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="217"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="217"/>
+      <c r="J27" s="222"/>
+      <c r="K27" s="223"/>
+      <c r="L27" s="223"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="223"/>
+      <c r="O27" s="223"/>
+      <c r="P27" s="224"/>
+      <c r="Q27" s="225"/>
+      <c r="R27" s="226"/>
+      <c r="S27" s="226"/>
+      <c r="T27" s="226"/>
+      <c r="U27" s="226"/>
+      <c r="V27" s="226"/>
+      <c r="W27" s="226"/>
+      <c r="X27" s="226"/>
+      <c r="Y27" s="226"/>
+      <c r="Z27" s="226"/>
+      <c r="AA27" s="226"/>
+      <c r="AB27" s="226"/>
+      <c r="AC27" s="226"/>
+      <c r="AD27" s="226"/>
+      <c r="AE27" s="227"/>
+      <c r="AF27" s="222"/>
+      <c r="AG27" s="223"/>
+      <c r="AH27" s="223"/>
+      <c r="AI27" s="224"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="187"/>
-      <c r="M28" s="187"/>
-      <c r="N28" s="187"/>
-      <c r="O28" s="187"/>
-      <c r="P28" s="188"/>
-      <c r="Q28" s="189"/>
-      <c r="R28" s="190"/>
-      <c r="S28" s="190"/>
-      <c r="T28" s="190"/>
-      <c r="U28" s="190"/>
-      <c r="V28" s="190"/>
-      <c r="W28" s="190"/>
-      <c r="X28" s="190"/>
-      <c r="Y28" s="190"/>
-      <c r="Z28" s="190"/>
-      <c r="AA28" s="190"/>
-      <c r="AB28" s="190"/>
-      <c r="AC28" s="190"/>
-      <c r="AD28" s="190"/>
-      <c r="AE28" s="191"/>
-      <c r="AF28" s="186"/>
-      <c r="AG28" s="187"/>
-      <c r="AH28" s="187"/>
-      <c r="AI28" s="188"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="217"/>
+      <c r="J28" s="222"/>
+      <c r="K28" s="223"/>
+      <c r="L28" s="223"/>
+      <c r="M28" s="223"/>
+      <c r="N28" s="223"/>
+      <c r="O28" s="223"/>
+      <c r="P28" s="224"/>
+      <c r="Q28" s="225"/>
+      <c r="R28" s="226"/>
+      <c r="S28" s="226"/>
+      <c r="T28" s="226"/>
+      <c r="U28" s="226"/>
+      <c r="V28" s="226"/>
+      <c r="W28" s="226"/>
+      <c r="X28" s="226"/>
+      <c r="Y28" s="226"/>
+      <c r="Z28" s="226"/>
+      <c r="AA28" s="226"/>
+      <c r="AB28" s="226"/>
+      <c r="AC28" s="226"/>
+      <c r="AD28" s="226"/>
+      <c r="AE28" s="227"/>
+      <c r="AF28" s="222"/>
+      <c r="AG28" s="223"/>
+      <c r="AH28" s="223"/>
+      <c r="AI28" s="224"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="180"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="187"/>
-      <c r="P29" s="188"/>
-      <c r="Q29" s="189"/>
-      <c r="R29" s="190"/>
-      <c r="S29" s="190"/>
-      <c r="T29" s="190"/>
-      <c r="U29" s="190"/>
-      <c r="V29" s="190"/>
-      <c r="W29" s="190"/>
-      <c r="X29" s="190"/>
-      <c r="Y29" s="190"/>
-      <c r="Z29" s="190"/>
-      <c r="AA29" s="190"/>
-      <c r="AB29" s="190"/>
-      <c r="AC29" s="190"/>
-      <c r="AD29" s="190"/>
-      <c r="AE29" s="191"/>
-      <c r="AF29" s="186"/>
-      <c r="AG29" s="187"/>
-      <c r="AH29" s="187"/>
-      <c r="AI29" s="188"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="222"/>
+      <c r="K29" s="223"/>
+      <c r="L29" s="223"/>
+      <c r="M29" s="223"/>
+      <c r="N29" s="223"/>
+      <c r="O29" s="223"/>
+      <c r="P29" s="224"/>
+      <c r="Q29" s="225"/>
+      <c r="R29" s="226"/>
+      <c r="S29" s="226"/>
+      <c r="T29" s="226"/>
+      <c r="U29" s="226"/>
+      <c r="V29" s="226"/>
+      <c r="W29" s="226"/>
+      <c r="X29" s="226"/>
+      <c r="Y29" s="226"/>
+      <c r="Z29" s="226"/>
+      <c r="AA29" s="226"/>
+      <c r="AB29" s="226"/>
+      <c r="AC29" s="226"/>
+      <c r="AD29" s="226"/>
+      <c r="AE29" s="227"/>
+      <c r="AF29" s="222"/>
+      <c r="AG29" s="223"/>
+      <c r="AH29" s="223"/>
+      <c r="AI29" s="224"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="180"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187"/>
-      <c r="O30" s="187"/>
-      <c r="P30" s="188"/>
-      <c r="Q30" s="189"/>
-      <c r="R30" s="190"/>
-      <c r="S30" s="190"/>
-      <c r="T30" s="190"/>
-      <c r="U30" s="190"/>
-      <c r="V30" s="190"/>
-      <c r="W30" s="190"/>
-      <c r="X30" s="190"/>
-      <c r="Y30" s="190"/>
-      <c r="Z30" s="190"/>
-      <c r="AA30" s="190"/>
-      <c r="AB30" s="190"/>
-      <c r="AC30" s="190"/>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="186"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="187"/>
-      <c r="AI30" s="188"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="222"/>
+      <c r="K30" s="223"/>
+      <c r="L30" s="223"/>
+      <c r="M30" s="223"/>
+      <c r="N30" s="223"/>
+      <c r="O30" s="223"/>
+      <c r="P30" s="224"/>
+      <c r="Q30" s="225"/>
+      <c r="R30" s="226"/>
+      <c r="S30" s="226"/>
+      <c r="T30" s="226"/>
+      <c r="U30" s="226"/>
+      <c r="V30" s="226"/>
+      <c r="W30" s="226"/>
+      <c r="X30" s="226"/>
+      <c r="Y30" s="226"/>
+      <c r="Z30" s="226"/>
+      <c r="AA30" s="226"/>
+      <c r="AB30" s="226"/>
+      <c r="AC30" s="226"/>
+      <c r="AD30" s="226"/>
+      <c r="AE30" s="227"/>
+      <c r="AF30" s="222"/>
+      <c r="AG30" s="223"/>
+      <c r="AH30" s="223"/>
+      <c r="AI30" s="224"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="180"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="187"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="187"/>
-      <c r="P31" s="188"/>
-      <c r="Q31" s="189"/>
-      <c r="R31" s="190"/>
-      <c r="S31" s="190"/>
-      <c r="T31" s="190"/>
-      <c r="U31" s="190"/>
-      <c r="V31" s="190"/>
-      <c r="W31" s="190"/>
-      <c r="X31" s="190"/>
-      <c r="Y31" s="190"/>
-      <c r="Z31" s="190"/>
-      <c r="AA31" s="190"/>
-      <c r="AB31" s="190"/>
-      <c r="AC31" s="190"/>
-      <c r="AD31" s="190"/>
-      <c r="AE31" s="191"/>
-      <c r="AF31" s="186"/>
-      <c r="AG31" s="187"/>
-      <c r="AH31" s="187"/>
-      <c r="AI31" s="188"/>
+      <c r="B31" s="216"/>
+      <c r="C31" s="217"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="222"/>
+      <c r="K31" s="223"/>
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="223"/>
+      <c r="O31" s="223"/>
+      <c r="P31" s="224"/>
+      <c r="Q31" s="225"/>
+      <c r="R31" s="226"/>
+      <c r="S31" s="226"/>
+      <c r="T31" s="226"/>
+      <c r="U31" s="226"/>
+      <c r="V31" s="226"/>
+      <c r="W31" s="226"/>
+      <c r="X31" s="226"/>
+      <c r="Y31" s="226"/>
+      <c r="Z31" s="226"/>
+      <c r="AA31" s="226"/>
+      <c r="AB31" s="226"/>
+      <c r="AC31" s="226"/>
+      <c r="AD31" s="226"/>
+      <c r="AE31" s="227"/>
+      <c r="AF31" s="222"/>
+      <c r="AG31" s="223"/>
+      <c r="AH31" s="223"/>
+      <c r="AI31" s="224"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="180"/>
-      <c r="C32" s="181"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="192"/>
-      <c r="L32" s="187"/>
-      <c r="M32" s="187"/>
-      <c r="N32" s="187"/>
-      <c r="O32" s="187"/>
-      <c r="P32" s="188"/>
-      <c r="Q32" s="189"/>
-      <c r="R32" s="190"/>
-      <c r="S32" s="190"/>
-      <c r="T32" s="190"/>
-      <c r="U32" s="190"/>
-      <c r="V32" s="190"/>
-      <c r="W32" s="190"/>
-      <c r="X32" s="190"/>
-      <c r="Y32" s="190"/>
-      <c r="Z32" s="190"/>
-      <c r="AA32" s="190"/>
-      <c r="AB32" s="190"/>
-      <c r="AC32" s="190"/>
-      <c r="AD32" s="190"/>
-      <c r="AE32" s="191"/>
-      <c r="AF32" s="186"/>
-      <c r="AG32" s="187"/>
-      <c r="AH32" s="187"/>
-      <c r="AI32" s="188"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="217"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="222"/>
+      <c r="K32" s="241"/>
+      <c r="L32" s="223"/>
+      <c r="M32" s="223"/>
+      <c r="N32" s="223"/>
+      <c r="O32" s="223"/>
+      <c r="P32" s="224"/>
+      <c r="Q32" s="225"/>
+      <c r="R32" s="226"/>
+      <c r="S32" s="226"/>
+      <c r="T32" s="226"/>
+      <c r="U32" s="226"/>
+      <c r="V32" s="226"/>
+      <c r="W32" s="226"/>
+      <c r="X32" s="226"/>
+      <c r="Y32" s="226"/>
+      <c r="Z32" s="226"/>
+      <c r="AA32" s="226"/>
+      <c r="AB32" s="226"/>
+      <c r="AC32" s="226"/>
+      <c r="AD32" s="226"/>
+      <c r="AE32" s="227"/>
+      <c r="AF32" s="222"/>
+      <c r="AG32" s="223"/>
+      <c r="AH32" s="223"/>
+      <c r="AI32" s="224"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="187"/>
-      <c r="P33" s="188"/>
-      <c r="Q33" s="189"/>
-      <c r="R33" s="190"/>
-      <c r="S33" s="190"/>
-      <c r="T33" s="190"/>
-      <c r="U33" s="190"/>
-      <c r="V33" s="190"/>
-      <c r="W33" s="190"/>
-      <c r="X33" s="190"/>
-      <c r="Y33" s="190"/>
-      <c r="Z33" s="190"/>
-      <c r="AA33" s="190"/>
-      <c r="AB33" s="190"/>
-      <c r="AC33" s="190"/>
-      <c r="AD33" s="190"/>
-      <c r="AE33" s="191"/>
-      <c r="AF33" s="186"/>
-      <c r="AG33" s="187"/>
-      <c r="AH33" s="187"/>
-      <c r="AI33" s="188"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="221"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="222"/>
+      <c r="K33" s="223"/>
+      <c r="L33" s="223"/>
+      <c r="M33" s="223"/>
+      <c r="N33" s="223"/>
+      <c r="O33" s="223"/>
+      <c r="P33" s="224"/>
+      <c r="Q33" s="225"/>
+      <c r="R33" s="226"/>
+      <c r="S33" s="226"/>
+      <c r="T33" s="226"/>
+      <c r="U33" s="226"/>
+      <c r="V33" s="226"/>
+      <c r="W33" s="226"/>
+      <c r="X33" s="226"/>
+      <c r="Y33" s="226"/>
+      <c r="Z33" s="226"/>
+      <c r="AA33" s="226"/>
+      <c r="AB33" s="226"/>
+      <c r="AC33" s="226"/>
+      <c r="AD33" s="226"/>
+      <c r="AE33" s="227"/>
+      <c r="AF33" s="222"/>
+      <c r="AG33" s="223"/>
+      <c r="AH33" s="223"/>
+      <c r="AI33" s="224"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13278,162 +13434,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -28543,7 +28543,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D11)&gt;0)*ROW($D$11:D11),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E11),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E11)&gt;0)*ROW($E$11:E11),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E11)&gt;0)*ROW($E$11:E11),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I11),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28579,7 +28579,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D12)&gt;0)*ROW($D$11:D12),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E12),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E12)&gt;0)*ROW($E$11:E12),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E12)&gt;0)*ROW($E$11:E12),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I12),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28611,7 +28611,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D13)&gt;0)*ROW($D$11:D13),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E13),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E13)&gt;0)*ROW($E$11:E13),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E13)&gt;0)*ROW($E$11:E13),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I13),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28645,7 +28645,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D14)&gt;0)*ROW($D$11:D14),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E14),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E14)&gt;0)*ROW($E$11:E14),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E14)&gt;0)*ROW($E$11:E14),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I14),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28677,7 +28677,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D15)&gt;0)*ROW($D$11:D15),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E15),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E15)&gt;0)*ROW($E$11:E15),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E15)&gt;0)*ROW($E$11:E15),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I15),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28711,7 +28711,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D16)&gt;0)*ROW($D$11:D16),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E16),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E16)&gt;0)*ROW($E$11:E16),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E16)&gt;0)*ROW($E$11:E16),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I16),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28745,7 +28745,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D17)&gt;0)*ROW($D$11:D17),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E17),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E17)&gt;0)*ROW($E$11:E17),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E17)&gt;0)*ROW($E$11:E17),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I17),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28779,7 +28779,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D18)&gt;0)*ROW($D$11:D18),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E18),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E18)&gt;0)*ROW($E$11:E18),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E18)&gt;0)*ROW($E$11:E18),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I18),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28813,7 +28813,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D19)&gt;0)*ROW($D$11:D19),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E19),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E19)&gt;0)*ROW($E$11:E19),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E19)&gt;0)*ROW($E$11:E19),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I19),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28849,7 +28849,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D20)&gt;0)*ROW($D$11:D20),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E20),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E20)&gt;0)*ROW($E$11:E20),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E20)&gt;0)*ROW($E$11:E20),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I20),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28883,7 +28883,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D21)&gt;0)*ROW($D$11:D21),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E21),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E21)&gt;0)*ROW($E$11:E21),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E21)&gt;0)*ROW($E$11:E21),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I21),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28917,7 +28917,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D22)&gt;0)*ROW($D$11:D22),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E22),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E22)&gt;0)*ROW($E$11:E22),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E22)&gt;0)*ROW($E$11:E22),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I22),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28953,7 +28953,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D23)&gt;0)*ROW($D$11:D23),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E23),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E23)&gt;0)*ROW($E$11:E23),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E23)&gt;0)*ROW($E$11:E23),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I23),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -28987,7 +28987,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D24)&gt;0)*ROW($D$11:D24),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E24),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E24)&gt;0)*ROW($E$11:E24),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E24)&gt;0)*ROW($E$11:E24),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I24),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -29023,7 +29023,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D25)&gt;0)*ROW($D$11:D25),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E25),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E25)&gt;0)*ROW($E$11:E25),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E25)&gt;0)*ROW($E$11:E25),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I25),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -29055,7 +29055,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D26)&gt;0)*ROW($D$11:D26),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E26),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E26)&gt;0)*ROW($E$11:E26),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E26)&gt;0)*ROW($E$11:E26),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I26),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -29089,7 +29089,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D27)&gt;0)*ROW($D$11:D27),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E27),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E27)&gt;0)*ROW($E$11:E27),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E27)&gt;0)*ROW($E$11:E27),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I27),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -29121,7 +29121,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D28)&gt;0)*ROW($D$11:D28),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E28),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E28)&gt;0)*ROW($E$11:E28),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E28)&gt;0)*ROW($E$11:E28),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I28),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -29159,7 +29159,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D29)&gt;0)*ROW($D$11:D29),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E29),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E29)&gt;0)*ROW($E$11:E29),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E29)&gt;0)*ROW($E$11:E29),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I29),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10301_TOPメニュー.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10301_TOPメニュー.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD9247B-6EB7-41A8-A138-0A46675A141D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D3CA24-C123-4D9B-A544-4C090060EBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,6 +45,20 @@
     <author>作成者</author>
   </authors>
   <commentList>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{E9235301-3C55-4AE0-9A08-589783FD8B07}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>画面単位でリクエスト単体テストを実施するため、リクエストIDは不要。</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{8A4C8A02-BF74-4CD4-9883-F51627945261}">
       <text>
         <r>
@@ -118,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="700">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -9035,16 +9049,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストターゲット名：WA10301</t>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>数値項目に有効範囲の下限値－1が入力された場合、エラーとなること。</t>
     <rPh sb="10" eb="12">
       <t>カゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストID：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストターゲット名：TOPメニュー（WA10301）</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9058,7 +9076,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -9218,6 +9236,13 @@
       <color indexed="12"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -13508,7 +13533,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="24" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -13522,7 +13547,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="11.5" thickBot="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="26" t="s">
+        <v>698</v>
+      </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -14074,7 +14101,7 @@
       <c r="D24" s="116"/>
       <c r="E24" s="114"/>
       <c r="F24" s="100" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G24" s="67" t="s">
         <v>520</v>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10301_TOPメニュー.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10301_TOPメニュー.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D3CA24-C123-4D9B-A544-4C090060EBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A5A758-563D-4D6F-B62B-FBF795CCA700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -45,20 +45,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{E9235301-3C55-4AE0-9A08-589783FD8B07}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>画面単位でリクエスト単体テストを実施するため、リクエストIDは不要。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{8A4C8A02-BF74-4CD4-9883-F51627945261}">
       <text>
         <r>
@@ -9056,14 +9042,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リクエストID：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テストターゲット名：TOPメニュー（WA10301）</t>
     <rPh sb="8" eb="9">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストID：画面単位でリクエスト単体テストを実施するため、リクエストIDは不要</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9076,7 +9062,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -9236,13 +9222,6 @@
       <color indexed="12"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -10686,8 +10665,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -11468,9 +11447,9 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="6.58203125" style="1"/>
+    <col min="1" max="16384" width="6.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -11556,7 +11535,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="6:11" ht="19">
+    <row r="32" spans="6:11" ht="18.75">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -11564,12 +11543,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="19">
+    <row r="33" spans="6:10" ht="18.75">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="6:10" ht="19">
+    <row r="34" spans="6:10" ht="18.75">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9" t="s">
@@ -12079,9 +12058,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="22"/>
+    <col min="1" max="16384" width="3.625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
@@ -13275,7 +13254,7 @@
       <c r="AH33" s="223"/>
       <c r="AI33" s="224"/>
     </row>
-    <row r="34" spans="1:35" ht="14">
+    <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
@@ -13481,18 +13460,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="8.58203125" style="24" customWidth="1"/>
-    <col min="3" max="5" width="8.58203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="40.58203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="40.58203125" style="40" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.58203125" style="44" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.58203125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="25.58203125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="25.58203125" style="50" customWidth="1"/>
-    <col min="12" max="12" width="12.58203125" style="24" customWidth="1"/>
-    <col min="13" max="17" width="8.58203125" style="24" customWidth="1"/>
+    <col min="1" max="2" width="8.625" style="24" customWidth="1"/>
+    <col min="3" max="5" width="8.625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="40.625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="40.625" style="40" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.625" style="44" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="25.625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="25.625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="24" customWidth="1"/>
+    <col min="13" max="17" width="8.625" style="24" customWidth="1"/>
     <col min="18" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -13533,7 +13512,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="24" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -13546,9 +13525,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="11.5" thickBot="1">
+    <row r="8" spans="1:17" ht="12" thickBot="1">
       <c r="A8" s="26" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
@@ -13567,7 +13546,7 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="1:17" ht="11.5" thickTop="1"/>
+    <row r="9" spans="1:17" ht="12" thickTop="1"/>
     <row r="10" spans="1:17" s="30" customFormat="1">
       <c r="A10" s="28" t="s">
         <v>31</v>
@@ -13621,7 +13600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22">
+    <row r="11" spans="1:17" ht="22.5">
       <c r="A11" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -13663,7 +13642,7 @@
       <c r="P11" s="69"/>
       <c r="Q11" s="69"/>
     </row>
-    <row r="12" spans="1:17" ht="22">
+    <row r="12" spans="1:17" ht="22.5">
       <c r="A12" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -13699,7 +13678,7 @@
       <c r="P12" s="69"/>
       <c r="Q12" s="69"/>
     </row>
-    <row r="13" spans="1:17" ht="33">
+    <row r="13" spans="1:17" ht="33.75">
       <c r="A13" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -13737,7 +13716,7 @@
       <c r="P13" s="69"/>
       <c r="Q13" s="69"/>
     </row>
-    <row r="14" spans="1:17" ht="22">
+    <row r="14" spans="1:17" ht="22.5">
       <c r="A14" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -13771,7 +13750,7 @@
       <c r="P14" s="69"/>
       <c r="Q14" s="69"/>
     </row>
-    <row r="15" spans="1:17" ht="22">
+    <row r="15" spans="1:17" ht="22.5">
       <c r="A15" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -13805,7 +13784,7 @@
       <c r="P15" s="69"/>
       <c r="Q15" s="69"/>
     </row>
-    <row r="16" spans="1:17" ht="22">
+    <row r="16" spans="1:17" ht="22.5">
       <c r="A16" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -13839,7 +13818,7 @@
       <c r="P16" s="69"/>
       <c r="Q16" s="69"/>
     </row>
-    <row r="17" spans="1:17" ht="33">
+    <row r="17" spans="1:17" ht="33.75">
       <c r="A17" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -13873,7 +13852,7 @@
       <c r="P17" s="69"/>
       <c r="Q17" s="69"/>
     </row>
-    <row r="18" spans="1:17" ht="22">
+    <row r="18" spans="1:17" ht="22.5">
       <c r="A18" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -13911,7 +13890,7 @@
       <c r="P18" s="69"/>
       <c r="Q18" s="69"/>
     </row>
-    <row r="19" spans="1:17" ht="22">
+    <row r="19" spans="1:17" ht="22.5">
       <c r="A19" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -13945,7 +13924,7 @@
       <c r="P19" s="69"/>
       <c r="Q19" s="69"/>
     </row>
-    <row r="20" spans="1:17" ht="22">
+    <row r="20" spans="1:17" ht="22.5">
       <c r="A20" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -13979,7 +13958,7 @@
       <c r="P20" s="69"/>
       <c r="Q20" s="69"/>
     </row>
-    <row r="21" spans="1:17" ht="22">
+    <row r="21" spans="1:17" ht="22.5">
       <c r="A21" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -14015,7 +13994,7 @@
       <c r="P21" s="69"/>
       <c r="Q21" s="69"/>
     </row>
-    <row r="22" spans="1:17" ht="22">
+    <row r="22" spans="1:17" ht="22.5">
       <c r="A22" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -14049,7 +14028,7 @@
       <c r="P22" s="69"/>
       <c r="Q22" s="69"/>
     </row>
-    <row r="23" spans="1:17" ht="22">
+    <row r="23" spans="1:17" ht="22.5">
       <c r="A23" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -14083,7 +14062,7 @@
       <c r="P23" s="69"/>
       <c r="Q23" s="69"/>
     </row>
-    <row r="24" spans="1:17" ht="22">
+    <row r="24" spans="1:17" ht="22.5">
       <c r="A24" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -14117,7 +14096,7 @@
       <c r="P24" s="69"/>
       <c r="Q24" s="69"/>
     </row>
-    <row r="25" spans="1:17" ht="22">
+    <row r="25" spans="1:17" ht="22.5">
       <c r="A25" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -14189,7 +14168,7 @@
       <c r="P26" s="69"/>
       <c r="Q26" s="69"/>
     </row>
-    <row r="27" spans="1:17" ht="33">
+    <row r="27" spans="1:17" ht="33.75">
       <c r="A27" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -14227,7 +14206,7 @@
       <c r="P27" s="69"/>
       <c r="Q27" s="69"/>
     </row>
-    <row r="28" spans="1:17" ht="22">
+    <row r="28" spans="1:17" ht="22.5">
       <c r="A28" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -14261,7 +14240,7 @@
       <c r="P28" s="69"/>
       <c r="Q28" s="69"/>
     </row>
-    <row r="29" spans="1:17" ht="22">
+    <row r="29" spans="1:17" ht="22.5">
       <c r="A29" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -14297,7 +14276,7 @@
       <c r="P29" s="69"/>
       <c r="Q29" s="69"/>
     </row>
-    <row r="30" spans="1:17" ht="22">
+    <row r="30" spans="1:17" ht="22.5">
       <c r="A30" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -14331,7 +14310,7 @@
       <c r="P30" s="69"/>
       <c r="Q30" s="69"/>
     </row>
-    <row r="31" spans="1:17" ht="22">
+    <row r="31" spans="1:17" ht="22.5">
       <c r="A31" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -14365,7 +14344,7 @@
       <c r="P31" s="69"/>
       <c r="Q31" s="69"/>
     </row>
-    <row r="32" spans="1:17" ht="22">
+    <row r="32" spans="1:17" ht="22.5">
       <c r="A32" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -14399,7 +14378,7 @@
       <c r="P32" s="69"/>
       <c r="Q32" s="69"/>
     </row>
-    <row r="33" spans="1:17" ht="22">
+    <row r="33" spans="1:17" ht="22.5">
       <c r="A33" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -14435,7 +14414,7 @@
       <c r="P33" s="69"/>
       <c r="Q33" s="69"/>
     </row>
-    <row r="34" spans="1:17" ht="22">
+    <row r="34" spans="1:17" ht="22.5">
       <c r="A34" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -14469,7 +14448,7 @@
       <c r="P34" s="69"/>
       <c r="Q34" s="69"/>
     </row>
-    <row r="35" spans="1:17" ht="44">
+    <row r="35" spans="1:17" ht="45">
       <c r="A35" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -14505,7 +14484,7 @@
       <c r="P35" s="69"/>
       <c r="Q35" s="69"/>
     </row>
-    <row r="36" spans="1:17" ht="33">
+    <row r="36" spans="1:17" ht="33.75">
       <c r="A36" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -14545,7 +14524,7 @@
       <c r="P36" s="69"/>
       <c r="Q36" s="69"/>
     </row>
-    <row r="37" spans="1:17" ht="33">
+    <row r="37" spans="1:17" ht="33.75">
       <c r="A37" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -14579,7 +14558,7 @@
       <c r="P37" s="69"/>
       <c r="Q37" s="69"/>
     </row>
-    <row r="38" spans="1:17" ht="22">
+    <row r="38" spans="1:17" ht="22.5">
       <c r="A38" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -14613,7 +14592,7 @@
       <c r="P38" s="69"/>
       <c r="Q38" s="69"/>
     </row>
-    <row r="39" spans="1:17" ht="22">
+    <row r="39" spans="1:17" ht="22.5">
       <c r="A39" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -14647,7 +14626,7 @@
       <c r="P39" s="69"/>
       <c r="Q39" s="69"/>
     </row>
-    <row r="40" spans="1:17" ht="33">
+    <row r="40" spans="1:17" ht="33.75">
       <c r="A40" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -14719,7 +14698,7 @@
       <c r="P41" s="69"/>
       <c r="Q41" s="69"/>
     </row>
-    <row r="42" spans="1:17" ht="22">
+    <row r="42" spans="1:17" ht="22.5">
       <c r="A42" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -14761,7 +14740,7 @@
       <c r="P42" s="69"/>
       <c r="Q42" s="69"/>
     </row>
-    <row r="43" spans="1:17" ht="22">
+    <row r="43" spans="1:17" ht="22.5">
       <c r="A43" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -14795,7 +14774,7 @@
       <c r="P43" s="69"/>
       <c r="Q43" s="69"/>
     </row>
-    <row r="44" spans="1:17" ht="33">
+    <row r="44" spans="1:17" ht="33.75">
       <c r="A44" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -14829,7 +14808,7 @@
       <c r="P44" s="69"/>
       <c r="Q44" s="69"/>
     </row>
-    <row r="45" spans="1:17" ht="22">
+    <row r="45" spans="1:17" ht="22.5">
       <c r="A45" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -14865,7 +14844,7 @@
       <c r="P45" s="69"/>
       <c r="Q45" s="69"/>
     </row>
-    <row r="46" spans="1:17" ht="22">
+    <row r="46" spans="1:17" ht="22.5">
       <c r="A46" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -14899,7 +14878,7 @@
       <c r="P46" s="69"/>
       <c r="Q46" s="69"/>
     </row>
-    <row r="47" spans="1:17" ht="33">
+    <row r="47" spans="1:17" ht="33.75">
       <c r="A47" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -14933,7 +14912,7 @@
       <c r="P47" s="69"/>
       <c r="Q47" s="69"/>
     </row>
-    <row r="48" spans="1:17" ht="22">
+    <row r="48" spans="1:17" ht="22.5">
       <c r="A48" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -14969,7 +14948,7 @@
       <c r="P48" s="69"/>
       <c r="Q48" s="69"/>
     </row>
-    <row r="49" spans="1:17" ht="22">
+    <row r="49" spans="1:17" ht="22.5">
       <c r="A49" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -15003,7 +14982,7 @@
       <c r="P49" s="69"/>
       <c r="Q49" s="69"/>
     </row>
-    <row r="50" spans="1:17" ht="22">
+    <row r="50" spans="1:17" ht="22.5">
       <c r="A50" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -15039,7 +15018,7 @@
       <c r="P50" s="69"/>
       <c r="Q50" s="69"/>
     </row>
-    <row r="51" spans="1:17" ht="22">
+    <row r="51" spans="1:17" ht="22.5">
       <c r="A51" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -15073,7 +15052,7 @@
       <c r="P51" s="69"/>
       <c r="Q51" s="69"/>
     </row>
-    <row r="52" spans="1:17" ht="22">
+    <row r="52" spans="1:17" ht="22.5">
       <c r="A52" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -15107,7 +15086,7 @@
       <c r="P52" s="69"/>
       <c r="Q52" s="69"/>
     </row>
-    <row r="53" spans="1:17" ht="22">
+    <row r="53" spans="1:17" ht="22.5">
       <c r="A53" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -15141,7 +15120,7 @@
       <c r="P53" s="69"/>
       <c r="Q53" s="69"/>
     </row>
-    <row r="54" spans="1:17" ht="22">
+    <row r="54" spans="1:17" ht="22.5">
       <c r="A54" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -15175,7 +15154,7 @@
       <c r="P54" s="69"/>
       <c r="Q54" s="69"/>
     </row>
-    <row r="55" spans="1:17" ht="22">
+    <row r="55" spans="1:17" ht="22.5">
       <c r="A55" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -15209,7 +15188,7 @@
       <c r="P55" s="69"/>
       <c r="Q55" s="69"/>
     </row>
-    <row r="56" spans="1:17" ht="33">
+    <row r="56" spans="1:17" ht="33.75">
       <c r="A56" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -15245,7 +15224,7 @@
       <c r="P56" s="69"/>
       <c r="Q56" s="69"/>
     </row>
-    <row r="57" spans="1:17" ht="22">
+    <row r="57" spans="1:17" ht="22.5">
       <c r="A57" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -15281,7 +15260,7 @@
       <c r="P57" s="69"/>
       <c r="Q57" s="69"/>
     </row>
-    <row r="58" spans="1:17" ht="22">
+    <row r="58" spans="1:17" ht="22.5">
       <c r="A58" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -15317,7 +15296,7 @@
       <c r="P58" s="69"/>
       <c r="Q58" s="69"/>
     </row>
-    <row r="59" spans="1:17" ht="22">
+    <row r="59" spans="1:17" ht="22.5">
       <c r="A59" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -15355,7 +15334,7 @@
       <c r="P59" s="69"/>
       <c r="Q59" s="69"/>
     </row>
-    <row r="60" spans="1:17" ht="22">
+    <row r="60" spans="1:17" ht="22.5">
       <c r="A60" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -15389,7 +15368,7 @@
       <c r="P60" s="69"/>
       <c r="Q60" s="69"/>
     </row>
-    <row r="61" spans="1:17" ht="22">
+    <row r="61" spans="1:17" ht="22.5">
       <c r="A61" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -15423,7 +15402,7 @@
       <c r="P61" s="69"/>
       <c r="Q61" s="69"/>
     </row>
-    <row r="62" spans="1:17" ht="22">
+    <row r="62" spans="1:17" ht="22.5">
       <c r="A62" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -15457,7 +15436,7 @@
       <c r="P62" s="69"/>
       <c r="Q62" s="69"/>
     </row>
-    <row r="63" spans="1:17" ht="22">
+    <row r="63" spans="1:17" ht="22.5">
       <c r="A63" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -15491,7 +15470,7 @@
       <c r="P63" s="69"/>
       <c r="Q63" s="69"/>
     </row>
-    <row r="64" spans="1:17" ht="33">
+    <row r="64" spans="1:17" ht="33.75">
       <c r="A64" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -15527,7 +15506,7 @@
       <c r="P64" s="69"/>
       <c r="Q64" s="69"/>
     </row>
-    <row r="65" spans="1:17" ht="33">
+    <row r="65" spans="1:17" ht="33.75">
       <c r="A65" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -15561,7 +15540,7 @@
       <c r="P65" s="69"/>
       <c r="Q65" s="69"/>
     </row>
-    <row r="66" spans="1:17" ht="33">
+    <row r="66" spans="1:17" ht="33.75">
       <c r="A66" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -15595,7 +15574,7 @@
       <c r="P66" s="69"/>
       <c r="Q66" s="69"/>
     </row>
-    <row r="67" spans="1:17" ht="33">
+    <row r="67" spans="1:17" ht="33.75">
       <c r="A67" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -15629,7 +15608,7 @@
       <c r="P67" s="69"/>
       <c r="Q67" s="69"/>
     </row>
-    <row r="68" spans="1:17" ht="33">
+    <row r="68" spans="1:17" ht="33.75">
       <c r="A68" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -15663,7 +15642,7 @@
       <c r="P68" s="69"/>
       <c r="Q68" s="69"/>
     </row>
-    <row r="69" spans="1:17" ht="22">
+    <row r="69" spans="1:17" ht="22.5">
       <c r="A69" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -15697,7 +15676,7 @@
       <c r="P69" s="69"/>
       <c r="Q69" s="69"/>
     </row>
-    <row r="70" spans="1:17" ht="22">
+    <row r="70" spans="1:17" ht="22.5">
       <c r="A70" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -15731,7 +15710,7 @@
       <c r="P70" s="69"/>
       <c r="Q70" s="69"/>
     </row>
-    <row r="71" spans="1:17" ht="33">
+    <row r="71" spans="1:17" ht="33.75">
       <c r="A71" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -15765,7 +15744,7 @@
       <c r="P71" s="69"/>
       <c r="Q71" s="69"/>
     </row>
-    <row r="72" spans="1:17" ht="22">
+    <row r="72" spans="1:17" ht="22.5">
       <c r="A72" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -15939,7 +15918,7 @@
       <c r="P76" s="69"/>
       <c r="Q76" s="69"/>
     </row>
-    <row r="77" spans="1:17" ht="22">
+    <row r="77" spans="1:17" ht="22.5">
       <c r="A77" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -15973,7 +15952,7 @@
       <c r="P77" s="69"/>
       <c r="Q77" s="69"/>
     </row>
-    <row r="78" spans="1:17" ht="22">
+    <row r="78" spans="1:17" ht="22.5">
       <c r="A78" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -16013,7 +15992,7 @@
       <c r="P78" s="69"/>
       <c r="Q78" s="69"/>
     </row>
-    <row r="79" spans="1:17" ht="33">
+    <row r="79" spans="1:17" ht="33.75">
       <c r="A79" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -16083,7 +16062,7 @@
       <c r="P80" s="69"/>
       <c r="Q80" s="69"/>
     </row>
-    <row r="81" spans="1:17" ht="33">
+    <row r="81" spans="1:17" ht="33.75">
       <c r="A81" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -16119,7 +16098,7 @@
       <c r="P81" s="69"/>
       <c r="Q81" s="69"/>
     </row>
-    <row r="82" spans="1:17" ht="33">
+    <row r="82" spans="1:17" ht="33.75">
       <c r="A82" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -16153,7 +16132,7 @@
       <c r="P82" s="69"/>
       <c r="Q82" s="69"/>
     </row>
-    <row r="83" spans="1:17" ht="22">
+    <row r="83" spans="1:17" ht="22.5">
       <c r="A83" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -16189,7 +16168,7 @@
       <c r="P83" s="69"/>
       <c r="Q83" s="69"/>
     </row>
-    <row r="84" spans="1:17" ht="22">
+    <row r="84" spans="1:17" ht="22.5">
       <c r="A84" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -16225,7 +16204,7 @@
       <c r="P84" s="69"/>
       <c r="Q84" s="69"/>
     </row>
-    <row r="85" spans="1:17" ht="22">
+    <row r="85" spans="1:17" ht="22.5">
       <c r="A85" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -16301,7 +16280,7 @@
       <c r="P86" s="69"/>
       <c r="Q86" s="69"/>
     </row>
-    <row r="87" spans="1:17" ht="33">
+    <row r="87" spans="1:17" ht="33.75">
       <c r="A87" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -16337,7 +16316,7 @@
       <c r="P87" s="69"/>
       <c r="Q87" s="69"/>
     </row>
-    <row r="88" spans="1:17" ht="22">
+    <row r="88" spans="1:17" ht="22.5">
       <c r="A88" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -16377,7 +16356,7 @@
       <c r="P88" s="69"/>
       <c r="Q88" s="69"/>
     </row>
-    <row r="89" spans="1:17" ht="33">
+    <row r="89" spans="1:17" ht="33.75">
       <c r="A89" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -16447,7 +16426,7 @@
       <c r="P90" s="69"/>
       <c r="Q90" s="69"/>
     </row>
-    <row r="91" spans="1:17" ht="33">
+    <row r="91" spans="1:17" ht="33.75">
       <c r="A91" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -16483,7 +16462,7 @@
       <c r="P91" s="69"/>
       <c r="Q91" s="69"/>
     </row>
-    <row r="92" spans="1:17" ht="33">
+    <row r="92" spans="1:17" ht="33.75">
       <c r="A92" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -16517,7 +16496,7 @@
       <c r="P92" s="69"/>
       <c r="Q92" s="69"/>
     </row>
-    <row r="93" spans="1:17" ht="33">
+    <row r="93" spans="1:17" ht="33.75">
       <c r="A93" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -16553,7 +16532,7 @@
       <c r="P93" s="69"/>
       <c r="Q93" s="69"/>
     </row>
-    <row r="94" spans="1:17" ht="22">
+    <row r="94" spans="1:17" ht="22.5">
       <c r="A94" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -16593,7 +16572,7 @@
       <c r="P94" s="69"/>
       <c r="Q94" s="69"/>
     </row>
-    <row r="95" spans="1:17" ht="33">
+    <row r="95" spans="1:17" ht="33.75">
       <c r="A95" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -16661,7 +16640,7 @@
       <c r="P96" s="69"/>
       <c r="Q96" s="69"/>
     </row>
-    <row r="97" spans="1:17" ht="33">
+    <row r="97" spans="1:17" ht="33.75">
       <c r="A97" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -16695,7 +16674,7 @@
       <c r="P97" s="69"/>
       <c r="Q97" s="69"/>
     </row>
-    <row r="98" spans="1:17" ht="33">
+    <row r="98" spans="1:17" ht="33.75">
       <c r="A98" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -16729,7 +16708,7 @@
       <c r="P98" s="69"/>
       <c r="Q98" s="69"/>
     </row>
-    <row r="99" spans="1:17" ht="22">
+    <row r="99" spans="1:17" ht="22.5">
       <c r="A99" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -16765,7 +16744,7 @@
       <c r="P99" s="69"/>
       <c r="Q99" s="69"/>
     </row>
-    <row r="100" spans="1:17" ht="33">
+    <row r="100" spans="1:17" ht="33.75">
       <c r="A100" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -16833,7 +16812,7 @@
       <c r="P101" s="69"/>
       <c r="Q101" s="69"/>
     </row>
-    <row r="102" spans="1:17" ht="33">
+    <row r="102" spans="1:17" ht="33.75">
       <c r="A102" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -16867,7 +16846,7 @@
       <c r="P102" s="69"/>
       <c r="Q102" s="69"/>
     </row>
-    <row r="103" spans="1:17" ht="33">
+    <row r="103" spans="1:17" ht="33.75">
       <c r="A103" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -16901,7 +16880,7 @@
       <c r="P103" s="69"/>
       <c r="Q103" s="69"/>
     </row>
-    <row r="104" spans="1:17" ht="33">
+    <row r="104" spans="1:17" ht="33.75">
       <c r="A104" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -16937,7 +16916,7 @@
       <c r="P104" s="69"/>
       <c r="Q104" s="69"/>
     </row>
-    <row r="105" spans="1:17" ht="33">
+    <row r="105" spans="1:17" ht="33.75">
       <c r="A105" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -17053,7 +17032,7 @@
       <c r="P107" s="69"/>
       <c r="Q107" s="69"/>
     </row>
-    <row r="108" spans="1:17" ht="22">
+    <row r="108" spans="1:17" ht="22.5">
       <c r="A108" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -17093,7 +17072,7 @@
       <c r="P108" s="69"/>
       <c r="Q108" s="69"/>
     </row>
-    <row r="109" spans="1:17" ht="22">
+    <row r="109" spans="1:17" ht="22.5">
       <c r="A109" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -17167,7 +17146,7 @@
       <c r="P110" s="69"/>
       <c r="Q110" s="69"/>
     </row>
-    <row r="111" spans="1:17" ht="22">
+    <row r="111" spans="1:17" ht="22.5">
       <c r="A111" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -17209,7 +17188,7 @@
       <c r="P111" s="69"/>
       <c r="Q111" s="69"/>
     </row>
-    <row r="112" spans="1:17" ht="22">
+    <row r="112" spans="1:17" ht="22.5">
       <c r="A112" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -17245,7 +17224,7 @@
       <c r="P112" s="69"/>
       <c r="Q112" s="69"/>
     </row>
-    <row r="113" spans="1:17" ht="22">
+    <row r="113" spans="1:17" ht="22.5">
       <c r="A113" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -17279,7 +17258,7 @@
       <c r="P113" s="69"/>
       <c r="Q113" s="69"/>
     </row>
-    <row r="114" spans="1:17" ht="22">
+    <row r="114" spans="1:17" ht="22.5">
       <c r="A114" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -17313,7 +17292,7 @@
       <c r="P114" s="69"/>
       <c r="Q114" s="69"/>
     </row>
-    <row r="115" spans="1:17" ht="22">
+    <row r="115" spans="1:17" ht="22.5">
       <c r="A115" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -17349,7 +17328,7 @@
       <c r="P115" s="69"/>
       <c r="Q115" s="69"/>
     </row>
-    <row r="116" spans="1:17" ht="22">
+    <row r="116" spans="1:17" ht="22.5">
       <c r="A116" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -17383,7 +17362,7 @@
       <c r="P116" s="69"/>
       <c r="Q116" s="69"/>
     </row>
-    <row r="117" spans="1:17" ht="22">
+    <row r="117" spans="1:17" ht="22.5">
       <c r="A117" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -17417,7 +17396,7 @@
       <c r="P117" s="69"/>
       <c r="Q117" s="69"/>
     </row>
-    <row r="118" spans="1:17" ht="22">
+    <row r="118" spans="1:17" ht="22.5">
       <c r="A118" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -17451,7 +17430,7 @@
       <c r="P118" s="69"/>
       <c r="Q118" s="69"/>
     </row>
-    <row r="119" spans="1:17" ht="33">
+    <row r="119" spans="1:17" ht="33.75">
       <c r="A119" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -17485,7 +17464,7 @@
       <c r="P119" s="69"/>
       <c r="Q119" s="69"/>
     </row>
-    <row r="120" spans="1:17" ht="33">
+    <row r="120" spans="1:17" ht="33.75">
       <c r="A120" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -17521,7 +17500,7 @@
       <c r="P120" s="69"/>
       <c r="Q120" s="69"/>
     </row>
-    <row r="121" spans="1:17" ht="33">
+    <row r="121" spans="1:17" ht="33.75">
       <c r="A121" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -17555,7 +17534,7 @@
       <c r="P121" s="69"/>
       <c r="Q121" s="69"/>
     </row>
-    <row r="122" spans="1:17" ht="44">
+    <row r="122" spans="1:17" ht="45">
       <c r="A122" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -17589,7 +17568,7 @@
       <c r="P122" s="69"/>
       <c r="Q122" s="69"/>
     </row>
-    <row r="123" spans="1:17" ht="44">
+    <row r="123" spans="1:17" ht="45">
       <c r="A123" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -17623,7 +17602,7 @@
       <c r="P123" s="69"/>
       <c r="Q123" s="69"/>
     </row>
-    <row r="124" spans="1:17" ht="33">
+    <row r="124" spans="1:17" ht="33.75">
       <c r="A124" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -17657,7 +17636,7 @@
       <c r="P124" s="69"/>
       <c r="Q124" s="69"/>
     </row>
-    <row r="125" spans="1:17" ht="33">
+    <row r="125" spans="1:17" ht="33.75">
       <c r="A125" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -17693,7 +17672,7 @@
       <c r="P125" s="69"/>
       <c r="Q125" s="69"/>
     </row>
-    <row r="126" spans="1:17" ht="33">
+    <row r="126" spans="1:17" ht="33.75">
       <c r="A126" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -17731,7 +17710,7 @@
       <c r="P126" s="69"/>
       <c r="Q126" s="69"/>
     </row>
-    <row r="127" spans="1:17" ht="33">
+    <row r="127" spans="1:17" ht="33.75">
       <c r="A127" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -17771,7 +17750,7 @@
       <c r="P127" s="69"/>
       <c r="Q127" s="69"/>
     </row>
-    <row r="128" spans="1:17" ht="22">
+    <row r="128" spans="1:17" ht="22.5">
       <c r="A128" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -17807,7 +17786,7 @@
       <c r="P128" s="69"/>
       <c r="Q128" s="69"/>
     </row>
-    <row r="129" spans="1:17" ht="22">
+    <row r="129" spans="1:17" ht="22.5">
       <c r="A129" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -17841,7 +17820,7 @@
       <c r="P129" s="69"/>
       <c r="Q129" s="69"/>
     </row>
-    <row r="130" spans="1:17" ht="44">
+    <row r="130" spans="1:17" ht="45">
       <c r="A130" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -17875,7 +17854,7 @@
       <c r="P130" s="69"/>
       <c r="Q130" s="69"/>
     </row>
-    <row r="131" spans="1:17" ht="22">
+    <row r="131" spans="1:17" ht="22.5">
       <c r="A131" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -17917,7 +17896,7 @@
       <c r="P131" s="69"/>
       <c r="Q131" s="69"/>
     </row>
-    <row r="132" spans="1:17" ht="22">
+    <row r="132" spans="1:17" ht="22.5">
       <c r="A132" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -17953,7 +17932,7 @@
       <c r="P132" s="69"/>
       <c r="Q132" s="69"/>
     </row>
-    <row r="133" spans="1:17" ht="22">
+    <row r="133" spans="1:17" ht="22.5">
       <c r="A133" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -17987,7 +17966,7 @@
       <c r="P133" s="69"/>
       <c r="Q133" s="69"/>
     </row>
-    <row r="134" spans="1:17" ht="22">
+    <row r="134" spans="1:17" ht="22.5">
       <c r="A134" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -18021,7 +18000,7 @@
       <c r="P134" s="69"/>
       <c r="Q134" s="69"/>
     </row>
-    <row r="135" spans="1:17" ht="22">
+    <row r="135" spans="1:17" ht="22.5">
       <c r="A135" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -18057,7 +18036,7 @@
       <c r="P135" s="69"/>
       <c r="Q135" s="69"/>
     </row>
-    <row r="136" spans="1:17" ht="33">
+    <row r="136" spans="1:17" ht="33.75">
       <c r="A136" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -18091,7 +18070,7 @@
       <c r="P136" s="69"/>
       <c r="Q136" s="69"/>
     </row>
-    <row r="137" spans="1:17" ht="33">
+    <row r="137" spans="1:17" ht="33.75">
       <c r="A137" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -18129,7 +18108,7 @@
       <c r="P137" s="69"/>
       <c r="Q137" s="69"/>
     </row>
-    <row r="138" spans="1:17" ht="33">
+    <row r="138" spans="1:17" ht="33.75">
       <c r="A138" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -18169,7 +18148,7 @@
       <c r="P138" s="69"/>
       <c r="Q138" s="69"/>
     </row>
-    <row r="139" spans="1:17" ht="33">
+    <row r="139" spans="1:17" ht="33.75">
       <c r="A139" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -18205,7 +18184,7 @@
       <c r="P139" s="69"/>
       <c r="Q139" s="69"/>
     </row>
-    <row r="140" spans="1:17" ht="33">
+    <row r="140" spans="1:17" ht="33.75">
       <c r="A140" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -18241,7 +18220,7 @@
       <c r="P140" s="69"/>
       <c r="Q140" s="69"/>
     </row>
-    <row r="141" spans="1:17" ht="33">
+    <row r="141" spans="1:17" ht="33.75">
       <c r="A141" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -18277,7 +18256,7 @@
       <c r="P141" s="69"/>
       <c r="Q141" s="69"/>
     </row>
-    <row r="142" spans="1:17" ht="33">
+    <row r="142" spans="1:17" ht="33.75">
       <c r="A142" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -18313,7 +18292,7 @@
       <c r="P142" s="69"/>
       <c r="Q142" s="69"/>
     </row>
-    <row r="143" spans="1:17" ht="22">
+    <row r="143" spans="1:17" ht="22.5">
       <c r="A143" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -18349,7 +18328,7 @@
       <c r="P143" s="69"/>
       <c r="Q143" s="69"/>
     </row>
-    <row r="144" spans="1:17" ht="22">
+    <row r="144" spans="1:17" ht="22.5">
       <c r="A144" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -18383,7 +18362,7 @@
       <c r="P144" s="69"/>
       <c r="Q144" s="69"/>
     </row>
-    <row r="145" spans="1:17" ht="22">
+    <row r="145" spans="1:17" ht="22.5">
       <c r="A145" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -18417,7 +18396,7 @@
       <c r="P145" s="69"/>
       <c r="Q145" s="69"/>
     </row>
-    <row r="146" spans="1:17" ht="22">
+    <row r="146" spans="1:17" ht="22.5">
       <c r="A146" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -18451,7 +18430,7 @@
       <c r="P146" s="69"/>
       <c r="Q146" s="69"/>
     </row>
-    <row r="147" spans="1:17" ht="22">
+    <row r="147" spans="1:17" ht="22.5">
       <c r="A147" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -18485,7 +18464,7 @@
       <c r="P147" s="69"/>
       <c r="Q147" s="69"/>
     </row>
-    <row r="148" spans="1:17" ht="22">
+    <row r="148" spans="1:17" ht="22.5">
       <c r="A148" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -18519,7 +18498,7 @@
       <c r="P148" s="69"/>
       <c r="Q148" s="69"/>
     </row>
-    <row r="149" spans="1:17" ht="22">
+    <row r="149" spans="1:17" ht="22.5">
       <c r="A149" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -18557,7 +18536,7 @@
       <c r="P149" s="69"/>
       <c r="Q149" s="69"/>
     </row>
-    <row r="150" spans="1:17" ht="22">
+    <row r="150" spans="1:17" ht="22.5">
       <c r="A150" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -18591,7 +18570,7 @@
       <c r="P150" s="69"/>
       <c r="Q150" s="69"/>
     </row>
-    <row r="151" spans="1:17" ht="33">
+    <row r="151" spans="1:17" ht="33.75">
       <c r="A151" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -18627,7 +18606,7 @@
       <c r="P151" s="69"/>
       <c r="Q151" s="69"/>
     </row>
-    <row r="152" spans="1:17" ht="33">
+    <row r="152" spans="1:17" ht="33.75">
       <c r="A152" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -18661,7 +18640,7 @@
       <c r="P152" s="69"/>
       <c r="Q152" s="69"/>
     </row>
-    <row r="153" spans="1:17" ht="33">
+    <row r="153" spans="1:17" ht="33.75">
       <c r="A153" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -18695,7 +18674,7 @@
       <c r="P153" s="69"/>
       <c r="Q153" s="69"/>
     </row>
-    <row r="154" spans="1:17" ht="33">
+    <row r="154" spans="1:17" ht="33.75">
       <c r="A154" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -18729,7 +18708,7 @@
       <c r="P154" s="69"/>
       <c r="Q154" s="69"/>
     </row>
-    <row r="155" spans="1:17" ht="33">
+    <row r="155" spans="1:17" ht="33.75">
       <c r="A155" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -18763,7 +18742,7 @@
       <c r="P155" s="69"/>
       <c r="Q155" s="69"/>
     </row>
-    <row r="156" spans="1:17" ht="22">
+    <row r="156" spans="1:17" ht="22.5">
       <c r="A156" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -18797,7 +18776,7 @@
       <c r="P156" s="69"/>
       <c r="Q156" s="69"/>
     </row>
-    <row r="157" spans="1:17" ht="22">
+    <row r="157" spans="1:17" ht="22.5">
       <c r="A157" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -18831,7 +18810,7 @@
       <c r="P157" s="69"/>
       <c r="Q157" s="69"/>
     </row>
-    <row r="158" spans="1:17" ht="33">
+    <row r="158" spans="1:17" ht="33.75">
       <c r="A158" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -18865,7 +18844,7 @@
       <c r="P158" s="69"/>
       <c r="Q158" s="69"/>
     </row>
-    <row r="159" spans="1:17" ht="33">
+    <row r="159" spans="1:17" ht="33.75">
       <c r="A159" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -18899,7 +18878,7 @@
       <c r="P159" s="69"/>
       <c r="Q159" s="69"/>
     </row>
-    <row r="160" spans="1:17" ht="33">
+    <row r="160" spans="1:17" ht="33.75">
       <c r="A160" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -18933,7 +18912,7 @@
       <c r="P160" s="69"/>
       <c r="Q160" s="69"/>
     </row>
-    <row r="161" spans="1:17" ht="33">
+    <row r="161" spans="1:17" ht="33.75">
       <c r="A161" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -19037,7 +19016,7 @@
       <c r="P163" s="69"/>
       <c r="Q163" s="69"/>
     </row>
-    <row r="164" spans="1:17" ht="22">
+    <row r="164" spans="1:17" ht="22.5">
       <c r="A164" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -19071,7 +19050,7 @@
       <c r="P164" s="69"/>
       <c r="Q164" s="69"/>
     </row>
-    <row r="165" spans="1:17" ht="22">
+    <row r="165" spans="1:17" ht="22.5">
       <c r="A165" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -19105,7 +19084,7 @@
       <c r="P165" s="69"/>
       <c r="Q165" s="69"/>
     </row>
-    <row r="166" spans="1:17" ht="22">
+    <row r="166" spans="1:17" ht="22.5">
       <c r="A166" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -19139,7 +19118,7 @@
       <c r="P166" s="69"/>
       <c r="Q166" s="69"/>
     </row>
-    <row r="167" spans="1:17" ht="33">
+    <row r="167" spans="1:17" ht="33.75">
       <c r="A167" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -19173,7 +19152,7 @@
       <c r="P167" s="69"/>
       <c r="Q167" s="69"/>
     </row>
-    <row r="168" spans="1:17" ht="22">
+    <row r="168" spans="1:17" ht="22.5">
       <c r="A168" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -19207,7 +19186,7 @@
       <c r="P168" s="69"/>
       <c r="Q168" s="69"/>
     </row>
-    <row r="169" spans="1:17" ht="22">
+    <row r="169" spans="1:17" ht="22.5">
       <c r="A169" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -19243,7 +19222,7 @@
       <c r="P169" s="69"/>
       <c r="Q169" s="69"/>
     </row>
-    <row r="170" spans="1:17" ht="33">
+    <row r="170" spans="1:17" ht="33.75">
       <c r="A170" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -19277,7 +19256,7 @@
       <c r="P170" s="69"/>
       <c r="Q170" s="69"/>
     </row>
-    <row r="171" spans="1:17" ht="33">
+    <row r="171" spans="1:17" ht="33.75">
       <c r="A171" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -19311,7 +19290,7 @@
       <c r="P171" s="69"/>
       <c r="Q171" s="69"/>
     </row>
-    <row r="172" spans="1:17" ht="44">
+    <row r="172" spans="1:17" ht="45">
       <c r="A172" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -19345,7 +19324,7 @@
       <c r="P172" s="69"/>
       <c r="Q172" s="69"/>
     </row>
-    <row r="173" spans="1:17" ht="44">
+    <row r="173" spans="1:17" ht="45">
       <c r="A173" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -19379,7 +19358,7 @@
       <c r="P173" s="69"/>
       <c r="Q173" s="69"/>
     </row>
-    <row r="174" spans="1:17" ht="33">
+    <row r="174" spans="1:17" ht="33.75">
       <c r="A174" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -19413,7 +19392,7 @@
       <c r="P174" s="69"/>
       <c r="Q174" s="69"/>
     </row>
-    <row r="175" spans="1:17" ht="44">
+    <row r="175" spans="1:17" ht="45">
       <c r="A175" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -19447,7 +19426,7 @@
       <c r="P175" s="69"/>
       <c r="Q175" s="69"/>
     </row>
-    <row r="176" spans="1:17" ht="44">
+    <row r="176" spans="1:17" ht="45">
       <c r="A176" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -19481,7 +19460,7 @@
       <c r="P176" s="69"/>
       <c r="Q176" s="69"/>
     </row>
-    <row r="177" spans="1:17" ht="22">
+    <row r="177" spans="1:17" ht="22.5">
       <c r="A177" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -19515,7 +19494,7 @@
       <c r="P177" s="69"/>
       <c r="Q177" s="69"/>
     </row>
-    <row r="178" spans="1:17" ht="33">
+    <row r="178" spans="1:17" ht="33.75">
       <c r="A178" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -19551,7 +19530,7 @@
       <c r="P178" s="69"/>
       <c r="Q178" s="69"/>
     </row>
-    <row r="179" spans="1:17" ht="22">
+    <row r="179" spans="1:17" ht="22.5">
       <c r="A179" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -19587,7 +19566,7 @@
       <c r="P179" s="69"/>
       <c r="Q179" s="69"/>
     </row>
-    <row r="180" spans="1:17" ht="22">
+    <row r="180" spans="1:17" ht="22.5">
       <c r="A180" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -19629,7 +19608,7 @@
       <c r="P180" s="69"/>
       <c r="Q180" s="69"/>
     </row>
-    <row r="181" spans="1:17" ht="22">
+    <row r="181" spans="1:17" ht="22.5">
       <c r="A181" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -19667,7 +19646,7 @@
       <c r="P181" s="69"/>
       <c r="Q181" s="69"/>
     </row>
-    <row r="182" spans="1:17" ht="22">
+    <row r="182" spans="1:17" ht="22.5">
       <c r="A182" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -19705,7 +19684,7 @@
       <c r="P182" s="69"/>
       <c r="Q182" s="69"/>
     </row>
-    <row r="183" spans="1:17" ht="22">
+    <row r="183" spans="1:17" ht="22.5">
       <c r="A183" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -19747,7 +19726,7 @@
       <c r="P183" s="34"/>
       <c r="Q183" s="34"/>
     </row>
-    <row r="184" spans="1:17" ht="22">
+    <row r="184" spans="1:17" ht="22.5">
       <c r="A184" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -19783,7 +19762,7 @@
       <c r="P184" s="34"/>
       <c r="Q184" s="34"/>
     </row>
-    <row r="185" spans="1:17" ht="22">
+    <row r="185" spans="1:17" ht="22.5">
       <c r="A185" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -19817,7 +19796,7 @@
       <c r="P185" s="34"/>
       <c r="Q185" s="34"/>
     </row>
-    <row r="186" spans="1:17" ht="22">
+    <row r="186" spans="1:17" ht="22.5">
       <c r="A186" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -19853,7 +19832,7 @@
       <c r="P186" s="34"/>
       <c r="Q186" s="34"/>
     </row>
-    <row r="187" spans="1:17" ht="22">
+    <row r="187" spans="1:17" ht="22.5">
       <c r="A187" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -19887,7 +19866,7 @@
       <c r="P187" s="34"/>
       <c r="Q187" s="34"/>
     </row>
-    <row r="188" spans="1:17" ht="33">
+    <row r="188" spans="1:17" ht="33.75">
       <c r="A188" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -19925,7 +19904,7 @@
       <c r="P188" s="34"/>
       <c r="Q188" s="34"/>
     </row>
-    <row r="189" spans="1:17" ht="22">
+    <row r="189" spans="1:17" ht="22.5">
       <c r="A189" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -19965,7 +19944,7 @@
       <c r="P189" s="34"/>
       <c r="Q189" s="34"/>
     </row>
-    <row r="190" spans="1:17" ht="22">
+    <row r="190" spans="1:17" ht="22.5">
       <c r="A190" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -19999,7 +19978,7 @@
       <c r="P190" s="34"/>
       <c r="Q190" s="34"/>
     </row>
-    <row r="191" spans="1:17" ht="22">
+    <row r="191" spans="1:17" ht="22.5">
       <c r="A191" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -20033,7 +20012,7 @@
       <c r="P191" s="34"/>
       <c r="Q191" s="34"/>
     </row>
-    <row r="192" spans="1:17" ht="22">
+    <row r="192" spans="1:17" ht="22.5">
       <c r="A192" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -20067,7 +20046,7 @@
       <c r="P192" s="34"/>
       <c r="Q192" s="34"/>
     </row>
-    <row r="193" spans="1:17" ht="22">
+    <row r="193" spans="1:17" ht="22.5">
       <c r="A193" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -20101,7 +20080,7 @@
       <c r="P193" s="34"/>
       <c r="Q193" s="34"/>
     </row>
-    <row r="194" spans="1:17" ht="22">
+    <row r="194" spans="1:17" ht="22.5">
       <c r="A194" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -20135,7 +20114,7 @@
       <c r="P194" s="34"/>
       <c r="Q194" s="34"/>
     </row>
-    <row r="195" spans="1:17" ht="22">
+    <row r="195" spans="1:17" ht="22.5">
       <c r="A195" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -20169,7 +20148,7 @@
       <c r="P195" s="34"/>
       <c r="Q195" s="34"/>
     </row>
-    <row r="196" spans="1:17" ht="22">
+    <row r="196" spans="1:17" ht="22.5">
       <c r="A196" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -20205,7 +20184,7 @@
       <c r="P196" s="34"/>
       <c r="Q196" s="34"/>
     </row>
-    <row r="197" spans="1:17" ht="22">
+    <row r="197" spans="1:17" ht="22.5">
       <c r="A197" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -20243,7 +20222,7 @@
       <c r="P197" s="34"/>
       <c r="Q197" s="34"/>
     </row>
-    <row r="198" spans="1:17" ht="22">
+    <row r="198" spans="1:17" ht="22.5">
       <c r="A198" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -20311,7 +20290,7 @@
       <c r="P199" s="34"/>
       <c r="Q199" s="34"/>
     </row>
-    <row r="200" spans="1:17" ht="22">
+    <row r="200" spans="1:17" ht="22.5">
       <c r="A200" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -20345,7 +20324,7 @@
       <c r="P200" s="34"/>
       <c r="Q200" s="34"/>
     </row>
-    <row r="201" spans="1:17" ht="33">
+    <row r="201" spans="1:17" ht="33.75">
       <c r="A201" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -20379,7 +20358,7 @@
       <c r="P201" s="34"/>
       <c r="Q201" s="34"/>
     </row>
-    <row r="202" spans="1:17" ht="33">
+    <row r="202" spans="1:17" ht="33.75">
       <c r="A202" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -20413,7 +20392,7 @@
       <c r="P202" s="34"/>
       <c r="Q202" s="34"/>
     </row>
-    <row r="203" spans="1:17" ht="44">
+    <row r="203" spans="1:17" ht="45">
       <c r="A203" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -20447,7 +20426,7 @@
       <c r="P203" s="34"/>
       <c r="Q203" s="34"/>
     </row>
-    <row r="204" spans="1:17" ht="33">
+    <row r="204" spans="1:17" ht="33.75">
       <c r="A204" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -20481,7 +20460,7 @@
       <c r="P204" s="34"/>
       <c r="Q204" s="34"/>
     </row>
-    <row r="205" spans="1:17" ht="33">
+    <row r="205" spans="1:17" ht="33.75">
       <c r="A205" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -20515,7 +20494,7 @@
       <c r="P205" s="34"/>
       <c r="Q205" s="34"/>
     </row>
-    <row r="206" spans="1:17" ht="22">
+    <row r="206" spans="1:17" ht="22.5">
       <c r="A206" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -20549,7 +20528,7 @@
       <c r="P206" s="34"/>
       <c r="Q206" s="34"/>
     </row>
-    <row r="207" spans="1:17" ht="22">
+    <row r="207" spans="1:17" ht="22.5">
       <c r="A207" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -20583,7 +20562,7 @@
       <c r="P207" s="34"/>
       <c r="Q207" s="34"/>
     </row>
-    <row r="208" spans="1:17" ht="33">
+    <row r="208" spans="1:17" ht="33.75">
       <c r="A208" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -20617,7 +20596,7 @@
       <c r="P208" s="34"/>
       <c r="Q208" s="34"/>
     </row>
-    <row r="209" spans="1:17" ht="22">
+    <row r="209" spans="1:17" ht="22.5">
       <c r="A209" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -20651,7 +20630,7 @@
       <c r="P209" s="34"/>
       <c r="Q209" s="34"/>
     </row>
-    <row r="210" spans="1:17" ht="22">
+    <row r="210" spans="1:17" ht="22.5">
       <c r="A210" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -20689,7 +20668,7 @@
       <c r="P210" s="34"/>
       <c r="Q210" s="34"/>
     </row>
-    <row r="211" spans="1:17" ht="22">
+    <row r="211" spans="1:17" ht="22.5">
       <c r="A211" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -20723,7 +20702,7 @@
       <c r="P211" s="34"/>
       <c r="Q211" s="34"/>
     </row>
-    <row r="212" spans="1:17" ht="22">
+    <row r="212" spans="1:17" ht="22.5">
       <c r="A212" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -20791,7 +20770,7 @@
       <c r="P213" s="34"/>
       <c r="Q213" s="34"/>
     </row>
-    <row r="214" spans="1:17" ht="22">
+    <row r="214" spans="1:17" ht="22.5">
       <c r="A214" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -20825,7 +20804,7 @@
       <c r="P214" s="34"/>
       <c r="Q214" s="34"/>
     </row>
-    <row r="215" spans="1:17" ht="44">
+    <row r="215" spans="1:17" ht="45">
       <c r="A215" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -20859,7 +20838,7 @@
       <c r="P215" s="34"/>
       <c r="Q215" s="34"/>
     </row>
-    <row r="216" spans="1:17" ht="33">
+    <row r="216" spans="1:17" ht="33.75">
       <c r="A216" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -20893,7 +20872,7 @@
       <c r="P216" s="34"/>
       <c r="Q216" s="34"/>
     </row>
-    <row r="217" spans="1:17" ht="33">
+    <row r="217" spans="1:17" ht="33.75">
       <c r="A217" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -20927,7 +20906,7 @@
       <c r="P217" s="34"/>
       <c r="Q217" s="34"/>
     </row>
-    <row r="218" spans="1:17" ht="44">
+    <row r="218" spans="1:17" ht="45">
       <c r="A218" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -20961,7 +20940,7 @@
       <c r="P218" s="34"/>
       <c r="Q218" s="34"/>
     </row>
-    <row r="219" spans="1:17" ht="33">
+    <row r="219" spans="1:17" ht="33.75">
       <c r="A219" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -20995,7 +20974,7 @@
       <c r="P219" s="34"/>
       <c r="Q219" s="34"/>
     </row>
-    <row r="220" spans="1:17" ht="33">
+    <row r="220" spans="1:17" ht="33.75">
       <c r="A220" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -21029,7 +21008,7 @@
       <c r="P220" s="34"/>
       <c r="Q220" s="34"/>
     </row>
-    <row r="221" spans="1:17" ht="22">
+    <row r="221" spans="1:17" ht="22.5">
       <c r="A221" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -21063,7 +21042,7 @@
       <c r="P221" s="34"/>
       <c r="Q221" s="34"/>
     </row>
-    <row r="222" spans="1:17" ht="22">
+    <row r="222" spans="1:17" ht="22.5">
       <c r="A222" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -21097,7 +21076,7 @@
       <c r="P222" s="34"/>
       <c r="Q222" s="34"/>
     </row>
-    <row r="223" spans="1:17" ht="33">
+    <row r="223" spans="1:17" ht="33.75">
       <c r="A223" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -21131,7 +21110,7 @@
       <c r="P223" s="34"/>
       <c r="Q223" s="34"/>
     </row>
-    <row r="224" spans="1:17" ht="22">
+    <row r="224" spans="1:17" ht="22.5">
       <c r="A224" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -21165,7 +21144,7 @@
       <c r="P224" s="34"/>
       <c r="Q224" s="34"/>
     </row>
-    <row r="225" spans="1:17" ht="44">
+    <row r="225" spans="1:17" ht="45">
       <c r="A225" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -21201,7 +21180,7 @@
       <c r="P225" s="34"/>
       <c r="Q225" s="34"/>
     </row>
-    <row r="226" spans="1:17" ht="44">
+    <row r="226" spans="1:17" ht="45">
       <c r="A226" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -21235,7 +21214,7 @@
       <c r="P226" s="34"/>
       <c r="Q226" s="34"/>
     </row>
-    <row r="227" spans="1:17" ht="33">
+    <row r="227" spans="1:17" ht="33.75">
       <c r="A227" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -21269,7 +21248,7 @@
       <c r="P227" s="34"/>
       <c r="Q227" s="34"/>
     </row>
-    <row r="228" spans="1:17" ht="33">
+    <row r="228" spans="1:17" ht="33.75">
       <c r="A228" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -21305,7 +21284,7 @@
       <c r="P228" s="34"/>
       <c r="Q228" s="34"/>
     </row>
-    <row r="229" spans="1:17" ht="22">
+    <row r="229" spans="1:17" ht="22.5">
       <c r="A229" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -21341,7 +21320,7 @@
       <c r="P229" s="34"/>
       <c r="Q229" s="34"/>
     </row>
-    <row r="230" spans="1:17" ht="22">
+    <row r="230" spans="1:17" ht="22.5">
       <c r="A230" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -21383,7 +21362,7 @@
       <c r="P230" s="34"/>
       <c r="Q230" s="34"/>
     </row>
-    <row r="231" spans="1:17" ht="22">
+    <row r="231" spans="1:17" ht="22.5">
       <c r="A231" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -21419,7 +21398,7 @@
       <c r="P231" s="34"/>
       <c r="Q231" s="34"/>
     </row>
-    <row r="232" spans="1:17" ht="22">
+    <row r="232" spans="1:17" ht="22.5">
       <c r="A232" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -21453,7 +21432,7 @@
       <c r="P232" s="34"/>
       <c r="Q232" s="34"/>
     </row>
-    <row r="233" spans="1:17" ht="22">
+    <row r="233" spans="1:17" ht="22.5">
       <c r="A233" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -21487,7 +21466,7 @@
       <c r="P233" s="34"/>
       <c r="Q233" s="34"/>
     </row>
-    <row r="234" spans="1:17" ht="22">
+    <row r="234" spans="1:17" ht="22.5">
       <c r="A234" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -21521,7 +21500,7 @@
       <c r="P234" s="34"/>
       <c r="Q234" s="34"/>
     </row>
-    <row r="235" spans="1:17" ht="33">
+    <row r="235" spans="1:17" ht="33.75">
       <c r="A235" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -21555,7 +21534,7 @@
       <c r="P235" s="34"/>
       <c r="Q235" s="34"/>
     </row>
-    <row r="236" spans="1:17" ht="33">
+    <row r="236" spans="1:17" ht="33.75">
       <c r="A236" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -21591,7 +21570,7 @@
       <c r="P236" s="34"/>
       <c r="Q236" s="34"/>
     </row>
-    <row r="237" spans="1:17" ht="33">
+    <row r="237" spans="1:17" ht="33.75">
       <c r="A237" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -21625,7 +21604,7 @@
       <c r="P237" s="34"/>
       <c r="Q237" s="34"/>
     </row>
-    <row r="238" spans="1:17" ht="44">
+    <row r="238" spans="1:17" ht="45">
       <c r="A238" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -21659,7 +21638,7 @@
       <c r="P238" s="34"/>
       <c r="Q238" s="34"/>
     </row>
-    <row r="239" spans="1:17" ht="44">
+    <row r="239" spans="1:17" ht="45">
       <c r="A239" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -21693,7 +21672,7 @@
       <c r="P239" s="34"/>
       <c r="Q239" s="34"/>
     </row>
-    <row r="240" spans="1:17" ht="33">
+    <row r="240" spans="1:17" ht="33.75">
       <c r="A240" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -21727,7 +21706,7 @@
       <c r="P240" s="34"/>
       <c r="Q240" s="34"/>
     </row>
-    <row r="241" spans="1:17" ht="33">
+    <row r="241" spans="1:17" ht="33.75">
       <c r="A241" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -21763,7 +21742,7 @@
       <c r="P241" s="34"/>
       <c r="Q241" s="34"/>
     </row>
-    <row r="242" spans="1:17" ht="33">
+    <row r="242" spans="1:17" ht="33.75">
       <c r="A242" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -21803,7 +21782,7 @@
       <c r="P242" s="34"/>
       <c r="Q242" s="34"/>
     </row>
-    <row r="243" spans="1:17" ht="22">
+    <row r="243" spans="1:17" ht="22.5">
       <c r="A243" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -21845,7 +21824,7 @@
       <c r="P243" s="34"/>
       <c r="Q243" s="34"/>
     </row>
-    <row r="244" spans="1:17" ht="22">
+    <row r="244" spans="1:17" ht="22.5">
       <c r="A244" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -21879,7 +21858,7 @@
       <c r="P244" s="34"/>
       <c r="Q244" s="34"/>
     </row>
-    <row r="245" spans="1:17" ht="33">
+    <row r="245" spans="1:17" ht="33.75">
       <c r="A245" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -21917,7 +21896,7 @@
       <c r="P245" s="34"/>
       <c r="Q245" s="34"/>
     </row>
-    <row r="246" spans="1:17" ht="33">
+    <row r="246" spans="1:17" ht="33.75">
       <c r="A246" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -21951,7 +21930,7 @@
       <c r="P246" s="34"/>
       <c r="Q246" s="34"/>
     </row>
-    <row r="247" spans="1:17" ht="33">
+    <row r="247" spans="1:17" ht="33.75">
       <c r="A247" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -21991,7 +21970,7 @@
       <c r="P247" s="34"/>
       <c r="Q247" s="34"/>
     </row>
-    <row r="248" spans="1:17" ht="33">
+    <row r="248" spans="1:17" ht="33.75">
       <c r="A248" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -22027,7 +22006,7 @@
       <c r="P248" s="34"/>
       <c r="Q248" s="34"/>
     </row>
-    <row r="249" spans="1:17" ht="33">
+    <row r="249" spans="1:17" ht="33.75">
       <c r="A249" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -22063,7 +22042,7 @@
       <c r="P249" s="34"/>
       <c r="Q249" s="34"/>
     </row>
-    <row r="250" spans="1:17" ht="33">
+    <row r="250" spans="1:17" ht="33.75">
       <c r="A250" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -22099,7 +22078,7 @@
       <c r="P250" s="34"/>
       <c r="Q250" s="34"/>
     </row>
-    <row r="251" spans="1:17" ht="22">
+    <row r="251" spans="1:17" ht="22.5">
       <c r="A251" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -22137,7 +22116,7 @@
       <c r="P251" s="34"/>
       <c r="Q251" s="34"/>
     </row>
-    <row r="252" spans="1:17" ht="22">
+    <row r="252" spans="1:17" ht="22.5">
       <c r="A252" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -22171,7 +22150,7 @@
       <c r="P252" s="34"/>
       <c r="Q252" s="34"/>
     </row>
-    <row r="253" spans="1:17" ht="33">
+    <row r="253" spans="1:17" ht="33.75">
       <c r="A253" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -22207,7 +22186,7 @@
       <c r="P253" s="34"/>
       <c r="Q253" s="34"/>
     </row>
-    <row r="254" spans="1:17" ht="33">
+    <row r="254" spans="1:17" ht="33.75">
       <c r="A254" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -22241,7 +22220,7 @@
       <c r="P254" s="34"/>
       <c r="Q254" s="34"/>
     </row>
-    <row r="255" spans="1:17" ht="33">
+    <row r="255" spans="1:17" ht="33.75">
       <c r="A255" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -22275,7 +22254,7 @@
       <c r="P255" s="34"/>
       <c r="Q255" s="34"/>
     </row>
-    <row r="256" spans="1:17" ht="33">
+    <row r="256" spans="1:17" ht="33.75">
       <c r="A256" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -22309,7 +22288,7 @@
       <c r="P256" s="34"/>
       <c r="Q256" s="34"/>
     </row>
-    <row r="257" spans="1:17" ht="33">
+    <row r="257" spans="1:17" ht="33.75">
       <c r="A257" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -22343,7 +22322,7 @@
       <c r="P257" s="34"/>
       <c r="Q257" s="34"/>
     </row>
-    <row r="258" spans="1:17" ht="22">
+    <row r="258" spans="1:17" ht="22.5">
       <c r="A258" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -22377,7 +22356,7 @@
       <c r="P258" s="34"/>
       <c r="Q258" s="34"/>
     </row>
-    <row r="259" spans="1:17" ht="22">
+    <row r="259" spans="1:17" ht="22.5">
       <c r="A259" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -22411,7 +22390,7 @@
       <c r="P259" s="34"/>
       <c r="Q259" s="34"/>
     </row>
-    <row r="260" spans="1:17" ht="33">
+    <row r="260" spans="1:17" ht="33.75">
       <c r="A260" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -22445,7 +22424,7 @@
       <c r="P260" s="34"/>
       <c r="Q260" s="34"/>
     </row>
-    <row r="261" spans="1:17" ht="33">
+    <row r="261" spans="1:17" ht="33.75">
       <c r="A261" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -22479,7 +22458,7 @@
       <c r="P261" s="34"/>
       <c r="Q261" s="34"/>
     </row>
-    <row r="262" spans="1:17" ht="33">
+    <row r="262" spans="1:17" ht="33.75">
       <c r="A262" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -22513,7 +22492,7 @@
       <c r="P262" s="34"/>
       <c r="Q262" s="34"/>
     </row>
-    <row r="263" spans="1:17" ht="33">
+    <row r="263" spans="1:17" ht="33.75">
       <c r="A263" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -22617,7 +22596,7 @@
       <c r="P265" s="34"/>
       <c r="Q265" s="34"/>
     </row>
-    <row r="266" spans="1:17" ht="22">
+    <row r="266" spans="1:17" ht="22.5">
       <c r="A266" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -22651,7 +22630,7 @@
       <c r="P266" s="34"/>
       <c r="Q266" s="34"/>
     </row>
-    <row r="267" spans="1:17" ht="22">
+    <row r="267" spans="1:17" ht="22.5">
       <c r="A267" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -22685,7 +22664,7 @@
       <c r="P267" s="34"/>
       <c r="Q267" s="34"/>
     </row>
-    <row r="268" spans="1:17" ht="22">
+    <row r="268" spans="1:17" ht="22.5">
       <c r="A268" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -22719,7 +22698,7 @@
       <c r="P268" s="34"/>
       <c r="Q268" s="34"/>
     </row>
-    <row r="269" spans="1:17" ht="33">
+    <row r="269" spans="1:17" ht="33.75">
       <c r="A269" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -22753,7 +22732,7 @@
       <c r="P269" s="34"/>
       <c r="Q269" s="34"/>
     </row>
-    <row r="270" spans="1:17" ht="22">
+    <row r="270" spans="1:17" ht="22.5">
       <c r="A270" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -22789,7 +22768,7 @@
       <c r="P270" s="34"/>
       <c r="Q270" s="34"/>
     </row>
-    <row r="271" spans="1:17" ht="33">
+    <row r="271" spans="1:17" ht="33.75">
       <c r="A271" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -22823,7 +22802,7 @@
       <c r="P271" s="34"/>
       <c r="Q271" s="34"/>
     </row>
-    <row r="272" spans="1:17" ht="44">
+    <row r="272" spans="1:17" ht="45">
       <c r="A272" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -22857,7 +22836,7 @@
       <c r="P272" s="34"/>
       <c r="Q272" s="34"/>
     </row>
-    <row r="273" spans="1:17" ht="44">
+    <row r="273" spans="1:17" ht="45">
       <c r="A273" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -22891,7 +22870,7 @@
       <c r="P273" s="34"/>
       <c r="Q273" s="34"/>
     </row>
-    <row r="274" spans="1:17" ht="22">
+    <row r="274" spans="1:17" ht="22.5">
       <c r="A274" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -22925,7 +22904,7 @@
       <c r="P274" s="34"/>
       <c r="Q274" s="34"/>
     </row>
-    <row r="275" spans="1:17" ht="44">
+    <row r="275" spans="1:17" ht="45">
       <c r="A275" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -22959,7 +22938,7 @@
       <c r="P275" s="34"/>
       <c r="Q275" s="34"/>
     </row>
-    <row r="276" spans="1:17" ht="44">
+    <row r="276" spans="1:17" ht="45">
       <c r="A276" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -22993,7 +22972,7 @@
       <c r="P276" s="34"/>
       <c r="Q276" s="34"/>
     </row>
-    <row r="277" spans="1:17" ht="22">
+    <row r="277" spans="1:17" ht="22.5">
       <c r="A277" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -23027,7 +23006,7 @@
       <c r="P277" s="34"/>
       <c r="Q277" s="34"/>
     </row>
-    <row r="278" spans="1:17" ht="22">
+    <row r="278" spans="1:17" ht="22.5">
       <c r="A278" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -23063,7 +23042,7 @@
       <c r="P278" s="34"/>
       <c r="Q278" s="34"/>
     </row>
-    <row r="279" spans="1:17" ht="22">
+    <row r="279" spans="1:17" ht="22.5">
       <c r="A279" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -23105,7 +23084,7 @@
       <c r="P279" s="69"/>
       <c r="Q279" s="69"/>
     </row>
-    <row r="280" spans="1:17" ht="22">
+    <row r="280" spans="1:17" ht="22.5">
       <c r="A280" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -23139,7 +23118,7 @@
       <c r="P280" s="69"/>
       <c r="Q280" s="69"/>
     </row>
-    <row r="281" spans="1:17" ht="22">
+    <row r="281" spans="1:17" ht="22.5">
       <c r="A281" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -23173,7 +23152,7 @@
       <c r="P281" s="69"/>
       <c r="Q281" s="69"/>
     </row>
-    <row r="282" spans="1:17" ht="22">
+    <row r="282" spans="1:17" ht="22.5">
       <c r="A282" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -23207,7 +23186,7 @@
       <c r="P282" s="69"/>
       <c r="Q282" s="69"/>
     </row>
-    <row r="283" spans="1:17" ht="22">
+    <row r="283" spans="1:17" ht="22.5">
       <c r="A283" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -23247,7 +23226,7 @@
       <c r="P283" s="69"/>
       <c r="Q283" s="69"/>
     </row>
-    <row r="284" spans="1:17" ht="22">
+    <row r="284" spans="1:17" ht="22.5">
       <c r="A284" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -23283,7 +23262,7 @@
       <c r="P284" s="69"/>
       <c r="Q284" s="69"/>
     </row>
-    <row r="285" spans="1:17" ht="22">
+    <row r="285" spans="1:17" ht="22.5">
       <c r="A285" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -23319,7 +23298,7 @@
       <c r="P285" s="69"/>
       <c r="Q285" s="69"/>
     </row>
-    <row r="286" spans="1:17" ht="22">
+    <row r="286" spans="1:17" ht="22.5">
       <c r="A286" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -23355,7 +23334,7 @@
       <c r="P286" s="69"/>
       <c r="Q286" s="69"/>
     </row>
-    <row r="287" spans="1:17" ht="22">
+    <row r="287" spans="1:17" ht="22.5">
       <c r="A287" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -23393,7 +23372,7 @@
       <c r="P287" s="69"/>
       <c r="Q287" s="69"/>
     </row>
-    <row r="288" spans="1:17" ht="22">
+    <row r="288" spans="1:17" ht="22.5">
       <c r="A288" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -23427,7 +23406,7 @@
       <c r="P288" s="69"/>
       <c r="Q288" s="69"/>
     </row>
-    <row r="289" spans="1:17" ht="33">
+    <row r="289" spans="1:17" ht="33.75">
       <c r="A289" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -23461,7 +23440,7 @@
       <c r="P289" s="69"/>
       <c r="Q289" s="69"/>
     </row>
-    <row r="290" spans="1:17" ht="33">
+    <row r="290" spans="1:17" ht="33.75">
       <c r="A290" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -23495,7 +23474,7 @@
       <c r="P290" s="69"/>
       <c r="Q290" s="69"/>
     </row>
-    <row r="291" spans="1:17" ht="33">
+    <row r="291" spans="1:17" ht="33.75">
       <c r="A291" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -23529,7 +23508,7 @@
       <c r="P291" s="69"/>
       <c r="Q291" s="69"/>
     </row>
-    <row r="292" spans="1:17" ht="33">
+    <row r="292" spans="1:17" ht="33.75">
       <c r="A292" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -23563,7 +23542,7 @@
       <c r="P292" s="69"/>
       <c r="Q292" s="69"/>
     </row>
-    <row r="293" spans="1:17" ht="33">
+    <row r="293" spans="1:17" ht="33.75">
       <c r="A293" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -23597,7 +23576,7 @@
       <c r="P293" s="69"/>
       <c r="Q293" s="69"/>
     </row>
-    <row r="294" spans="1:17" ht="22">
+    <row r="294" spans="1:17" ht="22.5">
       <c r="A294" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -23631,7 +23610,7 @@
       <c r="P294" s="69"/>
       <c r="Q294" s="69"/>
     </row>
-    <row r="295" spans="1:17" ht="22">
+    <row r="295" spans="1:17" ht="22.5">
       <c r="A295" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -23665,7 +23644,7 @@
       <c r="P295" s="69"/>
       <c r="Q295" s="69"/>
     </row>
-    <row r="296" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="296" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A296" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
@@ -23741,7 +23720,7 @@
       <c r="P297" s="55"/>
       <c r="Q297" s="55"/>
     </row>
-    <row r="298" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="298" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A298" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A298" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E298),
@@ -23781,7 +23760,7 @@
       <c r="P298" s="32"/>
       <c r="Q298" s="32"/>
     </row>
-    <row r="299" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="299" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A299" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A299" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E299),
@@ -23821,7 +23800,7 @@
       <c r="P299" s="32"/>
       <c r="Q299" s="32"/>
     </row>
-    <row r="300" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="300" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A300" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A300" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E300),
@@ -23861,7 +23840,7 @@
       <c r="P300" s="32"/>
       <c r="Q300" s="32"/>
     </row>
-    <row r="301" spans="1:17" ht="22">
+    <row r="301" spans="1:17" ht="22.5">
       <c r="A301" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E301),
@@ -23901,7 +23880,7 @@
       <c r="P301" s="85"/>
       <c r="Q301" s="85"/>
     </row>
-    <row r="302" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="302" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A302" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A302" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E302),
@@ -23941,7 +23920,7 @@
       <c r="P302" s="32"/>
       <c r="Q302" s="32"/>
     </row>
-    <row r="303" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="303" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A303" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E303),
@@ -23981,7 +23960,7 @@
       <c r="P303" s="32"/>
       <c r="Q303" s="32"/>
     </row>
-    <row r="304" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="304" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A304" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E304),
@@ -24021,7 +24000,7 @@
       <c r="P304" s="32"/>
       <c r="Q304" s="32"/>
     </row>
-    <row r="305" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="305" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A305" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
@@ -24061,7 +24040,7 @@
       <c r="P305" s="32"/>
       <c r="Q305" s="32"/>
     </row>
-    <row r="306" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="306" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A306" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A306" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E306),
@@ -24101,7 +24080,7 @@
       <c r="P306" s="32"/>
       <c r="Q306" s="32"/>
     </row>
-    <row r="307" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="307" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A307" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A307" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E307),
@@ -24141,7 +24120,7 @@
       <c r="P307" s="32"/>
       <c r="Q307" s="32"/>
     </row>
-    <row r="308" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="308" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A308" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A308" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E308),
@@ -24181,7 +24160,7 @@
       <c r="P308" s="32"/>
       <c r="Q308" s="32"/>
     </row>
-    <row r="309" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="309" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A309" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
@@ -24215,7 +24194,7 @@
       <c r="P309" s="55"/>
       <c r="Q309" s="55"/>
     </row>
-    <row r="310" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="310" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A310" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
@@ -24255,7 +24234,7 @@
       <c r="P310" s="32"/>
       <c r="Q310" s="32"/>
     </row>
-    <row r="311" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="311" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A311" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E311),
@@ -24289,7 +24268,7 @@
       <c r="P311" s="55"/>
       <c r="Q311" s="55"/>
     </row>
-    <row r="312" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="312" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A312" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E312),
@@ -24329,7 +24308,7 @@
       <c r="P312" s="32"/>
       <c r="Q312" s="32"/>
     </row>
-    <row r="313" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="313" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A313" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E313),
@@ -24367,7 +24346,7 @@
       <c r="P313" s="32"/>
       <c r="Q313" s="32"/>
     </row>
-    <row r="314" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="314" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A314" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A314" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E314),
@@ -24405,7 +24384,7 @@
       <c r="P314" s="32"/>
       <c r="Q314" s="32"/>
     </row>
-    <row r="315" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="315" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A315" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A315" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E315),
@@ -24443,7 +24422,7 @@
       <c r="P315" s="32"/>
       <c r="Q315" s="32"/>
     </row>
-    <row r="316" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="316" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A316" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A316" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E316),
@@ -24481,7 +24460,7 @@
       <c r="P316" s="32"/>
       <c r="Q316" s="32"/>
     </row>
-    <row r="317" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="317" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A317" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A317" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E317),
@@ -24519,7 +24498,7 @@
       <c r="P317" s="32"/>
       <c r="Q317" s="32"/>
     </row>
-    <row r="318" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="318" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A318" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A318" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E318),
@@ -24559,7 +24538,7 @@
       <c r="P318" s="32"/>
       <c r="Q318" s="32"/>
     </row>
-    <row r="319" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="319" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A319" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A319" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E319),
@@ -24597,7 +24576,7 @@
       <c r="P319" s="32"/>
       <c r="Q319" s="32"/>
     </row>
-    <row r="320" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="320" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A320" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A320" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E320),
@@ -24635,7 +24614,7 @@
       <c r="P320" s="32"/>
       <c r="Q320" s="32"/>
     </row>
-    <row r="321" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="321" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A321" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A321" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E321),
@@ -24673,7 +24652,7 @@
       <c r="P321" s="32"/>
       <c r="Q321" s="32"/>
     </row>
-    <row r="322" spans="1:17" s="30" customFormat="1" ht="44">
+    <row r="322" spans="1:17" s="30" customFormat="1" ht="45">
       <c r="A322" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A322" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E322),
@@ -24711,7 +24690,7 @@
       <c r="P322" s="32"/>
       <c r="Q322" s="32"/>
     </row>
-    <row r="323" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="323" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A323" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A323" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E323),
@@ -24749,7 +24728,7 @@
       <c r="P323" s="32"/>
       <c r="Q323" s="32"/>
     </row>
-    <row r="324" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="324" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A324" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A324" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E324),
@@ -24783,7 +24762,7 @@
       <c r="P324" s="55"/>
       <c r="Q324" s="55"/>
     </row>
-    <row r="325" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="325" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A325" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A325" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E325),
@@ -24817,7 +24796,7 @@
       <c r="P325" s="55"/>
       <c r="Q325" s="55"/>
     </row>
-    <row r="326" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="326" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A326" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A326" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E326),
@@ -24851,7 +24830,7 @@
       <c r="P326" s="55"/>
       <c r="Q326" s="55"/>
     </row>
-    <row r="327" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="327" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A327" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A327" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E327),
@@ -24887,7 +24866,7 @@
       <c r="P327" s="55"/>
       <c r="Q327" s="55"/>
     </row>
-    <row r="328" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="328" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A328" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A328" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E328),
@@ -24921,7 +24900,7 @@
       <c r="P328" s="55"/>
       <c r="Q328" s="55"/>
     </row>
-    <row r="329" spans="1:17" ht="33">
+    <row r="329" spans="1:17" ht="33.75">
       <c r="A329" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A329" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E329),
@@ -24963,7 +24942,7 @@
       <c r="P329" s="94"/>
       <c r="Q329" s="94"/>
     </row>
-    <row r="330" spans="1:17" ht="33">
+    <row r="330" spans="1:17" ht="33.75">
       <c r="A330" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A330" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E330),
@@ -25001,7 +24980,7 @@
       <c r="P330" s="94"/>
       <c r="Q330" s="94"/>
     </row>
-    <row r="331" spans="1:17" ht="33">
+    <row r="331" spans="1:17" ht="33.75">
       <c r="A331" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A331" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E331),
@@ -25039,7 +25018,7 @@
       <c r="P331" s="94"/>
       <c r="Q331" s="94"/>
     </row>
-    <row r="332" spans="1:17" ht="33">
+    <row r="332" spans="1:17" ht="33.75">
       <c r="A332" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A332" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E332),
@@ -25077,7 +25056,7 @@
       <c r="P332" s="94"/>
       <c r="Q332" s="94"/>
     </row>
-    <row r="333" spans="1:17" ht="33">
+    <row r="333" spans="1:17" ht="33.75">
       <c r="A333" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A333" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E333),
@@ -25115,7 +25094,7 @@
       <c r="P333" s="94"/>
       <c r="Q333" s="94"/>
     </row>
-    <row r="334" spans="1:17" ht="33">
+    <row r="334" spans="1:17" ht="33.75">
       <c r="A334" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A334" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E334),
@@ -25153,7 +25132,7 @@
       <c r="P334" s="94"/>
       <c r="Q334" s="94"/>
     </row>
-    <row r="335" spans="1:17" ht="33">
+    <row r="335" spans="1:17" ht="33.75">
       <c r="A335" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A335" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E335),
@@ -25191,7 +25170,7 @@
       <c r="P335" s="94"/>
       <c r="Q335" s="94"/>
     </row>
-    <row r="336" spans="1:17" ht="33">
+    <row r="336" spans="1:17" ht="33.75">
       <c r="A336" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A336" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E336),
@@ -25229,7 +25208,7 @@
       <c r="P336" s="94"/>
       <c r="Q336" s="94"/>
     </row>
-    <row r="337" spans="1:17" ht="33">
+    <row r="337" spans="1:17" ht="33.75">
       <c r="A337" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A337" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E337),
@@ -25269,7 +25248,7 @@
       <c r="P337" s="94"/>
       <c r="Q337" s="94"/>
     </row>
-    <row r="338" spans="1:17" ht="33">
+    <row r="338" spans="1:17" ht="33.75">
       <c r="A338" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A338" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E338),
@@ -25307,7 +25286,7 @@
       <c r="P338" s="94"/>
       <c r="Q338" s="94"/>
     </row>
-    <row r="339" spans="1:17" ht="33">
+    <row r="339" spans="1:17" ht="33.75">
       <c r="A339" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A339" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E339),
@@ -25345,7 +25324,7 @@
       <c r="P339" s="94"/>
       <c r="Q339" s="94"/>
     </row>
-    <row r="340" spans="1:17" ht="33">
+    <row r="340" spans="1:17" ht="33.75">
       <c r="A340" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A340" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E340),
@@ -25383,7 +25362,7 @@
       <c r="P340" s="94"/>
       <c r="Q340" s="94"/>
     </row>
-    <row r="341" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="341" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A341" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A341" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E341),
@@ -25419,7 +25398,7 @@
       <c r="P341" s="55"/>
       <c r="Q341" s="55"/>
     </row>
-    <row r="342" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="342" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A342" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A342" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E342),
@@ -25455,7 +25434,7 @@
       <c r="P342" s="55"/>
       <c r="Q342" s="55"/>
     </row>
-    <row r="343" spans="1:17" ht="22">
+    <row r="343" spans="1:17" ht="22.5">
       <c r="A343" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A343" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E343),
@@ -25489,7 +25468,7 @@
       <c r="P343" s="69"/>
       <c r="Q343" s="69"/>
     </row>
-    <row r="344" spans="1:17" ht="33">
+    <row r="344" spans="1:17" ht="33.75">
       <c r="A344" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A344" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E344),
@@ -25523,7 +25502,7 @@
       <c r="P344" s="69"/>
       <c r="Q344" s="69"/>
     </row>
-    <row r="345" spans="1:17" ht="44">
+    <row r="345" spans="1:17" ht="45">
       <c r="A345" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A345" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E345),
@@ -25557,7 +25536,7 @@
       <c r="P345" s="69"/>
       <c r="Q345" s="69"/>
     </row>
-    <row r="346" spans="1:17" ht="33">
+    <row r="346" spans="1:17" ht="33.75">
       <c r="A346" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A346" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E346),
@@ -25591,7 +25570,7 @@
       <c r="P346" s="69"/>
       <c r="Q346" s="69"/>
     </row>
-    <row r="347" spans="1:17" ht="44">
+    <row r="347" spans="1:17" ht="45">
       <c r="A347" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A347" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E347),
@@ -25625,7 +25604,7 @@
       <c r="P347" s="69"/>
       <c r="Q347" s="69"/>
     </row>
-    <row r="348" spans="1:17" ht="33">
+    <row r="348" spans="1:17" ht="33.75">
       <c r="A348" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A348" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E348),
@@ -25659,7 +25638,7 @@
       <c r="P348" s="69"/>
       <c r="Q348" s="69"/>
     </row>
-    <row r="349" spans="1:17" ht="44">
+    <row r="349" spans="1:17" ht="45">
       <c r="A349" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A349" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E349),
@@ -25693,7 +25672,7 @@
       <c r="P349" s="69"/>
       <c r="Q349" s="69"/>
     </row>
-    <row r="350" spans="1:17" ht="33">
+    <row r="350" spans="1:17" ht="33.75">
       <c r="A350" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A350" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E350),
@@ -25733,7 +25712,7 @@
       <c r="P350" s="54"/>
       <c r="Q350" s="54"/>
     </row>
-    <row r="351" spans="1:17" ht="33">
+    <row r="351" spans="1:17" ht="33.75">
       <c r="A351" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A351" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E351),
@@ -25775,7 +25754,7 @@
       <c r="P351" s="54"/>
       <c r="Q351" s="54"/>
     </row>
-    <row r="352" spans="1:17" ht="22">
+    <row r="352" spans="1:17" ht="22.5">
       <c r="A352" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A352" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E352),
@@ -25817,7 +25796,7 @@
       <c r="P352" s="54"/>
       <c r="Q352" s="54"/>
     </row>
-    <row r="353" spans="1:17" ht="33">
+    <row r="353" spans="1:17" ht="33.75">
       <c r="A353" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A353" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E353),
@@ -25861,7 +25840,7 @@
       <c r="P353" s="54"/>
       <c r="Q353" s="54"/>
     </row>
-    <row r="354" spans="1:17" ht="33">
+    <row r="354" spans="1:17" ht="33.75">
       <c r="A354" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A354" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E354),
@@ -25899,7 +25878,7 @@
       <c r="P354" s="54"/>
       <c r="Q354" s="54"/>
     </row>
-    <row r="355" spans="1:17" ht="22">
+    <row r="355" spans="1:17" ht="22.5">
       <c r="A355" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A355" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E355),
@@ -25937,7 +25916,7 @@
       <c r="P355" s="54"/>
       <c r="Q355" s="54"/>
     </row>
-    <row r="356" spans="1:17" ht="22">
+    <row r="356" spans="1:17" ht="22.5">
       <c r="A356" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A356" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E356),
@@ -25975,7 +25954,7 @@
       <c r="P356" s="54"/>
       <c r="Q356" s="54"/>
     </row>
-    <row r="357" spans="1:17" ht="33">
+    <row r="357" spans="1:17" ht="33.75">
       <c r="A357" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A357" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E357),
@@ -26013,7 +25992,7 @@
       <c r="P357" s="54"/>
       <c r="Q357" s="54"/>
     </row>
-    <row r="358" spans="1:17" ht="33">
+    <row r="358" spans="1:17" ht="33.75">
       <c r="A358" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A358" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E358),
@@ -26051,7 +26030,7 @@
       <c r="P358" s="54"/>
       <c r="Q358" s="54"/>
     </row>
-    <row r="359" spans="1:17" ht="22">
+    <row r="359" spans="1:17" ht="22.5">
       <c r="A359" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A359" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E359),
@@ -26087,7 +26066,7 @@
       <c r="P359" s="69"/>
       <c r="Q359" s="69"/>
     </row>
-    <row r="360" spans="1:17" ht="22">
+    <row r="360" spans="1:17" ht="22.5">
       <c r="A360" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A360" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E360),
@@ -26121,7 +26100,7 @@
       <c r="P360" s="69"/>
       <c r="Q360" s="69"/>
     </row>
-    <row r="361" spans="1:17" ht="22">
+    <row r="361" spans="1:17" ht="22.5">
       <c r="A361" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A361" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E361),
@@ -26155,7 +26134,7 @@
       <c r="P361" s="69"/>
       <c r="Q361" s="69"/>
     </row>
-    <row r="362" spans="1:17" ht="22">
+    <row r="362" spans="1:17" ht="22.5">
       <c r="A362" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A362" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E362),
@@ -26227,7 +26206,7 @@
       <c r="P363" s="69"/>
       <c r="Q363" s="69"/>
     </row>
-    <row r="364" spans="1:17" ht="22">
+    <row r="364" spans="1:17" ht="22.5">
       <c r="A364" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A364" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E364),
@@ -26261,7 +26240,7 @@
       <c r="P364" s="69"/>
       <c r="Q364" s="69"/>
     </row>
-    <row r="365" spans="1:17" ht="22">
+    <row r="365" spans="1:17" ht="22.5">
       <c r="A365" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A365" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E365),
@@ -26295,7 +26274,7 @@
       <c r="P365" s="69"/>
       <c r="Q365" s="69"/>
     </row>
-    <row r="366" spans="1:17" ht="22">
+    <row r="366" spans="1:17" ht="22.5">
       <c r="A366" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A366" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E366),
@@ -26333,7 +26312,7 @@
       <c r="P366" s="69"/>
       <c r="Q366" s="69"/>
     </row>
-    <row r="367" spans="1:17" ht="22">
+    <row r="367" spans="1:17" ht="22.5">
       <c r="A367" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A367" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E367),
@@ -26367,7 +26346,7 @@
       <c r="P367" s="69"/>
       <c r="Q367" s="69"/>
     </row>
-    <row r="368" spans="1:17" ht="22">
+    <row r="368" spans="1:17" ht="22.5">
       <c r="A368" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A368" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E368),
@@ -26401,7 +26380,7 @@
       <c r="P368" s="69"/>
       <c r="Q368" s="69"/>
     </row>
-    <row r="369" spans="1:17" ht="22">
+    <row r="369" spans="1:17" ht="22.5">
       <c r="A369" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A369" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E369),
@@ -26435,7 +26414,7 @@
       <c r="P369" s="69"/>
       <c r="Q369" s="69"/>
     </row>
-    <row r="370" spans="1:17" ht="22">
+    <row r="370" spans="1:17" ht="22.5">
       <c r="A370" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A370" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E370),
@@ -26469,7 +26448,7 @@
       <c r="P370" s="69"/>
       <c r="Q370" s="69"/>
     </row>
-    <row r="371" spans="1:17" ht="33">
+    <row r="371" spans="1:17" ht="33.75">
       <c r="A371" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A371" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E371),
@@ -26503,7 +26482,7 @@
       <c r="P371" s="69"/>
       <c r="Q371" s="69"/>
     </row>
-    <row r="372" spans="1:17" ht="22">
+    <row r="372" spans="1:17" ht="22.5">
       <c r="A372" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A372" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E372),
@@ -26537,7 +26516,7 @@
       <c r="P372" s="69"/>
       <c r="Q372" s="69"/>
     </row>
-    <row r="373" spans="1:17" ht="22">
+    <row r="373" spans="1:17" ht="22.5">
       <c r="A373" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A373" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E373),
@@ -26571,7 +26550,7 @@
       <c r="P373" s="69"/>
       <c r="Q373" s="69"/>
     </row>
-    <row r="374" spans="1:17" ht="22">
+    <row r="374" spans="1:17" ht="22.5">
       <c r="A374" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A374" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E374),
@@ -26605,7 +26584,7 @@
       <c r="P374" s="69"/>
       <c r="Q374" s="69"/>
     </row>
-    <row r="375" spans="1:17" ht="22">
+    <row r="375" spans="1:17" ht="22.5">
       <c r="A375" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A375" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E375),
@@ -26639,7 +26618,7 @@
       <c r="P375" s="69"/>
       <c r="Q375" s="69"/>
     </row>
-    <row r="376" spans="1:17" ht="22">
+    <row r="376" spans="1:17" ht="22.5">
       <c r="A376" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A376" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E376),
@@ -26673,7 +26652,7 @@
       <c r="P376" s="69"/>
       <c r="Q376" s="69"/>
     </row>
-    <row r="377" spans="1:17" ht="22">
+    <row r="377" spans="1:17" ht="22.5">
       <c r="A377" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A377" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E377),
@@ -26707,7 +26686,7 @@
       <c r="P377" s="69"/>
       <c r="Q377" s="69"/>
     </row>
-    <row r="378" spans="1:17" ht="22">
+    <row r="378" spans="1:17" ht="22.5">
       <c r="A378" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A378" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E378),
@@ -26741,7 +26720,7 @@
       <c r="P378" s="69"/>
       <c r="Q378" s="69"/>
     </row>
-    <row r="379" spans="1:17" ht="22">
+    <row r="379" spans="1:17" ht="22.5">
       <c r="A379" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A379" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E379),
@@ -26775,7 +26754,7 @@
       <c r="P379" s="69"/>
       <c r="Q379" s="69"/>
     </row>
-    <row r="380" spans="1:17" ht="22">
+    <row r="380" spans="1:17" ht="22.5">
       <c r="A380" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A380" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E380),
@@ -26811,7 +26790,7 @@
       <c r="P380" s="69"/>
       <c r="Q380" s="69"/>
     </row>
-    <row r="381" spans="1:17" ht="33">
+    <row r="381" spans="1:17" ht="33.75">
       <c r="A381" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A381" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E381),
@@ -26845,7 +26824,7 @@
       <c r="P381" s="69"/>
       <c r="Q381" s="69"/>
     </row>
-    <row r="382" spans="1:17" ht="33">
+    <row r="382" spans="1:17" ht="33.75">
       <c r="A382" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A382" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E382),
@@ -26879,7 +26858,7 @@
       <c r="P382" s="69"/>
       <c r="Q382" s="69"/>
     </row>
-    <row r="383" spans="1:17" ht="33">
+    <row r="383" spans="1:17" ht="33.75">
       <c r="A383" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A383" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E383),
@@ -26913,7 +26892,7 @@
       <c r="P383" s="69"/>
       <c r="Q383" s="69"/>
     </row>
-    <row r="384" spans="1:17" ht="22">
+    <row r="384" spans="1:17" ht="22.5">
       <c r="A384" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A384" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E384),
@@ -26947,7 +26926,7 @@
       <c r="P384" s="69"/>
       <c r="Q384" s="69"/>
     </row>
-    <row r="385" spans="1:17" ht="22">
+    <row r="385" spans="1:17" ht="22.5">
       <c r="A385" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A385" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E385),
@@ -26981,7 +26960,7 @@
       <c r="P385" s="69"/>
       <c r="Q385" s="69"/>
     </row>
-    <row r="386" spans="1:17" ht="22">
+    <row r="386" spans="1:17" ht="22.5">
       <c r="A386" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A386" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E386),
@@ -27015,7 +26994,7 @@
       <c r="P386" s="69"/>
       <c r="Q386" s="69"/>
     </row>
-    <row r="387" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="387" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A387" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A387" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E387),
@@ -27057,7 +27036,7 @@
       <c r="P387" s="162"/>
       <c r="Q387" s="162"/>
     </row>
-    <row r="388" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="388" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A388" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A388" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E388),
@@ -27091,7 +27070,7 @@
       <c r="P388" s="145"/>
       <c r="Q388" s="145"/>
     </row>
-    <row r="389" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="389" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A389" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A389" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E389),
@@ -27125,7 +27104,7 @@
       <c r="P389" s="145"/>
       <c r="Q389" s="145"/>
     </row>
-    <row r="390" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="390" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A390" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A390" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E390),
@@ -27159,7 +27138,7 @@
       <c r="P390" s="145"/>
       <c r="Q390" s="145"/>
     </row>
-    <row r="391" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="391" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A391" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A391" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E391),
@@ -27193,7 +27172,7 @@
       <c r="P391" s="145"/>
       <c r="Q391" s="145"/>
     </row>
-    <row r="392" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="392" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A392" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A392" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E392),
@@ -27265,7 +27244,7 @@
       <c r="P393" s="145"/>
       <c r="Q393" s="145"/>
     </row>
-    <row r="394" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="394" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A394" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A394" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E394),
@@ -27299,7 +27278,7 @@
       <c r="P394" s="145"/>
       <c r="Q394" s="145"/>
     </row>
-    <row r="395" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="395" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A395" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A395" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E395),
@@ -27367,7 +27346,7 @@
       <c r="P396" s="145"/>
       <c r="Q396" s="145"/>
     </row>
-    <row r="397" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="397" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A397" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A397" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E397),
@@ -27413,7 +27392,7 @@
       <c r="P397" s="97"/>
       <c r="Q397" s="97"/>
     </row>
-    <row r="398" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="398" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A398" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A398" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E398),
@@ -27451,7 +27430,7 @@
       <c r="P398" s="97"/>
       <c r="Q398" s="97"/>
     </row>
-    <row r="399" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="399" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A399" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A399" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E399),
@@ -27489,7 +27468,7 @@
       <c r="P399" s="97"/>
       <c r="Q399" s="97"/>
     </row>
-    <row r="400" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="400" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A400" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A400" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E400),
@@ -27527,7 +27506,7 @@
       <c r="P400" s="97"/>
       <c r="Q400" s="97"/>
     </row>
-    <row r="401" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="401" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A401" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A401" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E401),
@@ -27565,7 +27544,7 @@
       <c r="P401" s="97"/>
       <c r="Q401" s="97"/>
     </row>
-    <row r="402" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="402" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A402" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A402" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E402),
@@ -27603,7 +27582,7 @@
       <c r="P402" s="97"/>
       <c r="Q402" s="97"/>
     </row>
-    <row r="403" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="403" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A403" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A403" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E403),
@@ -27637,7 +27616,7 @@
       <c r="P403" s="105"/>
       <c r="Q403" s="105"/>
     </row>
-    <row r="404" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="404" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A404" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A404" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E404),
@@ -27677,7 +27656,7 @@
       <c r="P404" s="97"/>
       <c r="Q404" s="97"/>
     </row>
-    <row r="405" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="405" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A405" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A405" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E405),
@@ -27791,7 +27770,7 @@
       <c r="P407" s="97"/>
       <c r="Q407" s="97"/>
     </row>
-    <row r="408" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="408" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A408" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A408" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E408),
@@ -27829,7 +27808,7 @@
       <c r="P408" s="97"/>
       <c r="Q408" s="97"/>
     </row>
-    <row r="409" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="409" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A409" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A409" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E409),
@@ -27901,7 +27880,7 @@
       <c r="P410" s="105"/>
       <c r="Q410" s="105"/>
     </row>
-    <row r="411" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="411" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A411" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A411" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E411),
@@ -27935,7 +27914,7 @@
       <c r="P411" s="105"/>
       <c r="Q411" s="105"/>
     </row>
-    <row r="412" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="412" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A412" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A412" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E412),
@@ -27969,7 +27948,7 @@
       <c r="P412" s="105"/>
       <c r="Q412" s="105"/>
     </row>
-    <row r="413" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="413" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A413" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A413" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E413),
@@ -28013,7 +27992,7 @@
       <c r="P413" s="97"/>
       <c r="Q413" s="97"/>
     </row>
-    <row r="414" spans="1:17" s="30" customFormat="1" ht="44">
+    <row r="414" spans="1:17" s="30" customFormat="1" ht="45">
       <c r="A414" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A414" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E414),
@@ -28057,7 +28036,7 @@
       <c r="P414" s="97"/>
       <c r="Q414" s="97"/>
     </row>
-    <row r="415" spans="1:17" s="30" customFormat="1" ht="44">
+    <row r="415" spans="1:17" s="30" customFormat="1" ht="45">
       <c r="A415" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A415" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E415),
@@ -28095,7 +28074,7 @@
       <c r="P415" s="99"/>
       <c r="Q415" s="99"/>
     </row>
-    <row r="416" spans="1:17" s="30" customFormat="1" ht="44">
+    <row r="416" spans="1:17" s="30" customFormat="1" ht="45">
       <c r="A416" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A416" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E416),
@@ -28133,7 +28112,7 @@
       <c r="P416" s="99"/>
       <c r="Q416" s="99"/>
     </row>
-    <row r="417" spans="1:17" s="30" customFormat="1" ht="44">
+    <row r="417" spans="1:17" s="30" customFormat="1" ht="45">
       <c r="A417" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A417" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E417),
@@ -28171,7 +28150,7 @@
       <c r="P417" s="99"/>
       <c r="Q417" s="99"/>
     </row>
-    <row r="418" spans="1:17" s="30" customFormat="1" ht="44">
+    <row r="418" spans="1:17" s="30" customFormat="1" ht="45">
       <c r="A418" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A418" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E418),
@@ -28209,7 +28188,7 @@
       <c r="P418" s="99"/>
       <c r="Q418" s="99"/>
     </row>
-    <row r="419" spans="1:17" s="30" customFormat="1" ht="44">
+    <row r="419" spans="1:17" s="30" customFormat="1" ht="45">
       <c r="A419" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A419" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E419),
@@ -28247,7 +28226,7 @@
       <c r="P419" s="99"/>
       <c r="Q419" s="99"/>
     </row>
-    <row r="420" spans="1:17" s="30" customFormat="1" ht="44">
+    <row r="420" spans="1:17" s="30" customFormat="1" ht="45">
       <c r="A420" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A420" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E420),
@@ -28285,7 +28264,7 @@
       <c r="P420" s="99"/>
       <c r="Q420" s="99"/>
     </row>
-    <row r="421" spans="1:17" s="30" customFormat="1" ht="55">
+    <row r="421" spans="1:17" s="30" customFormat="1" ht="56.25">
       <c r="A421" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A421" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E421),
@@ -28329,7 +28308,7 @@
       <c r="P421" s="99"/>
       <c r="Q421" s="99"/>
     </row>
-    <row r="422" spans="1:17" ht="22">
+    <row r="422" spans="1:17" ht="22.5">
       <c r="A422" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A422" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E422),
@@ -28371,7 +28350,7 @@
       <c r="P422" s="69"/>
       <c r="Q422" s="69"/>
     </row>
-    <row r="423" spans="1:17" ht="22">
+    <row r="423" spans="1:17" ht="22.5">
       <c r="A423" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A423" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E423),
@@ -28419,7 +28398,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
@@ -28439,17 +28418,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="24" customWidth="1"/>
-    <col min="2" max="3" width="10.58203125" style="24" customWidth="1"/>
-    <col min="4" max="5" width="15.58203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="60.58203125" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="15.58203125" style="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.58203125" style="24" customWidth="1"/>
-    <col min="9" max="10" width="30.58203125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="20.58203125" style="24" customWidth="1"/>
-    <col min="12" max="14" width="8.58203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="24" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="24" customWidth="1"/>
+    <col min="4" max="5" width="15.625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="15.625" style="24" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.625" style="24" customWidth="1"/>
+    <col min="9" max="10" width="30.625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="24" customWidth="1"/>
+    <col min="12" max="14" width="8.625" style="24" customWidth="1"/>
     <col min="15" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -28492,7 +28471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="11.5" thickBot="1">
+    <row r="8" spans="1:16" ht="12" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -28510,7 +28489,7 @@
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
     </row>
-    <row r="9" spans="1:16" ht="11.5" thickTop="1">
+    <row r="9" spans="1:16" ht="12" thickTop="1">
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:16" s="30" customFormat="1">
@@ -28563,7 +28542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="11" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A11" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D11),
@@ -28731,7 +28710,7 @@
       <c r="O15" s="58"/>
       <c r="P15" s="58"/>
     </row>
-    <row r="16" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="16" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A16" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D16),
@@ -28833,7 +28812,7 @@
       <c r="O18" s="58"/>
       <c r="P18" s="58"/>
     </row>
-    <row r="19" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="19" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A19" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D19),
@@ -28869,7 +28848,7 @@
       <c r="O19" s="58"/>
       <c r="P19" s="58"/>
     </row>
-    <row r="20" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="20" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A20" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D20),
@@ -28903,7 +28882,7 @@
       <c r="O20" s="58"/>
       <c r="P20" s="58"/>
     </row>
-    <row r="21" spans="1:16" s="30" customFormat="1" ht="13">
+    <row r="21" spans="1:16" s="30" customFormat="1" ht="13.5">
       <c r="A21" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D21),
@@ -29007,7 +28986,7 @@
       <c r="O23" s="58"/>
       <c r="P23" s="58"/>
     </row>
-    <row r="24" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="24" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A24" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D24),
@@ -29075,7 +29054,7 @@
       <c r="O25" s="58"/>
       <c r="P25" s="58"/>
     </row>
-    <row r="26" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="26" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A26" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D26),
@@ -29141,7 +29120,7 @@
       <c r="O27" s="58"/>
       <c r="P27" s="58"/>
     </row>
-    <row r="28" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="28" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A28" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D28),
@@ -29179,7 +29158,7 @@
       <c r="O28" s="58"/>
       <c r="P28" s="58"/>
     </row>
-    <row r="29" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="29" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A29" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D29),
